--- a/exported.xlsx
+++ b/exported.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J656"/>
+  <dimension ref="A1:J655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,54 +518,62 @@
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>1000220</t>
+          <t>3001902</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>فرهاد قره بیگلو</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
+          <t>امیرحسین قاسمی</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>784771348</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>09333756016</t>
+        </is>
+      </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>1400/11/11 13:45</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>1400/11/11 13:46</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0110230582</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>عمران</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>دانشجویی</t>
         </is>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>1001001</t>
+          <t>1000220</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>محمدصادق روان بد</t>
+          <t>فرهاد قره بیگلو</t>
         </is>
       </c>
       <c r="C3" s="2" t="n"/>
@@ -602,12 +610,12 @@
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>1001002</t>
+          <t>1001001</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>دلارام پورسیستانی</t>
+          <t>محمدصادق روان بد</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
@@ -644,12 +652,12 @@
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>1001003</t>
+          <t>1001002</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>آیه عطاپور</t>
+          <t>دلارام پورسیستانی</t>
         </is>
       </c>
       <c r="C5" s="2" t="n"/>
@@ -686,12 +694,12 @@
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>1001004</t>
+          <t>1001003</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>سید مجتبی سادات منصوری</t>
+          <t>آیه عطاپور</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -728,12 +736,12 @@
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>1001005</t>
+          <t>1001004</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>مونا امیری</t>
+          <t>سید مجتبی سادات منصوری</t>
         </is>
       </c>
       <c r="C7" s="2" t="n"/>
@@ -770,12 +778,12 @@
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>1001006</t>
+          <t>1001005</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>مریم صلاحی</t>
+          <t>مونا امیری</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
@@ -812,12 +820,12 @@
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>1001007</t>
+          <t>1001006</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>نیلوفر امیرامجدی</t>
+          <t>مریم صلاحی</t>
         </is>
       </c>
       <c r="C9" s="2" t="n"/>
@@ -854,12 +862,12 @@
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>1001008</t>
+          <t>1001007</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>زهرا رضایی</t>
+          <t>نیلوفر امیرامجدی</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -896,12 +904,12 @@
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>1001009</t>
+          <t>1001008</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>بهنام قاسمی</t>
+          <t>زهرا رضایی</t>
         </is>
       </c>
       <c r="C11" s="2" t="n"/>
@@ -938,12 +946,12 @@
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>1001010</t>
+          <t>1001009</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>مطهره شاکری</t>
+          <t>بهنام قاسمی</t>
         </is>
       </c>
       <c r="C12" s="2" t="n"/>
@@ -980,12 +988,12 @@
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>1001011</t>
+          <t>1001010</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>سارا پورباقر</t>
+          <t>مطهره شاکری</t>
         </is>
       </c>
       <c r="C13" s="2" t="n"/>
@@ -1022,12 +1030,12 @@
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>1001012</t>
+          <t>1001011</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>مدیسا خندان</t>
+          <t>سارا پورباقر</t>
         </is>
       </c>
       <c r="C14" s="2" t="n"/>
@@ -1064,12 +1072,12 @@
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>1001013</t>
+          <t>1001012</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>مائده پوراسدی</t>
+          <t>مدیسا خندان</t>
         </is>
       </c>
       <c r="C15" s="2" t="n"/>
@@ -1106,12 +1114,12 @@
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>1001014</t>
+          <t>1001013</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>محمدجواد مرادقلی</t>
+          <t>مائده پوراسدی</t>
         </is>
       </c>
       <c r="C16" s="2" t="n"/>
@@ -1148,12 +1156,12 @@
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>1001015</t>
+          <t>1001014</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>سحر حشمتی</t>
+          <t>محمدجواد مرادقلی</t>
         </is>
       </c>
       <c r="C17" s="2" t="n"/>
@@ -1190,12 +1198,12 @@
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>1001016</t>
+          <t>1001015</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>مریم سلیمی</t>
+          <t>سحر حشمتی</t>
         </is>
       </c>
       <c r="C18" s="2" t="n"/>
@@ -1232,12 +1240,12 @@
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>1001017</t>
+          <t>1001016</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>عاطفه خلیفه</t>
+          <t>مریم سلیمی</t>
         </is>
       </c>
       <c r="C19" s="2" t="n"/>
@@ -1274,12 +1282,12 @@
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>1001018</t>
+          <t>1001017</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>المیرا محمودی</t>
+          <t>عاطفه خلیفه</t>
         </is>
       </c>
       <c r="C20" s="2" t="n"/>
@@ -1316,12 +1324,12 @@
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>1001019</t>
+          <t>1001018</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>زهرا عزیزی</t>
+          <t>المیرا محمودی</t>
         </is>
       </c>
       <c r="C21" s="2" t="n"/>
@@ -1358,12 +1366,12 @@
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>1001020</t>
+          <t>1001019</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>سانوش فلاح</t>
+          <t>زهرا عزیزی</t>
         </is>
       </c>
       <c r="C22" s="2" t="n"/>
@@ -1400,12 +1408,12 @@
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>1001021</t>
+          <t>1001020</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>فاطمه طوسی</t>
+          <t>سانوش فلاح</t>
         </is>
       </c>
       <c r="C23" s="2" t="n"/>
@@ -1442,12 +1450,12 @@
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>1001022</t>
+          <t>1001021</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>سارا سلامی دهخوارقان</t>
+          <t>فاطمه طوسی</t>
         </is>
       </c>
       <c r="C24" s="2" t="n"/>
@@ -1484,12 +1492,12 @@
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>1001024</t>
+          <t>1001022</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>شهرام کورسی پور</t>
+          <t>سارا سلامی دهخوارقان</t>
         </is>
       </c>
       <c r="C25" s="2" t="n"/>
@@ -1526,12 +1534,12 @@
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>1001025</t>
+          <t>1001024</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>سحر حمیدی</t>
+          <t>شهرام کورسی پور</t>
         </is>
       </c>
       <c r="C26" s="2" t="n"/>
@@ -1568,12 +1576,12 @@
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>1001026</t>
+          <t>1001025</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>ثریا دشتی</t>
+          <t>سحر حمیدی</t>
         </is>
       </c>
       <c r="C27" s="2" t="n"/>
@@ -1610,12 +1618,12 @@
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>1001027</t>
+          <t>1001026</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>مهرناز سادات سخت روزی</t>
+          <t>ثریا دشتی</t>
         </is>
       </c>
       <c r="C28" s="2" t="n"/>
@@ -1652,12 +1660,12 @@
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>1001028</t>
+          <t>1001027</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>فرحناز گنجواری</t>
+          <t>مهرناز سادات سخت روزی</t>
         </is>
       </c>
       <c r="C29" s="2" t="n"/>
@@ -1699,7 +1707,7 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>مهرناز سادات سخت روزی</t>
+          <t>فرحناز گنجواری</t>
         </is>
       </c>
       <c r="C30" s="2" t="n"/>
@@ -1736,12 +1744,12 @@
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>1001029</t>
+          <t>1001028</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>دلارام پورسیستانی</t>
+          <t>مهرناز سادات سخت روزی</t>
         </is>
       </c>
       <c r="C31" s="2" t="n"/>
@@ -1778,12 +1786,12 @@
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>1001031</t>
+          <t>1001029</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>امیر جوانبخت</t>
+          <t>دلارام پورسیستانی</t>
         </is>
       </c>
       <c r="C32" s="2" t="n"/>
@@ -1820,12 +1828,12 @@
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>1001032</t>
+          <t>1001031</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>داریوش راستخانه</t>
+          <t>امیر جوانبخت</t>
         </is>
       </c>
       <c r="C33" s="2" t="n"/>
@@ -1862,12 +1870,12 @@
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>1001033</t>
+          <t>1001032</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>فرشته فاتحی</t>
+          <t>داریوش راستخانه</t>
         </is>
       </c>
       <c r="C34" s="2" t="n"/>
@@ -1904,12 +1912,12 @@
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>1001034</t>
+          <t>1001033</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>حمید شاطر آبشوری</t>
+          <t>فرشته فاتحی</t>
         </is>
       </c>
       <c r="C35" s="2" t="n"/>
@@ -1946,12 +1954,12 @@
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>1001035</t>
+          <t>1001034</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>سپیده عباسی</t>
+          <t>حمید شاطر آبشوری</t>
         </is>
       </c>
       <c r="C36" s="2" t="n"/>
@@ -1988,12 +1996,12 @@
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>1001036</t>
+          <t>1001035</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>مرضیه یزدانی</t>
+          <t>سپیده عباسی</t>
         </is>
       </c>
       <c r="C37" s="2" t="n"/>
@@ -2030,12 +2038,12 @@
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>1001037</t>
+          <t>1001036</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>شیوا امینی</t>
+          <t>مرضیه یزدانی</t>
         </is>
       </c>
       <c r="C38" s="2" t="n"/>
@@ -2072,12 +2080,12 @@
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>1001038</t>
+          <t>1001037</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>پیمان جباری</t>
+          <t>شیوا امینی</t>
         </is>
       </c>
       <c r="C39" s="2" t="n"/>
@@ -2114,12 +2122,12 @@
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>1001039</t>
+          <t>1001038</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>معصومه رضوی</t>
+          <t>پیمان جباری</t>
         </is>
       </c>
       <c r="C40" s="2" t="n"/>
@@ -2156,12 +2164,12 @@
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>1001040</t>
+          <t>1001039</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>سارینا جمشیدی</t>
+          <t>معصومه رضوی</t>
         </is>
       </c>
       <c r="C41" s="2" t="n"/>
@@ -2198,12 +2206,12 @@
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>1001041</t>
+          <t>1001040</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>فاطمه غلامی</t>
+          <t>سارینا جمشیدی</t>
         </is>
       </c>
       <c r="C42" s="2" t="n"/>
@@ -2240,12 +2248,12 @@
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>1001042</t>
+          <t>1001041</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>مریم حافظی</t>
+          <t>فاطمه غلامی</t>
         </is>
       </c>
       <c r="C43" s="2" t="n"/>
@@ -2282,12 +2290,12 @@
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>1001045</t>
+          <t>1001042</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>صوفی فلاحی</t>
+          <t>مریم حافظی</t>
         </is>
       </c>
       <c r="C44" s="2" t="n"/>
@@ -2324,12 +2332,12 @@
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>1001046</t>
+          <t>1001045</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>امیرسام سعادتی</t>
+          <t>صوفی فلاحی</t>
         </is>
       </c>
       <c r="C45" s="2" t="n"/>
@@ -2366,12 +2374,12 @@
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>1001047</t>
+          <t>1001046</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>فاطمه احمدی</t>
+          <t>امیرسام سعادتی</t>
         </is>
       </c>
       <c r="C46" s="2" t="n"/>
@@ -2413,7 +2421,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>مونا عظیمی</t>
+          <t>فاطمه احمدی</t>
         </is>
       </c>
       <c r="C47" s="2" t="n"/>
@@ -2450,12 +2458,12 @@
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>1001048</t>
+          <t>1001047</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>آوا ادیبی</t>
+          <t>مونا عظیمی</t>
         </is>
       </c>
       <c r="C48" s="2" t="n"/>
@@ -2492,12 +2500,12 @@
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>1001049</t>
+          <t>1001048</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>ایلیا شهرتی</t>
+          <t>آوا ادیبی</t>
         </is>
       </c>
       <c r="C49" s="2" t="n"/>
@@ -2534,12 +2542,12 @@
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>1001050</t>
+          <t>1001049</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>باقر آبان گاه</t>
+          <t>ایلیا شهرتی</t>
         </is>
       </c>
       <c r="C50" s="2" t="n"/>
@@ -2576,12 +2584,12 @@
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>1001051</t>
+          <t>1001050</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>بهار قاسمیه</t>
+          <t>باقر آبان گاه</t>
         </is>
       </c>
       <c r="C51" s="2" t="n"/>
@@ -2623,7 +2631,7 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>مهدی نوری</t>
+          <t>بهار قاسمیه</t>
         </is>
       </c>
       <c r="C52" s="2" t="n"/>
@@ -2660,12 +2668,12 @@
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>1001060</t>
+          <t>1001051</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>زینب حسن زاده</t>
+          <t>مهدی نوری</t>
         </is>
       </c>
       <c r="C53" s="2" t="n"/>
@@ -2702,12 +2710,12 @@
     <row r="54" ht="20" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>1001500</t>
+          <t>1001060</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>غلامرضا یوسف صدیق</t>
+          <t>زینب حسن زاده</t>
         </is>
       </c>
       <c r="C54" s="2" t="n"/>
@@ -2744,12 +2752,12 @@
     <row r="55" ht="20" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>1001501</t>
+          <t>1001500</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>بهزاد زندی</t>
+          <t>غلامرضا یوسف صدیق</t>
         </is>
       </c>
       <c r="C55" s="2" t="n"/>
@@ -2786,12 +2794,12 @@
     <row r="56" ht="20" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>1001502</t>
+          <t>1001501</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>محدثه شکوهی</t>
+          <t>بهزاد زندی</t>
         </is>
       </c>
       <c r="C56" s="2" t="n"/>
@@ -2828,12 +2836,12 @@
     <row r="57" ht="20" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>1001504</t>
+          <t>1001502</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>سیروس سهامی</t>
+          <t>محدثه شکوهی</t>
         </is>
       </c>
       <c r="C57" s="2" t="n"/>
@@ -2870,12 +2878,12 @@
     <row r="58" ht="20" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>1001505</t>
+          <t>1001504</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>فاطمه ابراهیمی</t>
+          <t>سیروس سهامی</t>
         </is>
       </c>
       <c r="C58" s="2" t="n"/>
@@ -2912,12 +2920,12 @@
     <row r="59" ht="20" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>1001542</t>
+          <t>1001505</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>شهرام صیادی</t>
+          <t>فاطمه ابراهیمی</t>
         </is>
       </c>
       <c r="C59" s="2" t="n"/>
@@ -2954,12 +2962,12 @@
     <row r="60" ht="20" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>1001600</t>
+          <t>1001542</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>سیما رحمانی</t>
+          <t>شهرام صیادی</t>
         </is>
       </c>
       <c r="C60" s="2" t="n"/>
@@ -2996,12 +3004,12 @@
     <row r="61" ht="20" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>1001601</t>
+          <t>1001600</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>علی احمدی خطیر</t>
+          <t>سیما رحمانی</t>
         </is>
       </c>
       <c r="C61" s="2" t="n"/>
@@ -3038,12 +3046,12 @@
     <row r="62" ht="20" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>1001602</t>
+          <t>1001601</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>فاطمه احمدی</t>
+          <t>علی احمدی خطیر</t>
         </is>
       </c>
       <c r="C62" s="2" t="n"/>
@@ -3080,12 +3088,12 @@
     <row r="63" ht="20" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>1001750</t>
+          <t>1001602</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>اهورا بابایی</t>
+          <t>فاطمه احمدی</t>
         </is>
       </c>
       <c r="C63" s="2" t="n"/>
@@ -3122,12 +3130,12 @@
     <row r="64" ht="20" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>1001751</t>
+          <t>1001750</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>سید امیرحسین میرزمان دربندی</t>
+          <t>اهورا بابایی</t>
         </is>
       </c>
       <c r="C64" s="2" t="n"/>
@@ -3164,12 +3172,12 @@
     <row r="65" ht="20" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>1001752</t>
+          <t>1001751</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>وحید مرشدی تربتی</t>
+          <t>سید امیرحسین میرزمان دربندی</t>
         </is>
       </c>
       <c r="C65" s="2" t="n"/>
@@ -3211,7 +3219,7 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>حیدر مهدوی</t>
+          <t>وحید مرشدی تربتی</t>
         </is>
       </c>
       <c r="C66" s="2" t="n"/>
@@ -3248,12 +3256,12 @@
     <row r="67" ht="20" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>1001753</t>
+          <t>1001752</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>اکرم عبدی قراگوزلو</t>
+          <t>حیدر مهدوی</t>
         </is>
       </c>
       <c r="C67" s="2" t="n"/>
@@ -3290,12 +3298,12 @@
     <row r="68" ht="20" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>1001754</t>
+          <t>1001753</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>فریبا احمدی انصار</t>
+          <t>اکرم عبدی قراگوزلو</t>
         </is>
       </c>
       <c r="C68" s="2" t="n"/>
@@ -3332,12 +3340,12 @@
     <row r="69" ht="20" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>1001755</t>
+          <t>1001754</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>سپیده بابایی</t>
+          <t>فریبا احمدی انصار</t>
         </is>
       </c>
       <c r="C69" s="2" t="n"/>
@@ -3374,12 +3382,12 @@
     <row r="70" ht="20" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>1001756</t>
+          <t>1001755</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا پاس بخش</t>
+          <t>سپیده بابایی</t>
         </is>
       </c>
       <c r="C70" s="2" t="n"/>
@@ -3416,12 +3424,12 @@
     <row r="71" ht="20" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>1001757</t>
+          <t>1001756</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>سنا محمدبیگی</t>
+          <t>محمدرضا پاس بخش</t>
         </is>
       </c>
       <c r="C71" s="2" t="n"/>
@@ -3458,12 +3466,12 @@
     <row r="72" ht="20" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>1001758</t>
+          <t>1001757</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>الهه خان احمدی</t>
+          <t>سنا محمدبیگی</t>
         </is>
       </c>
       <c r="C72" s="2" t="n"/>
@@ -3500,12 +3508,12 @@
     <row r="73" ht="20" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>1001759</t>
+          <t>1001758</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>الهام خان احمدی</t>
+          <t>الهه خان احمدی</t>
         </is>
       </c>
       <c r="C73" s="2" t="n"/>
@@ -3542,12 +3550,12 @@
     <row r="74" ht="20" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>2001001</t>
+          <t>1001759</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>سید رضا هاشمی</t>
+          <t>الهام خان احمدی</t>
         </is>
       </c>
       <c r="C74" s="2" t="n"/>
@@ -3584,12 +3592,12 @@
     <row r="75" ht="20" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>2001002</t>
+          <t>2001001</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>داود قره داغی</t>
+          <t>سید رضا هاشمی</t>
         </is>
       </c>
       <c r="C75" s="2" t="n"/>
@@ -3626,12 +3634,12 @@
     <row r="76" ht="20" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>2001003</t>
+          <t>2001002</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا صفر هاشم آبادی</t>
+          <t>داود قره داغی</t>
         </is>
       </c>
       <c r="C76" s="2" t="n"/>
@@ -3668,12 +3676,12 @@
     <row r="77" ht="20" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>2001004</t>
+          <t>2001003</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>صابر آشوری</t>
+          <t>محمدرضا صفر هاشم آبادی</t>
         </is>
       </c>
       <c r="C77" s="2" t="n"/>
@@ -3710,12 +3718,12 @@
     <row r="78" ht="20" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>2001005</t>
+          <t>2001004</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>فرزاد نجفی گوگرچین</t>
+          <t>صابر آشوری</t>
         </is>
       </c>
       <c r="C78" s="2" t="n"/>
@@ -3752,12 +3760,12 @@
     <row r="79" ht="20" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>2001006</t>
+          <t>2001005</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>هلیا سادات احمدی</t>
+          <t>فرزاد نجفی گوگرچین</t>
         </is>
       </c>
       <c r="C79" s="2" t="n"/>
@@ -3794,12 +3802,12 @@
     <row r="80" ht="20" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>2001007</t>
+          <t>2001006</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>حمیدرضا جاودان</t>
+          <t>هلیا سادات احمدی</t>
         </is>
       </c>
       <c r="C80" s="2" t="n"/>
@@ -3841,7 +3849,7 @@
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>مهربان باستانی اله آبادی</t>
+          <t>حمیدرضا جاودان</t>
         </is>
       </c>
       <c r="C81" s="2" t="n"/>
@@ -3878,12 +3886,12 @@
     <row r="82" ht="20" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>2001008</t>
+          <t>2001007</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>ارسلان نیسانی سامانی</t>
+          <t>مهربان باستانی اله آبادی</t>
         </is>
       </c>
       <c r="C82" s="2" t="n"/>
@@ -3920,12 +3928,12 @@
     <row r="83" ht="20" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>2001009</t>
+          <t>2001008</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>مهدی شیرخانی</t>
+          <t>ارسلان نیسانی سامانی</t>
         </is>
       </c>
       <c r="C83" s="2" t="n"/>
@@ -3962,12 +3970,12 @@
     <row r="84" ht="20" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>2001010</t>
+          <t>2001009</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>سید علی صدر واقفی</t>
+          <t>مهدی شیرخانی</t>
         </is>
       </c>
       <c r="C84" s="2" t="n"/>
@@ -4004,12 +4012,12 @@
     <row r="85" ht="20" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>2001011</t>
+          <t>2001010</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>پژمان شهرابی</t>
+          <t>سید علی صدر واقفی</t>
         </is>
       </c>
       <c r="C85" s="2" t="n"/>
@@ -4046,12 +4054,12 @@
     <row r="86" ht="20" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>2001012</t>
+          <t>2001011</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>محمد میرزائی</t>
+          <t>پژمان شهرابی</t>
         </is>
       </c>
       <c r="C86" s="2" t="n"/>
@@ -4088,12 +4096,12 @@
     <row r="87" ht="20" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>2001013</t>
+          <t>2001012</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>علیرضا احسانی</t>
+          <t>محمد میرزائی</t>
         </is>
       </c>
       <c r="C87" s="2" t="n"/>
@@ -4130,12 +4138,12 @@
     <row r="88" ht="20" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>2001015</t>
+          <t>2001013</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>جهانگیر سیاح پور</t>
+          <t>علیرضا احسانی</t>
         </is>
       </c>
       <c r="C88" s="2" t="n"/>
@@ -4172,12 +4180,12 @@
     <row r="89" ht="20" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>2001016</t>
+          <t>2001015</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>حسین نعیمی خواه</t>
+          <t>جهانگیر سیاح پور</t>
         </is>
       </c>
       <c r="C89" s="2" t="n"/>
@@ -4214,7 +4222,7 @@
     <row r="90" ht="20" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>2001100</t>
+          <t>2001016</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -4256,12 +4264,12 @@
     <row r="91" ht="20" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>2001251</t>
+          <t>2001100</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>مهدی محمدی</t>
+          <t>حسین نعیمی خواه</t>
         </is>
       </c>
       <c r="C91" s="2" t="n"/>
@@ -4298,12 +4306,12 @@
     <row r="92" ht="20" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>2001252</t>
+          <t>2001251</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>وحید بدری</t>
+          <t>مهدی محمدی</t>
         </is>
       </c>
       <c r="C92" s="2" t="n"/>
@@ -4340,12 +4348,12 @@
     <row r="93" ht="20" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>2001253</t>
+          <t>2001252</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>بهناد محب</t>
+          <t>وحید بدری</t>
         </is>
       </c>
       <c r="C93" s="2" t="n"/>
@@ -4387,7 +4395,7 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>وحید فرجی</t>
+          <t>بهناد محب</t>
         </is>
       </c>
       <c r="C94" s="2" t="n"/>
@@ -4424,12 +4432,12 @@
     <row r="95" ht="20" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>2001254</t>
+          <t>2001253</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>حسن سوینی</t>
+          <t>وحید فرجی</t>
         </is>
       </c>
       <c r="C95" s="2" t="n"/>
@@ -4466,12 +4474,12 @@
     <row r="96" ht="20" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>2001255</t>
+          <t>2001254</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>رضا دیانی</t>
+          <t>حسن سوینی</t>
         </is>
       </c>
       <c r="C96" s="2" t="n"/>
@@ -4508,12 +4516,12 @@
     <row r="97" ht="20" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>2001256</t>
+          <t>2001255</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا دولتی</t>
+          <t>رضا دیانی</t>
         </is>
       </c>
       <c r="C97" s="2" t="n"/>
@@ -4550,12 +4558,12 @@
     <row r="98" ht="20" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>2001257</t>
+          <t>2001256</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>میثم عالم شناس</t>
+          <t>محمدرضا دولتی</t>
         </is>
       </c>
       <c r="C98" s="2" t="n"/>
@@ -4592,12 +4600,12 @@
     <row r="99" ht="20" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>2001258</t>
+          <t>2001257</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>ارسلان نیسانی سامانی</t>
+          <t>میثم عالم شناس</t>
         </is>
       </c>
       <c r="C99" s="2" t="n"/>
@@ -4634,12 +4642,12 @@
     <row r="100" ht="20" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>2001259</t>
+          <t>2001258</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>وحید فرجی</t>
+          <t>ارسلان نیسانی سامانی</t>
         </is>
       </c>
       <c r="C100" s="2" t="n"/>
@@ -4676,12 +4684,12 @@
     <row r="101" ht="20" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>2001321</t>
+          <t>2001259</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>رضا موذن</t>
+          <t>وحید فرجی</t>
         </is>
       </c>
       <c r="C101" s="2" t="n"/>
@@ -4718,12 +4726,12 @@
     <row r="102" ht="20" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>3001001</t>
+          <t>2001321</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>مجتبی واشقانی فراهانی</t>
+          <t>رضا موذن</t>
         </is>
       </c>
       <c r="C102" s="2" t="n"/>
@@ -4760,12 +4768,12 @@
     <row r="103" ht="20" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>3001002</t>
+          <t>3001001</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>مصطفی غایبی</t>
+          <t>مجتبی واشقانی فراهانی</t>
         </is>
       </c>
       <c r="C103" s="2" t="n"/>
@@ -4802,12 +4810,12 @@
     <row r="104" ht="20" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>3001003</t>
+          <t>3001002</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>میلاد باری پور</t>
+          <t>مصطفی غایبی</t>
         </is>
       </c>
       <c r="C104" s="2" t="n"/>
@@ -4844,12 +4852,12 @@
     <row r="105" ht="20" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>3001004</t>
+          <t>3001003</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>سید حسنعلی دریاباری</t>
+          <t>میلاد باری پور</t>
         </is>
       </c>
       <c r="C105" s="2" t="n"/>
@@ -4886,12 +4894,12 @@
     <row r="106" ht="20" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>3001005</t>
+          <t>3001004</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>محمدعلی درکی</t>
+          <t>سید حسنعلی دریاباری</t>
         </is>
       </c>
       <c r="C106" s="2" t="n"/>
@@ -4928,12 +4936,12 @@
     <row r="107" ht="20" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>3001006</t>
+          <t>3001005</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>محمد حسینی مکری</t>
+          <t>محمدعلی درکی</t>
         </is>
       </c>
       <c r="C107" s="2" t="n"/>
@@ -4970,12 +4978,12 @@
     <row r="108" ht="20" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>3001007</t>
+          <t>3001006</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>پیمان ظاهری</t>
+          <t>محمد حسینی مکری</t>
         </is>
       </c>
       <c r="C108" s="2" t="n"/>
@@ -5012,12 +5020,12 @@
     <row r="109" ht="20" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>3001008</t>
+          <t>3001007</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>بهرام چمنی</t>
+          <t>پیمان ظاهری</t>
         </is>
       </c>
       <c r="C109" s="2" t="n"/>
@@ -5054,12 +5062,12 @@
     <row r="110" ht="20" customHeight="1">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>3001009</t>
+          <t>3001008</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>مهدی شهسواریان</t>
+          <t>بهرام چمنی</t>
         </is>
       </c>
       <c r="C110" s="2" t="n"/>
@@ -5096,12 +5104,12 @@
     <row r="111" ht="20" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>3001010</t>
+          <t>3001009</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>رضا قاسمی</t>
+          <t>مهدی شهسواریان</t>
         </is>
       </c>
       <c r="C111" s="2" t="n"/>
@@ -5138,12 +5146,12 @@
     <row r="112" ht="20" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>3001011</t>
+          <t>3001010</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>امید یار احمدی</t>
+          <t>رضا قاسمی</t>
         </is>
       </c>
       <c r="C112" s="2" t="n"/>
@@ -5180,12 +5188,12 @@
     <row r="113" ht="20" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>3001012</t>
+          <t>3001011</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>حسین صفی خانی</t>
+          <t>امید یار احمدی</t>
         </is>
       </c>
       <c r="C113" s="2" t="n"/>
@@ -5222,12 +5230,12 @@
     <row r="114" ht="20" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>3001013</t>
+          <t>3001012</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>امیر عابدینی</t>
+          <t>حسین صفی خانی</t>
         </is>
       </c>
       <c r="C114" s="2" t="n"/>
@@ -5264,12 +5272,12 @@
     <row r="115" ht="20" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>3001014</t>
+          <t>3001013</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>حسین شالچی طوسی</t>
+          <t>امیر عابدینی</t>
         </is>
       </c>
       <c r="C115" s="2" t="n"/>
@@ -5306,12 +5314,12 @@
     <row r="116" ht="20" customHeight="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>3001015</t>
+          <t>3001014</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>حسین اسمعیلی</t>
+          <t>حسین شالچی طوسی</t>
         </is>
       </c>
       <c r="C116" s="2" t="n"/>
@@ -5348,12 +5356,12 @@
     <row r="117" ht="20" customHeight="1">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>3001016</t>
+          <t>3001015</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>محمدتقی مولائی راد</t>
+          <t>حسین اسمعیلی</t>
         </is>
       </c>
       <c r="C117" s="2" t="n"/>
@@ -5390,12 +5398,12 @@
     <row r="118" ht="20" customHeight="1">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>3001017</t>
+          <t>3001016</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>عین اله کیاوش نژاد</t>
+          <t>محمدتقی مولائی راد</t>
         </is>
       </c>
       <c r="C118" s="2" t="n"/>
@@ -5432,12 +5440,12 @@
     <row r="119" ht="20" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>3001018</t>
+          <t>3001017</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>آریا همامی</t>
+          <t>عین اله کیاوش نژاد</t>
         </is>
       </c>
       <c r="C119" s="2" t="n"/>
@@ -5474,12 +5482,12 @@
     <row r="120" ht="20" customHeight="1">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>3001019</t>
+          <t>3001018</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>محمدتقی کردی</t>
+          <t>آریا همامی</t>
         </is>
       </c>
       <c r="C120" s="2" t="n"/>
@@ -5516,12 +5524,12 @@
     <row r="121" ht="20" customHeight="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>3001020</t>
+          <t>3001019</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>حسن گمش لی</t>
+          <t>محمدتقی کردی</t>
         </is>
       </c>
       <c r="C121" s="2" t="n"/>
@@ -5558,12 +5566,12 @@
     <row r="122" ht="20" customHeight="1">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>3001021</t>
+          <t>3001020</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>مجید حکمتی</t>
+          <t>حسن گمش لی</t>
         </is>
       </c>
       <c r="C122" s="2" t="n"/>
@@ -5600,12 +5608,12 @@
     <row r="123" ht="20" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>3001022</t>
+          <t>3001021</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>حسین گلبخشی</t>
+          <t>مجید حکمتی</t>
         </is>
       </c>
       <c r="C123" s="2" t="n"/>
@@ -5642,12 +5650,12 @@
     <row r="124" ht="20" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>3001023</t>
+          <t>3001022</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>امیر یاوری</t>
+          <t>حسین گلبخشی</t>
         </is>
       </c>
       <c r="C124" s="2" t="n"/>
@@ -5684,12 +5692,12 @@
     <row r="125" ht="20" customHeight="1">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>3001024</t>
+          <t>3001023</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>حامد ملک زاده</t>
+          <t>امیر یاوری</t>
         </is>
       </c>
       <c r="C125" s="2" t="n"/>
@@ -5726,12 +5734,12 @@
     <row r="126" ht="20" customHeight="1">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>3001025</t>
+          <t>3001024</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>سعید عنبرستانی</t>
+          <t>حامد ملک زاده</t>
         </is>
       </c>
       <c r="C126" s="2" t="n"/>
@@ -5768,12 +5776,12 @@
     <row r="127" ht="20" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>3001026</t>
+          <t>3001025</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>یوسف گودرزی</t>
+          <t>سعید عنبرستانی</t>
         </is>
       </c>
       <c r="C127" s="2" t="n"/>
@@ -5810,12 +5818,12 @@
     <row r="128" ht="20" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>3001027</t>
+          <t>3001026</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>حمیدرضا زارع تیموری</t>
+          <t>یوسف گودرزی</t>
         </is>
       </c>
       <c r="C128" s="2" t="n"/>
@@ -5852,12 +5860,12 @@
     <row r="129" ht="20" customHeight="1">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>3001028</t>
+          <t>3001027</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>حمزه اثباتی</t>
+          <t>حمیدرضا زارع تیموری</t>
         </is>
       </c>
       <c r="C129" s="2" t="n"/>
@@ -5894,12 +5902,12 @@
     <row r="130" ht="20" customHeight="1">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>3001029</t>
+          <t>3001028</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>بابک پیدایش</t>
+          <t>حمزه اثباتی</t>
         </is>
       </c>
       <c r="C130" s="2" t="n"/>
@@ -5936,12 +5944,12 @@
     <row r="131" ht="20" customHeight="1">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>3001030</t>
+          <t>3001029</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>جهانگیر سیاح پور</t>
+          <t>بابک پیدایش</t>
         </is>
       </c>
       <c r="C131" s="2" t="n"/>
@@ -5978,12 +5986,12 @@
     <row r="132" ht="20" customHeight="1">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>3001031</t>
+          <t>3001030</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>علی مهدوی</t>
+          <t>جهانگیر سیاح پور</t>
         </is>
       </c>
       <c r="C132" s="2" t="n"/>
@@ -6020,12 +6028,12 @@
     <row r="133" ht="20" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>3001032</t>
+          <t>3001031</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>کامبیز ناصح مشفق</t>
+          <t>علی مهدوی</t>
         </is>
       </c>
       <c r="C133" s="2" t="n"/>
@@ -6062,12 +6070,12 @@
     <row r="134" ht="20" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>3001033</t>
+          <t>3001032</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا شالچی</t>
+          <t>کامبیز ناصح مشفق</t>
         </is>
       </c>
       <c r="C134" s="2" t="n"/>
@@ -6104,12 +6112,12 @@
     <row r="135" ht="20" customHeight="1">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>3001034</t>
+          <t>3001033</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>علیرضا صیادپور</t>
+          <t>محمدرضا شالچی</t>
         </is>
       </c>
       <c r="C135" s="2" t="n"/>
@@ -6146,12 +6154,12 @@
     <row r="136" ht="20" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>3001035</t>
+          <t>3001034</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>مجید خسروی لطفعلی</t>
+          <t>علیرضا صیادپور</t>
         </is>
       </c>
       <c r="C136" s="2" t="n"/>
@@ -6188,12 +6196,12 @@
     <row r="137" ht="20" customHeight="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>3001036</t>
+          <t>3001035</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا حسین</t>
+          <t>مجید خسروی لطفعلی</t>
         </is>
       </c>
       <c r="C137" s="2" t="n"/>
@@ -6230,12 +6238,12 @@
     <row r="138" ht="20" customHeight="1">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>3001037</t>
+          <t>3001036</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>فاطمه غنی زاده</t>
+          <t>محمدرضا حسین</t>
         </is>
       </c>
       <c r="C138" s="2" t="n"/>
@@ -6272,12 +6280,12 @@
     <row r="139" ht="20" customHeight="1">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>3001038</t>
+          <t>3001037</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>امید سقاپور</t>
+          <t>فاطمه غنی زاده</t>
         </is>
       </c>
       <c r="C139" s="2" t="n"/>
@@ -6314,12 +6322,12 @@
     <row r="140" ht="20" customHeight="1">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>3001039</t>
+          <t>3001038</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>ناصر واشقانی فراهانی</t>
+          <t>امید سقاپور</t>
         </is>
       </c>
       <c r="C140" s="2" t="n"/>
@@ -6356,12 +6364,12 @@
     <row r="141" ht="20" customHeight="1">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>3001040</t>
+          <t>3001039</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>محمد خانزاده</t>
+          <t>ناصر واشقانی فراهانی</t>
         </is>
       </c>
       <c r="C141" s="2" t="n"/>
@@ -6398,12 +6406,12 @@
     <row r="142" ht="20" customHeight="1">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>3001041</t>
+          <t>3001040</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>بهرنگ خداپرست</t>
+          <t>محمد خانزاده</t>
         </is>
       </c>
       <c r="C142" s="2" t="n"/>
@@ -6440,12 +6448,12 @@
     <row r="143" ht="20" customHeight="1">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>3001042</t>
+          <t>3001041</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>حسین واشقانی فراهانی</t>
+          <t>بهرنگ خداپرست</t>
         </is>
       </c>
       <c r="C143" s="2" t="n"/>
@@ -6482,12 +6490,12 @@
     <row r="144" ht="20" customHeight="1">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>3001043</t>
+          <t>3001042</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>سید توحید جاویدان</t>
+          <t>حسین واشقانی فراهانی</t>
         </is>
       </c>
       <c r="C144" s="2" t="n"/>
@@ -6524,12 +6532,12 @@
     <row r="145" ht="20" customHeight="1">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>3001044</t>
+          <t>3001043</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>حمیدرضا احمدی</t>
+          <t>سید توحید جاویدان</t>
         </is>
       </c>
       <c r="C145" s="2" t="n"/>
@@ -6566,12 +6574,12 @@
     <row r="146" ht="20" customHeight="1">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>3001045</t>
+          <t>3001044</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>علی سلیمی اردبیلی</t>
+          <t>حمیدرضا احمدی</t>
         </is>
       </c>
       <c r="C146" s="2" t="n"/>
@@ -6608,12 +6616,12 @@
     <row r="147" ht="20" customHeight="1">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>3001046</t>
+          <t>3001045</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>علیرضا مددی</t>
+          <t>علی سلیمی اردبیلی</t>
         </is>
       </c>
       <c r="C147" s="2" t="n"/>
@@ -6650,12 +6658,12 @@
     <row r="148" ht="20" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>3001047</t>
+          <t>3001046</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>بابک ضیایی</t>
+          <t>علیرضا مددی</t>
         </is>
       </c>
       <c r="C148" s="2" t="n"/>
@@ -6692,12 +6700,12 @@
     <row r="149" ht="20" customHeight="1">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>3001048</t>
+          <t>3001047</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>حمید برزگری</t>
+          <t>بابک ضیایی</t>
         </is>
       </c>
       <c r="C149" s="2" t="n"/>
@@ -6734,12 +6742,12 @@
     <row r="150" ht="20" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>3001049</t>
+          <t>3001048</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>حمید شفیع</t>
+          <t>حمید برزگری</t>
         </is>
       </c>
       <c r="C150" s="2" t="n"/>
@@ -6776,12 +6784,12 @@
     <row r="151" ht="20" customHeight="1">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>3001050</t>
+          <t>3001049</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>هوشیار رحیمی</t>
+          <t>حمید شفیع</t>
         </is>
       </c>
       <c r="C151" s="2" t="n"/>
@@ -6818,12 +6826,12 @@
     <row r="152" ht="20" customHeight="1">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>3001051</t>
+          <t>3001050</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>محمدحسین صداقت مطلق</t>
+          <t>هوشیار رحیمی</t>
         </is>
       </c>
       <c r="C152" s="2" t="n"/>
@@ -6860,12 +6868,12 @@
     <row r="153" ht="20" customHeight="1">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>3001052</t>
+          <t>3001051</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>کیوان ابوترابی</t>
+          <t>محمدحسین صداقت مطلق</t>
         </is>
       </c>
       <c r="C153" s="2" t="n"/>
@@ -6902,12 +6910,12 @@
     <row r="154" ht="20" customHeight="1">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>3001053</t>
+          <t>3001052</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>علیرضا اصغری بزرگی</t>
+          <t>کیوان ابوترابی</t>
         </is>
       </c>
       <c r="C154" s="2" t="n"/>
@@ -6944,12 +6952,12 @@
     <row r="155" ht="20" customHeight="1">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>3001054</t>
+          <t>3001053</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>امید مولوی مقدم</t>
+          <t>علیرضا اصغری بزرگی</t>
         </is>
       </c>
       <c r="C155" s="2" t="n"/>
@@ -6986,12 +6994,12 @@
     <row r="156" ht="20" customHeight="1">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>3001055</t>
+          <t>3001054</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>مجید منظومه</t>
+          <t>امید مولوی مقدم</t>
         </is>
       </c>
       <c r="C156" s="2" t="n"/>
@@ -7028,12 +7036,12 @@
     <row r="157" ht="20" customHeight="1">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>3001056</t>
+          <t>3001055</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>علی خسروشاهلی</t>
+          <t>مجید منظومه</t>
         </is>
       </c>
       <c r="C157" s="2" t="n"/>
@@ -7070,12 +7078,12 @@
     <row r="158" ht="20" customHeight="1">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>3001057</t>
+          <t>3001056</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>فائزه دفتری</t>
+          <t>علی خسروشاهلی</t>
         </is>
       </c>
       <c r="C158" s="2" t="n"/>
@@ -7112,12 +7120,12 @@
     <row r="159" ht="20" customHeight="1">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>3001058</t>
+          <t>3001057</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>سارا خانزاده</t>
+          <t>فائزه دفتری</t>
         </is>
       </c>
       <c r="C159" s="2" t="n"/>
@@ -7154,12 +7162,12 @@
     <row r="160" ht="20" customHeight="1">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>3001059</t>
+          <t>3001058</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>امیر بابایی 2</t>
+          <t>سارا خانزاده</t>
         </is>
       </c>
       <c r="C160" s="2" t="n"/>
@@ -7196,12 +7204,12 @@
     <row r="161" ht="20" customHeight="1">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>3001060</t>
+          <t>3001059</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>وحید خیری</t>
+          <t>امیر بابایی 2</t>
         </is>
       </c>
       <c r="C161" s="2" t="n"/>
@@ -7238,12 +7246,12 @@
     <row r="162" ht="20" customHeight="1">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>3001061</t>
+          <t>3001060</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>نیما رشتی</t>
+          <t>وحید خیری</t>
         </is>
       </c>
       <c r="C162" s="2" t="n"/>
@@ -7280,12 +7288,12 @@
     <row r="163" ht="20" customHeight="1">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>3001062</t>
+          <t>3001061</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>بهداد خاموشیان</t>
+          <t>نیما رشتی</t>
         </is>
       </c>
       <c r="C163" s="2" t="n"/>
@@ -7322,12 +7330,12 @@
     <row r="164" ht="20" customHeight="1">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>3001063</t>
+          <t>3001062</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>رامین وحیدی مولوی</t>
+          <t>بهداد خاموشیان</t>
         </is>
       </c>
       <c r="C164" s="2" t="n"/>
@@ -7364,12 +7372,12 @@
     <row r="165" ht="20" customHeight="1">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>3001064</t>
+          <t>3001063</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>حسن رسولی</t>
+          <t>رامین وحیدی مولوی</t>
         </is>
       </c>
       <c r="C165" s="2" t="n"/>
@@ -7406,12 +7414,12 @@
     <row r="166" ht="20" customHeight="1">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>3001065</t>
+          <t>3001064</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>مهدی منصوری خجسته</t>
+          <t>حسن رسولی</t>
         </is>
       </c>
       <c r="C166" s="2" t="n"/>
@@ -7448,12 +7456,12 @@
     <row r="167" ht="20" customHeight="1">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>3001066</t>
+          <t>3001065</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>فرشاد صادقی اشلقی</t>
+          <t>مهدی منصوری خجسته</t>
         </is>
       </c>
       <c r="C167" s="2" t="n"/>
@@ -7490,12 +7498,12 @@
     <row r="168" ht="20" customHeight="1">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>3001067</t>
+          <t>3001066</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>نوید جوادی</t>
+          <t>فرشاد صادقی اشلقی</t>
         </is>
       </c>
       <c r="C168" s="2" t="n"/>
@@ -7532,12 +7540,12 @@
     <row r="169" ht="20" customHeight="1">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>3001068</t>
+          <t>3001067</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>محمود گلی</t>
+          <t>نوید جوادی</t>
         </is>
       </c>
       <c r="C169" s="2" t="n"/>
@@ -7574,12 +7582,12 @@
     <row r="170" ht="20" customHeight="1">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>3001069</t>
+          <t>3001068</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>داوود عظیمی</t>
+          <t>محمود گلی</t>
         </is>
       </c>
       <c r="C170" s="2" t="n"/>
@@ -7616,12 +7624,12 @@
     <row r="171" ht="20" customHeight="1">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>3001070</t>
+          <t>3001069</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>فربد تاج الدین</t>
+          <t>داوود عظیمی</t>
         </is>
       </c>
       <c r="C171" s="2" t="n"/>
@@ -7658,12 +7666,12 @@
     <row r="172" ht="20" customHeight="1">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>3001071</t>
+          <t>3001070</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>احسان فرحی</t>
+          <t>فربد تاج الدین</t>
         </is>
       </c>
       <c r="C172" s="2" t="n"/>
@@ -7700,12 +7708,12 @@
     <row r="173" ht="20" customHeight="1">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>3001072</t>
+          <t>3001071</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا مشکل گشا</t>
+          <t>احسان فرحی</t>
         </is>
       </c>
       <c r="C173" s="2" t="n"/>
@@ -7742,12 +7750,12 @@
     <row r="174" ht="20" customHeight="1">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>3001073</t>
+          <t>3001072</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>علی رضایی</t>
+          <t>محمدرضا مشکل گشا</t>
         </is>
       </c>
       <c r="C174" s="2" t="n"/>
@@ -7784,12 +7792,12 @@
     <row r="175" ht="20" customHeight="1">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>3001074</t>
+          <t>3001073</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>سیده کوثر احمدی</t>
+          <t>علی رضایی</t>
         </is>
       </c>
       <c r="C175" s="2" t="n"/>
@@ -7826,12 +7834,12 @@
     <row r="176" ht="20" customHeight="1">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>3001075</t>
+          <t>3001074</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>مریم عسگری</t>
+          <t>سیده کوثر احمدی</t>
         </is>
       </c>
       <c r="C176" s="2" t="n"/>
@@ -7868,12 +7876,12 @@
     <row r="177" ht="20" customHeight="1">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>3001076</t>
+          <t>3001075</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>احسان کثیرلو</t>
+          <t>مریم عسگری</t>
         </is>
       </c>
       <c r="C177" s="2" t="n"/>
@@ -7910,12 +7918,12 @@
     <row r="178" ht="20" customHeight="1">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>3001077</t>
+          <t>3001076</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>حسین لواسانی</t>
+          <t>احسان کثیرلو</t>
         </is>
       </c>
       <c r="C178" s="2" t="n"/>
@@ -7952,12 +7960,12 @@
     <row r="179" ht="20" customHeight="1">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>3001078</t>
+          <t>3001077</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>محمد قهرمانی</t>
+          <t>حسین لواسانی</t>
         </is>
       </c>
       <c r="C179" s="2" t="n"/>
@@ -7994,12 +8002,12 @@
     <row r="180" ht="20" customHeight="1">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>3001079</t>
+          <t>3001078</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>حسین مرتضایی</t>
+          <t>محمد قهرمانی</t>
         </is>
       </c>
       <c r="C180" s="2" t="n"/>
@@ -8036,12 +8044,12 @@
     <row r="181" ht="20" customHeight="1">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>3001080</t>
+          <t>3001079</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>نوید ملاحسین</t>
+          <t>حسین مرتضایی</t>
         </is>
       </c>
       <c r="C181" s="2" t="n"/>
@@ -8078,12 +8086,12 @@
     <row r="182" ht="20" customHeight="1">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>3001082</t>
+          <t>3001080</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>سید علیرضا سعیدی راد</t>
+          <t>نوید ملاحسین</t>
         </is>
       </c>
       <c r="C182" s="2" t="n"/>
@@ -8125,7 +8133,7 @@
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>کیارش فخاری</t>
+          <t>سید علیرضا سعیدی راد</t>
         </is>
       </c>
       <c r="C183" s="2" t="n"/>
@@ -8162,12 +8170,12 @@
     <row r="184" ht="20" customHeight="1">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>3001083</t>
+          <t>3001082</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>ناصر عبدی</t>
+          <t>کیارش فخاری</t>
         </is>
       </c>
       <c r="C184" s="2" t="n"/>
@@ -8204,12 +8212,12 @@
     <row r="185" ht="20" customHeight="1">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>3001084</t>
+          <t>3001083</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>رامین سلمانی</t>
+          <t>ناصر عبدی</t>
         </is>
       </c>
       <c r="C185" s="2" t="n"/>
@@ -8251,7 +8259,7 @@
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>سید مهدی سیدشجاع</t>
+          <t>رامین سلمانی</t>
         </is>
       </c>
       <c r="C186" s="2" t="n"/>
@@ -8288,12 +8296,12 @@
     <row r="187" ht="20" customHeight="1">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>3001085</t>
+          <t>3001084</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>بابک مرادخانی</t>
+          <t>سید مهدی سیدشجاع</t>
         </is>
       </c>
       <c r="C187" s="2" t="n"/>
@@ -8330,12 +8338,12 @@
     <row r="188" ht="20" customHeight="1">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>3001086</t>
+          <t>3001085</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>بابک بدری</t>
+          <t>بابک مرادخانی</t>
         </is>
       </c>
       <c r="C188" s="2" t="n"/>
@@ -8372,12 +8380,12 @@
     <row r="189" ht="20" customHeight="1">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>3001087</t>
+          <t>3001086</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>سید صالح داورپناه</t>
+          <t>بابک بدری</t>
         </is>
       </c>
       <c r="C189" s="2" t="n"/>
@@ -8414,12 +8422,12 @@
     <row r="190" ht="20" customHeight="1">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>3001088</t>
+          <t>3001087</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>فائزه حسنی نژاد فراهانی</t>
+          <t>سید صالح داورپناه</t>
         </is>
       </c>
       <c r="C190" s="2" t="n"/>
@@ -8456,12 +8464,12 @@
     <row r="191" ht="20" customHeight="1">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>3001089</t>
+          <t>3001088</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>مهسا کریمی</t>
+          <t>فائزه حسنی نژاد فراهانی</t>
         </is>
       </c>
       <c r="C191" s="2" t="n"/>
@@ -8498,12 +8506,12 @@
     <row r="192" ht="20" customHeight="1">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>3001090</t>
+          <t>3001089</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>علیرضا سیادتی</t>
+          <t>مهسا کریمی</t>
         </is>
       </c>
       <c r="C192" s="2" t="n"/>
@@ -8540,12 +8548,12 @@
     <row r="193" ht="20" customHeight="1">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>3001092</t>
+          <t>3001090</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>فریبرز آرمان</t>
+          <t>علیرضا سیادتی</t>
         </is>
       </c>
       <c r="C193" s="2" t="n"/>
@@ -8582,12 +8590,12 @@
     <row r="194" ht="20" customHeight="1">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>3001093</t>
+          <t>3001092</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>علی امین پور</t>
+          <t>فریبرز آرمان</t>
         </is>
       </c>
       <c r="C194" s="2" t="n"/>
@@ -8624,12 +8632,12 @@
     <row r="195" ht="20" customHeight="1">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>3001094</t>
+          <t>3001093</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>حجت حاتم پور</t>
+          <t>علی امین پور</t>
         </is>
       </c>
       <c r="C195" s="2" t="n"/>
@@ -8666,12 +8674,12 @@
     <row r="196" ht="20" customHeight="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>3001095</t>
+          <t>3001094</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>ایمان بیژنی</t>
+          <t>حجت حاتم پور</t>
         </is>
       </c>
       <c r="C196" s="2" t="n"/>
@@ -8708,12 +8716,12 @@
     <row r="197" ht="20" customHeight="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>3001096</t>
+          <t>3001095</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>هادی حائری</t>
+          <t>ایمان بیژنی</t>
         </is>
       </c>
       <c r="C197" s="2" t="n"/>
@@ -8750,12 +8758,12 @@
     <row r="198" ht="20" customHeight="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>3001097</t>
+          <t>3001096</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>مجتبی دلیلی</t>
+          <t>هادی حائری</t>
         </is>
       </c>
       <c r="C198" s="2" t="n"/>
@@ -8792,12 +8800,12 @@
     <row r="199" ht="20" customHeight="1">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>3001098</t>
+          <t>3001097</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>امیرمهدی صیاد</t>
+          <t>مجتبی دلیلی</t>
         </is>
       </c>
       <c r="C199" s="2" t="n"/>
@@ -8834,12 +8842,12 @@
     <row r="200" ht="20" customHeight="1">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>3001099</t>
+          <t>3001098</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>امیررضا قریشی</t>
+          <t>امیرمهدی صیاد</t>
         </is>
       </c>
       <c r="C200" s="2" t="n"/>
@@ -8876,12 +8884,12 @@
     <row r="201" ht="20" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>3001100</t>
+          <t>3001099</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>محمدحسین حاتم پور</t>
+          <t>امیررضا قریشی</t>
         </is>
       </c>
       <c r="C201" s="2" t="n"/>
@@ -8918,12 +8926,12 @@
     <row r="202" ht="20" customHeight="1">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>3001102</t>
+          <t>3001100</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>تینا نقشینه</t>
+          <t>محمدحسین حاتم پور</t>
         </is>
       </c>
       <c r="C202" s="2" t="n"/>
@@ -8960,12 +8968,12 @@
     <row r="203" ht="20" customHeight="1">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>3001103</t>
+          <t>3001102</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>محمدنوید نیکرام</t>
+          <t>تینا نقشینه</t>
         </is>
       </c>
       <c r="C203" s="2" t="n"/>
@@ -9002,12 +9010,12 @@
     <row r="204" ht="20" customHeight="1">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>3001104</t>
+          <t>3001103</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>مرتضی نیکنام</t>
+          <t>محمدنوید نیکرام</t>
         </is>
       </c>
       <c r="C204" s="2" t="n"/>
@@ -9044,12 +9052,12 @@
     <row r="205" ht="20" customHeight="1">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>3001105</t>
+          <t>3001104</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>سید علاءالدین قریشی</t>
+          <t>مرتضی نیکنام</t>
         </is>
       </c>
       <c r="C205" s="2" t="n"/>
@@ -9086,12 +9094,12 @@
     <row r="206" ht="20" customHeight="1">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>3001106</t>
+          <t>3001105</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>جعفر یزدی زاده</t>
+          <t>سید علاءالدین قریشی</t>
         </is>
       </c>
       <c r="C206" s="2" t="n"/>
@@ -9128,12 +9136,12 @@
     <row r="207" ht="20" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>3001107</t>
+          <t>3001106</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>مهدی کشاورز ویشکایی</t>
+          <t>جعفر یزدی زاده</t>
         </is>
       </c>
       <c r="C207" s="2" t="n"/>
@@ -9170,12 +9178,12 @@
     <row r="208" ht="20" customHeight="1">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>3001108</t>
+          <t>3001107</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>محمدامین زندی</t>
+          <t>مهدی کشاورز ویشکایی</t>
         </is>
       </c>
       <c r="C208" s="2" t="n"/>
@@ -9212,12 +9220,12 @@
     <row r="209" ht="20" customHeight="1">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>3001111</t>
+          <t>3001108</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>حسین رامندی</t>
+          <t>محمدامین زندی</t>
         </is>
       </c>
       <c r="C209" s="2" t="n"/>
@@ -9254,12 +9262,12 @@
     <row r="210" ht="20" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>3001112</t>
+          <t>3001111</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>مبینا کلهر</t>
+          <t>حسین رامندی</t>
         </is>
       </c>
       <c r="C210" s="2" t="n"/>
@@ -9296,12 +9304,12 @@
     <row r="211" ht="20" customHeight="1">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>3001113</t>
+          <t>3001112</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>زینب فخرفاطمی</t>
+          <t>مبینا کلهر</t>
         </is>
       </c>
       <c r="C211" s="2" t="n"/>
@@ -9338,12 +9346,12 @@
     <row r="212" ht="20" customHeight="1">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>3001114</t>
+          <t>3001113</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>رسول عاشوری</t>
+          <t>زینب فخرفاطمی</t>
         </is>
       </c>
       <c r="C212" s="2" t="n"/>
@@ -9380,12 +9388,12 @@
     <row r="213" ht="20" customHeight="1">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>3001115</t>
+          <t>3001114</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>ملیحه اسلام پناه</t>
+          <t>رسول عاشوری</t>
         </is>
       </c>
       <c r="C213" s="2" t="n"/>
@@ -9422,12 +9430,12 @@
     <row r="214" ht="20" customHeight="1">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>3001116</t>
+          <t>3001115</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>امیر اقبالی</t>
+          <t>ملیحه اسلام پناه</t>
         </is>
       </c>
       <c r="C214" s="2" t="n"/>
@@ -9464,12 +9472,12 @@
     <row r="215" ht="20" customHeight="1">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>3001117</t>
+          <t>3001116</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>علی جلالی</t>
+          <t>امیر اقبالی</t>
         </is>
       </c>
       <c r="C215" s="2" t="n"/>
@@ -9506,12 +9514,12 @@
     <row r="216" ht="20" customHeight="1">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>3001118</t>
+          <t>3001117</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>علیرضا محمدزاده</t>
+          <t>علی جلالی</t>
         </is>
       </c>
       <c r="C216" s="2" t="n"/>
@@ -9548,12 +9556,12 @@
     <row r="217" ht="20" customHeight="1">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>3001119</t>
+          <t>3001118</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>امید شهبازی</t>
+          <t>علیرضا محمدزاده</t>
         </is>
       </c>
       <c r="C217" s="2" t="n"/>
@@ -9590,12 +9598,12 @@
     <row r="218" ht="20" customHeight="1">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>3001120</t>
+          <t>3001119</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>میلاد یزدان پناه</t>
+          <t>امید شهبازی</t>
         </is>
       </c>
       <c r="C218" s="2" t="n"/>
@@ -9632,12 +9640,12 @@
     <row r="219" ht="20" customHeight="1">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>3001121</t>
+          <t>3001120</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>مهتاب محمدی</t>
+          <t>میلاد یزدان پناه</t>
         </is>
       </c>
       <c r="C219" s="2" t="n"/>
@@ -9674,12 +9682,12 @@
     <row r="220" ht="20" customHeight="1">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>3001122</t>
+          <t>3001121</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>امیرمحسن جاهد شبستری</t>
+          <t>مهتاب محمدی</t>
         </is>
       </c>
       <c r="C220" s="2" t="n"/>
@@ -9716,12 +9724,12 @@
     <row r="221" ht="20" customHeight="1">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>3001123</t>
+          <t>3001122</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>ساناز صالحی نجاتی</t>
+          <t>امیرمحسن جاهد شبستری</t>
         </is>
       </c>
       <c r="C221" s="2" t="n"/>
@@ -9758,12 +9766,12 @@
     <row r="222" ht="20" customHeight="1">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>3001124</t>
+          <t>3001123</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>محمد کاظمی</t>
+          <t>ساناز صالحی نجاتی</t>
         </is>
       </c>
       <c r="C222" s="2" t="n"/>
@@ -9800,12 +9808,12 @@
     <row r="223" ht="20" customHeight="1">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>3001125</t>
+          <t>3001124</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>مهدی رحمانی</t>
+          <t>محمد کاظمی</t>
         </is>
       </c>
       <c r="C223" s="2" t="n"/>
@@ -9842,12 +9850,12 @@
     <row r="224" ht="20" customHeight="1">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>3001126</t>
+          <t>3001125</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>مصطفی رحمانی</t>
+          <t>مهدی رحمانی</t>
         </is>
       </c>
       <c r="C224" s="2" t="n"/>
@@ -9884,12 +9892,12 @@
     <row r="225" ht="20" customHeight="1">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>3001127</t>
+          <t>3001126</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>حمید مهاجر</t>
+          <t>مصطفی رحمانی</t>
         </is>
       </c>
       <c r="C225" s="2" t="n"/>
@@ -9926,12 +9934,12 @@
     <row r="226" ht="20" customHeight="1">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>3001128</t>
+          <t>3001127</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>محمد ونایی</t>
+          <t>حمید مهاجر</t>
         </is>
       </c>
       <c r="C226" s="2" t="n"/>
@@ -9968,12 +9976,12 @@
     <row r="227" ht="20" customHeight="1">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>3001129</t>
+          <t>3001128</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>سید مهرداد</t>
+          <t>محمد ونایی</t>
         </is>
       </c>
       <c r="C227" s="2" t="n"/>
@@ -10010,12 +10018,12 @@
     <row r="228" ht="20" customHeight="1">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>3001130</t>
+          <t>3001129</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>سونا شمس گوارا</t>
+          <t>سید مهرداد</t>
         </is>
       </c>
       <c r="C228" s="2" t="n"/>
@@ -10052,12 +10060,12 @@
     <row r="229" ht="20" customHeight="1">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>3001131</t>
+          <t>3001130</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>سالار آزمون</t>
+          <t>سونا شمس گوارا</t>
         </is>
       </c>
       <c r="C229" s="2" t="n"/>
@@ -10094,12 +10102,12 @@
     <row r="230" ht="20" customHeight="1">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>3001132</t>
+          <t>3001131</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>مهدی غفاری</t>
+          <t>سالار آزمون</t>
         </is>
       </c>
       <c r="C230" s="2" t="n"/>
@@ -10136,12 +10144,12 @@
     <row r="231" ht="20" customHeight="1">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>3001133</t>
+          <t>3001132</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>مینا حسین پور</t>
+          <t>مهدی غفاری</t>
         </is>
       </c>
       <c r="C231" s="2" t="n"/>
@@ -10178,12 +10186,12 @@
     <row r="232" ht="20" customHeight="1">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>3001134</t>
+          <t>3001133</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>میثاق دری بخش</t>
+          <t>مینا حسین پور</t>
         </is>
       </c>
       <c r="C232" s="2" t="n"/>
@@ -10220,12 +10228,12 @@
     <row r="233" ht="20" customHeight="1">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>3001135</t>
+          <t>3001134</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>مهیا چگرنه</t>
+          <t>میثاق دری بخش</t>
         </is>
       </c>
       <c r="C233" s="2" t="n"/>
@@ -10262,12 +10270,12 @@
     <row r="234" ht="20" customHeight="1">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>3001136</t>
+          <t>3001135</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>احمد مولوی</t>
+          <t>مهیا چگرنه</t>
         </is>
       </c>
       <c r="C234" s="2" t="n"/>
@@ -10304,12 +10312,12 @@
     <row r="235" ht="20" customHeight="1">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>3001137</t>
+          <t>3001136</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>مصطفی خراسانی</t>
+          <t>احمد مولوی</t>
         </is>
       </c>
       <c r="C235" s="2" t="n"/>
@@ -10346,12 +10354,12 @@
     <row r="236" ht="20" customHeight="1">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>3001138</t>
+          <t>3001137</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>هوشنگ رحیمی</t>
+          <t>مصطفی خراسانی</t>
         </is>
       </c>
       <c r="C236" s="2" t="n"/>
@@ -10388,12 +10396,12 @@
     <row r="237" ht="20" customHeight="1">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>3001139</t>
+          <t>3001138</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>غلامرضا یاوری</t>
+          <t>هوشنگ رحیمی</t>
         </is>
       </c>
       <c r="C237" s="2" t="n"/>
@@ -10430,12 +10438,12 @@
     <row r="238" ht="20" customHeight="1">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>3001141</t>
+          <t>3001139</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>حمید عربخانی</t>
+          <t>غلامرضا یاوری</t>
         </is>
       </c>
       <c r="C238" s="2" t="n"/>
@@ -10472,12 +10480,12 @@
     <row r="239" ht="20" customHeight="1">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>3001142</t>
+          <t>3001141</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>علیرضا روشنی پژوه</t>
+          <t>حمید عربخانی</t>
         </is>
       </c>
       <c r="C239" s="2" t="n"/>
@@ -10514,12 +10522,12 @@
     <row r="240" ht="20" customHeight="1">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>3001143</t>
+          <t>3001142</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>اشکان فیضی راد</t>
+          <t>علیرضا روشنی پژوه</t>
         </is>
       </c>
       <c r="C240" s="2" t="n"/>
@@ -10556,12 +10564,12 @@
     <row r="241" ht="20" customHeight="1">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>3001144</t>
+          <t>3001143</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>مجتبی امیدخواه</t>
+          <t>اشکان فیضی راد</t>
         </is>
       </c>
       <c r="C241" s="2" t="n"/>
@@ -10598,12 +10606,12 @@
     <row r="242" ht="20" customHeight="1">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>3001145</t>
+          <t>3001144</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>بهنام مرادزادکور عباسلو</t>
+          <t>مجتبی امیدخواه</t>
         </is>
       </c>
       <c r="C242" s="2" t="n"/>
@@ -10640,12 +10648,12 @@
     <row r="243" ht="20" customHeight="1">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>3001146</t>
+          <t>3001145</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>عادل رحمانی</t>
+          <t>بهنام مرادزادکور عباسلو</t>
         </is>
       </c>
       <c r="C243" s="2" t="n"/>
@@ -10682,12 +10690,12 @@
     <row r="244" ht="20" customHeight="1">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>3001147</t>
+          <t>3001146</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>نعیما خرازیان چرندابی</t>
+          <t>عادل رحمانی</t>
         </is>
       </c>
       <c r="C244" s="2" t="n"/>
@@ -10724,12 +10732,12 @@
     <row r="245" ht="20" customHeight="1">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>3001148</t>
+          <t>3001147</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>احمد بهرامی فرد</t>
+          <t>نعیما خرازیان چرندابی</t>
         </is>
       </c>
       <c r="C245" s="2" t="n"/>
@@ -10766,12 +10774,12 @@
     <row r="246" ht="20" customHeight="1">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>3001149</t>
+          <t>3001148</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>شاهین بیاتی</t>
+          <t>احمد بهرامی فرد</t>
         </is>
       </c>
       <c r="C246" s="2" t="n"/>
@@ -10808,12 +10816,12 @@
     <row r="247" ht="20" customHeight="1">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>3001150</t>
+          <t>3001149</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>بهروز اسعدی</t>
+          <t>شاهین بیاتی</t>
         </is>
       </c>
       <c r="C247" s="2" t="n"/>
@@ -10850,12 +10858,12 @@
     <row r="248" ht="20" customHeight="1">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>3001151</t>
+          <t>3001150</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>مسعود کرمیان</t>
+          <t>بهروز اسعدی</t>
         </is>
       </c>
       <c r="C248" s="2" t="n"/>
@@ -10892,12 +10900,12 @@
     <row r="249" ht="20" customHeight="1">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>3001152</t>
+          <t>3001151</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>حسین آگاه تهرانی</t>
+          <t>مسعود کرمیان</t>
         </is>
       </c>
       <c r="C249" s="2" t="n"/>
@@ -10934,12 +10942,12 @@
     <row r="250" ht="20" customHeight="1">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>3001153</t>
+          <t>3001152</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>محدثه ابراهیمی</t>
+          <t>حسین آگاه تهرانی</t>
         </is>
       </c>
       <c r="C250" s="2" t="n"/>
@@ -10976,12 +10984,12 @@
     <row r="251" ht="20" customHeight="1">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>3001154</t>
+          <t>3001153</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>محمد بنی جانی</t>
+          <t>محدثه ابراهیمی</t>
         </is>
       </c>
       <c r="C251" s="2" t="n"/>
@@ -11018,12 +11026,12 @@
     <row r="252" ht="20" customHeight="1">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>3001155</t>
+          <t>3001154</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>هادی مرادی تبریزی</t>
+          <t>محمد بنی جانی</t>
         </is>
       </c>
       <c r="C252" s="2" t="n"/>
@@ -11060,12 +11068,12 @@
     <row r="253" ht="20" customHeight="1">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>3001156</t>
+          <t>3001155</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>شاهرخ دانشمند اسلامی</t>
+          <t>هادی مرادی تبریزی</t>
         </is>
       </c>
       <c r="C253" s="2" t="n"/>
@@ -11102,12 +11110,12 @@
     <row r="254" ht="20" customHeight="1">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>3001157</t>
+          <t>3001156</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>حمیدرضا هاشمی طاهری</t>
+          <t>شاهرخ دانشمند اسلامی</t>
         </is>
       </c>
       <c r="C254" s="2" t="n"/>
@@ -11144,12 +11152,12 @@
     <row r="255" ht="20" customHeight="1">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>3001158</t>
+          <t>3001157</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>داریوش الهی پور</t>
+          <t>حمیدرضا هاشمی طاهری</t>
         </is>
       </c>
       <c r="C255" s="2" t="n"/>
@@ -11186,12 +11194,12 @@
     <row r="256" ht="20" customHeight="1">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>3001159</t>
+          <t>3001158</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>محسن نجفی</t>
+          <t>داریوش الهی پور</t>
         </is>
       </c>
       <c r="C256" s="2" t="n"/>
@@ -11228,12 +11236,12 @@
     <row r="257" ht="20" customHeight="1">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>3001160</t>
+          <t>3001159</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>حسین برماشی</t>
+          <t>محسن نجفی</t>
         </is>
       </c>
       <c r="C257" s="2" t="n"/>
@@ -11270,12 +11278,12 @@
     <row r="258" ht="20" customHeight="1">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>3001161</t>
+          <t>3001160</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>زهره قهرمانی</t>
+          <t>حسین برماشی</t>
         </is>
       </c>
       <c r="C258" s="2" t="n"/>
@@ -11312,12 +11320,12 @@
     <row r="259" ht="20" customHeight="1">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>3001162</t>
+          <t>3001161</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>پریسا ایمانی زاده</t>
+          <t>زهره قهرمانی</t>
         </is>
       </c>
       <c r="C259" s="2" t="n"/>
@@ -11354,12 +11362,12 @@
     <row r="260" ht="20" customHeight="1">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>3001163</t>
+          <t>3001162</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>پرستو فریادمرنی</t>
+          <t>پریسا ایمانی زاده</t>
         </is>
       </c>
       <c r="C260" s="2" t="n"/>
@@ -11396,12 +11404,12 @@
     <row r="261" ht="20" customHeight="1">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>3001171</t>
+          <t>3001163</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>سینا ارگی</t>
+          <t>پرستو فریادمرنی</t>
         </is>
       </c>
       <c r="C261" s="2" t="n"/>
@@ -11438,12 +11446,12 @@
     <row r="262" ht="20" customHeight="1">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>3001172</t>
+          <t>3001171</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>محسن ساهری</t>
+          <t>سینا ارگی</t>
         </is>
       </c>
       <c r="C262" s="2" t="n"/>
@@ -11480,12 +11488,12 @@
     <row r="263" ht="20" customHeight="1">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>3001173</t>
+          <t>3001172</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>رزنیک سیدپور</t>
+          <t>محسن ساهری</t>
         </is>
       </c>
       <c r="C263" s="2" t="n"/>
@@ -11522,12 +11530,12 @@
     <row r="264" ht="20" customHeight="1">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>3001174</t>
+          <t>3001173</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>پیمان حسام فر</t>
+          <t>رزنیک سیدپور</t>
         </is>
       </c>
       <c r="C264" s="2" t="n"/>
@@ -11564,12 +11572,12 @@
     <row r="265" ht="20" customHeight="1">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>3001175</t>
+          <t>3001174</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>مریم عسکری</t>
+          <t>پیمان حسام فر</t>
         </is>
       </c>
       <c r="C265" s="2" t="n"/>
@@ -11606,12 +11614,12 @@
     <row r="266" ht="20" customHeight="1">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>3001176</t>
+          <t>3001175</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>لادن تاج آباد</t>
+          <t>مریم عسکری</t>
         </is>
       </c>
       <c r="C266" s="2" t="n"/>
@@ -11648,12 +11656,12 @@
     <row r="267" ht="20" customHeight="1">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>3001178</t>
+          <t>3001176</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>امیرمهدی علی آبادی</t>
+          <t>لادن تاج آباد</t>
         </is>
       </c>
       <c r="C267" s="2" t="n"/>
@@ -11690,12 +11698,12 @@
     <row r="268" ht="20" customHeight="1">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>3001179</t>
+          <t>3001178</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>افشین پناه خواه فرد</t>
+          <t>امیرمهدی علی آبادی</t>
         </is>
       </c>
       <c r="C268" s="2" t="n"/>
@@ -11732,12 +11740,12 @@
     <row r="269" ht="20" customHeight="1">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>3001180</t>
+          <t>3001179</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>علی نانگلی</t>
+          <t>افشین پناه خواه فرد</t>
         </is>
       </c>
       <c r="C269" s="2" t="n"/>
@@ -11774,12 +11782,12 @@
     <row r="270" ht="20" customHeight="1">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>3001181</t>
+          <t>3001180</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>امیرمهدی صیاد</t>
+          <t>علی نانگلی</t>
         </is>
       </c>
       <c r="C270" s="2" t="n"/>
@@ -11816,12 +11824,12 @@
     <row r="271" ht="20" customHeight="1">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>3001182</t>
+          <t>3001181</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>مرتضی نیکنام</t>
+          <t>امیرمهدی صیاد</t>
         </is>
       </c>
       <c r="C271" s="2" t="n"/>
@@ -11858,12 +11866,12 @@
     <row r="272" ht="20" customHeight="1">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>3001183</t>
+          <t>3001182</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>ایمان بیژنی</t>
+          <t>مرتضی نیکنام</t>
         </is>
       </c>
       <c r="C272" s="2" t="n"/>
@@ -11900,12 +11908,12 @@
     <row r="273" ht="20" customHeight="1">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>3001184</t>
+          <t>3001183</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>محمدحسین حاتم پور</t>
+          <t>ایمان بیژنی</t>
         </is>
       </c>
       <c r="C273" s="2" t="n"/>
@@ -11942,12 +11950,12 @@
     <row r="274" ht="20" customHeight="1">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>3001185</t>
+          <t>3001184</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>سید علاءالدین قریشی</t>
+          <t>محمدحسین حاتم پور</t>
         </is>
       </c>
       <c r="C274" s="2" t="n"/>
@@ -11984,12 +11992,12 @@
     <row r="275" ht="20" customHeight="1">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>3001186</t>
+          <t>3001185</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>جعفر یزدی زاده</t>
+          <t>سید علاءالدین قریشی</t>
         </is>
       </c>
       <c r="C275" s="2" t="n"/>
@@ -12026,12 +12034,12 @@
     <row r="276" ht="20" customHeight="1">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>3001187</t>
+          <t>3001186</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>تینا نقشینه</t>
+          <t>جعفر یزدی زاده</t>
         </is>
       </c>
       <c r="C276" s="2" t="n"/>
@@ -12068,12 +12076,12 @@
     <row r="277" ht="20" customHeight="1">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>3001188</t>
+          <t>3001187</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>امیررضا قریشی</t>
+          <t>تینا نقشینه</t>
         </is>
       </c>
       <c r="C277" s="2" t="n"/>
@@ -12110,12 +12118,12 @@
     <row r="278" ht="20" customHeight="1">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>3001189</t>
+          <t>3001188</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>حجت حاتم پور</t>
+          <t>امیررضا قریشی</t>
         </is>
       </c>
       <c r="C278" s="2" t="n"/>
@@ -12152,12 +12160,12 @@
     <row r="279" ht="20" customHeight="1">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>3001190</t>
+          <t>3001189</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>محمدنوید نیکرام</t>
+          <t>حجت حاتم پور</t>
         </is>
       </c>
       <c r="C279" s="2" t="n"/>
@@ -12194,12 +12202,12 @@
     <row r="280" ht="20" customHeight="1">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>3001191</t>
+          <t>3001190</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>مجتبی دلیلی</t>
+          <t>محمدنوید نیکرام</t>
         </is>
       </c>
       <c r="C280" s="2" t="n"/>
@@ -12236,7 +12244,7 @@
     <row r="281" ht="20" customHeight="1">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>3001192</t>
+          <t>3001191</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
@@ -12278,12 +12286,12 @@
     <row r="282" ht="20" customHeight="1">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>3001193</t>
+          <t>3001192</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>میلاد نیک ضمیر</t>
+          <t>مجتبی دلیلی</t>
         </is>
       </c>
       <c r="C282" s="2" t="n"/>
@@ -12320,12 +12328,12 @@
     <row r="283" ht="20" customHeight="1">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>3001194</t>
+          <t>3001193</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا طباخی ممقانی</t>
+          <t>میلاد نیک ضمیر</t>
         </is>
       </c>
       <c r="C283" s="2" t="n"/>
@@ -12362,12 +12370,12 @@
     <row r="284" ht="20" customHeight="1">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>3001195</t>
+          <t>3001194</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>محمدسهیل طهماسبی</t>
+          <t>محمدرضا طباخی ممقانی</t>
         </is>
       </c>
       <c r="C284" s="2" t="n"/>
@@ -12404,12 +12412,12 @@
     <row r="285" ht="20" customHeight="1">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>3001196</t>
+          <t>3001195</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>رضا طالب بیگی</t>
+          <t>محمدسهیل طهماسبی</t>
         </is>
       </c>
       <c r="C285" s="2" t="n"/>
@@ -12446,12 +12454,12 @@
     <row r="286" ht="20" customHeight="1">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>3001197</t>
+          <t>3001196</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>مهیا چگرنه</t>
+          <t>رضا طالب بیگی</t>
         </is>
       </c>
       <c r="C286" s="2" t="n"/>
@@ -12488,12 +12496,12 @@
     <row r="287" ht="20" customHeight="1">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>3001198</t>
+          <t>3001197</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>علی نانگلی</t>
+          <t>مهیا چگرنه</t>
         </is>
       </c>
       <c r="C287" s="2" t="n"/>
@@ -12530,12 +12538,12 @@
     <row r="288" ht="20" customHeight="1">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>3001199</t>
+          <t>3001198</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>امیرمهدی علی آبادی</t>
+          <t>علی نانگلی</t>
         </is>
       </c>
       <c r="C288" s="2" t="n"/>
@@ -12572,12 +12580,12 @@
     <row r="289" ht="20" customHeight="1">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>3001200</t>
+          <t>3001199</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>احسان کثیرلو</t>
+          <t>امیرمهدی علی آبادی</t>
         </is>
       </c>
       <c r="C289" s="2" t="n"/>
@@ -12614,12 +12622,12 @@
     <row r="290" ht="20" customHeight="1">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>3001201</t>
+          <t>3001200</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>امید قمری</t>
+          <t>احسان کثیرلو</t>
         </is>
       </c>
       <c r="C290" s="2" t="n"/>
@@ -12656,12 +12664,12 @@
     <row r="291" ht="20" customHeight="1">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>3001202</t>
+          <t>3001201</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>حسین اکبری ناصر</t>
+          <t>امید قمری</t>
         </is>
       </c>
       <c r="C291" s="2" t="n"/>
@@ -12698,12 +12706,12 @@
     <row r="292" ht="20" customHeight="1">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>3001203</t>
+          <t>3001202</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>سید ساعد حسینی</t>
+          <t>حسین اکبری ناصر</t>
         </is>
       </c>
       <c r="C292" s="2" t="n"/>
@@ -12740,12 +12748,12 @@
     <row r="293" ht="20" customHeight="1">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>3001204</t>
+          <t>3001203</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>امیرحسین مقدم</t>
+          <t>سید ساعد حسینی</t>
         </is>
       </c>
       <c r="C293" s="2" t="n"/>
@@ -12782,12 +12790,12 @@
     <row r="294" ht="20" customHeight="1">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>3001205</t>
+          <t>3001204</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>مهرداد هنرمایه هرات</t>
+          <t>امیرحسین مقدم</t>
         </is>
       </c>
       <c r="C294" s="2" t="n"/>
@@ -12824,12 +12832,12 @@
     <row r="295" ht="20" customHeight="1">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>3001206</t>
+          <t>3001205</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>علی اکبر سعیدی</t>
+          <t>مهرداد هنرمایه هرات</t>
         </is>
       </c>
       <c r="C295" s="2" t="n"/>
@@ -12866,12 +12874,12 @@
     <row r="296" ht="20" customHeight="1">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>3001207</t>
+          <t>3001206</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>رضا طالب بیگی</t>
+          <t>علی اکبر سعیدی</t>
         </is>
       </c>
       <c r="C296" s="2" t="n"/>
@@ -12908,12 +12916,12 @@
     <row r="297" ht="20" customHeight="1">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>3001208</t>
+          <t>3001207</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>عباسعلی مهدانیان</t>
+          <t>رضا طالب بیگی</t>
         </is>
       </c>
       <c r="C297" s="2" t="n"/>
@@ -12950,12 +12958,12 @@
     <row r="298" ht="20" customHeight="1">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>3001209</t>
+          <t>3001208</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>ابوالقاسم قاسمی</t>
+          <t>عباسعلی مهدانیان</t>
         </is>
       </c>
       <c r="C298" s="2" t="n"/>
@@ -12992,12 +13000,12 @@
     <row r="299" ht="20" customHeight="1">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>3001210</t>
+          <t>3001209</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>علی پورنوری</t>
+          <t>ابوالقاسم قاسمی</t>
         </is>
       </c>
       <c r="C299" s="2" t="n"/>
@@ -13034,12 +13042,12 @@
     <row r="300" ht="20" customHeight="1">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>3001211</t>
+          <t>3001210</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>علی اسفندی</t>
+          <t>علی پورنوری</t>
         </is>
       </c>
       <c r="C300" s="2" t="n"/>
@@ -13076,12 +13084,12 @@
     <row r="301" ht="20" customHeight="1">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>3001212</t>
+          <t>3001211</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>یحیی اکابری</t>
+          <t>علی اسفندی</t>
         </is>
       </c>
       <c r="C301" s="2" t="n"/>
@@ -13118,12 +13126,12 @@
     <row r="302" ht="20" customHeight="1">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>3001213</t>
+          <t>3001212</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>علی آرمان پور</t>
+          <t>یحیی اکابری</t>
         </is>
       </c>
       <c r="C302" s="2" t="n"/>
@@ -13165,7 +13173,7 @@
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>مسعود عبدالوند</t>
+          <t>علی آرمان پور</t>
         </is>
       </c>
       <c r="C303" s="2" t="n"/>
@@ -13202,12 +13210,12 @@
     <row r="304" ht="20" customHeight="1">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>3001215</t>
+          <t>3001213</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>احمدرضا تکبیری</t>
+          <t>مسعود عبدالوند</t>
         </is>
       </c>
       <c r="C304" s="2" t="n"/>
@@ -13244,12 +13252,12 @@
     <row r="305" ht="20" customHeight="1">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>3001216</t>
+          <t>3001215</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>سعید تبریزیان</t>
+          <t>احمدرضا تکبیری</t>
         </is>
       </c>
       <c r="C305" s="2" t="n"/>
@@ -13286,12 +13294,12 @@
     <row r="306" ht="20" customHeight="1">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>3001217</t>
+          <t>3001216</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>فرخ قدسی</t>
+          <t>سعید تبریزیان</t>
         </is>
       </c>
       <c r="C306" s="2" t="n"/>
@@ -13328,12 +13336,12 @@
     <row r="307" ht="20" customHeight="1">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>3001218</t>
+          <t>3001217</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>سید پویا حسینی</t>
+          <t>فرخ قدسی</t>
         </is>
       </c>
       <c r="C307" s="2" t="n"/>
@@ -13370,12 +13378,12 @@
     <row r="308" ht="20" customHeight="1">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>3001219</t>
+          <t>3001218</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>امیرمسعود جان قربانی</t>
+          <t>سید پویا حسینی</t>
         </is>
       </c>
       <c r="C308" s="2" t="n"/>
@@ -13412,12 +13420,12 @@
     <row r="309" ht="20" customHeight="1">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>3001220</t>
+          <t>3001219</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>حسین پزشگی</t>
+          <t>امیرمسعود جان قربانی</t>
         </is>
       </c>
       <c r="C309" s="2" t="n"/>
@@ -13454,12 +13462,12 @@
     <row r="310" ht="20" customHeight="1">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>3001221</t>
+          <t>3001220</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>احمد فرزانه بجندی</t>
+          <t>حسین پزشگی</t>
         </is>
       </c>
       <c r="C310" s="2" t="n"/>
@@ -13501,7 +13509,7 @@
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>حامد فرزانه بجندی</t>
+          <t>احمد فرزانه بجندی</t>
         </is>
       </c>
       <c r="C311" s="2" t="n"/>
@@ -13538,12 +13546,12 @@
     <row r="312" ht="20" customHeight="1">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>3001222</t>
+          <t>3001221</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>ناهید شمشیری</t>
+          <t>حامد فرزانه بجندی</t>
         </is>
       </c>
       <c r="C312" s="2" t="n"/>
@@ -13580,12 +13588,12 @@
     <row r="313" ht="20" customHeight="1">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>3001223</t>
+          <t>3001222</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>محمدحسن نصیری</t>
+          <t>ناهید شمشیری</t>
         </is>
       </c>
       <c r="C313" s="2" t="n"/>
@@ -13622,12 +13630,12 @@
     <row r="314" ht="20" customHeight="1">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>3001224</t>
+          <t>3001223</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>معصومه بخشی زاده</t>
+          <t>محمدحسن نصیری</t>
         </is>
       </c>
       <c r="C314" s="2" t="n"/>
@@ -13664,12 +13672,12 @@
     <row r="315" ht="20" customHeight="1">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>3001225</t>
+          <t>3001224</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>سید مهدی غزنوی</t>
+          <t>معصومه بخشی زاده</t>
         </is>
       </c>
       <c r="C315" s="2" t="n"/>
@@ -13706,12 +13714,12 @@
     <row r="316" ht="20" customHeight="1">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>3001226</t>
+          <t>3001225</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>بهشاد باقری زاده</t>
+          <t>سید مهدی غزنوی</t>
         </is>
       </c>
       <c r="C316" s="2" t="n"/>
@@ -13748,12 +13756,12 @@
     <row r="317" ht="20" customHeight="1">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>3001227</t>
+          <t>3001226</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>علیرضا صدیق ویشکائی</t>
+          <t>بهشاد باقری زاده</t>
         </is>
       </c>
       <c r="C317" s="2" t="n"/>
@@ -13790,12 +13798,12 @@
     <row r="318" ht="20" customHeight="1">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>3001228</t>
+          <t>3001227</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>مهرداد هنرمایه هرات</t>
+          <t>علیرضا صدیق ویشکائی</t>
         </is>
       </c>
       <c r="C318" s="2" t="n"/>
@@ -13832,12 +13840,12 @@
     <row r="319" ht="20" customHeight="1">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>3001229</t>
+          <t>3001228</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>رضا محمدسلیمانی</t>
+          <t>مهرداد هنرمایه هرات</t>
         </is>
       </c>
       <c r="C319" s="2" t="n"/>
@@ -13874,12 +13882,12 @@
     <row r="320" ht="20" customHeight="1">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>3001230</t>
+          <t>3001229</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>کیوان اسفرائینی</t>
+          <t>رضا محمدسلیمانی</t>
         </is>
       </c>
       <c r="C320" s="2" t="n"/>
@@ -13916,12 +13924,12 @@
     <row r="321" ht="20" customHeight="1">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>3001231</t>
+          <t>3001230</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>محمدصالح زندی</t>
+          <t>کیوان اسفرائینی</t>
         </is>
       </c>
       <c r="C321" s="2" t="n"/>
@@ -13958,12 +13966,12 @@
     <row r="322" ht="20" customHeight="1">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>3001232</t>
+          <t>3001231</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>حسین اکبری ناصر</t>
+          <t>محمدصالح زندی</t>
         </is>
       </c>
       <c r="C322" s="2" t="n"/>
@@ -14000,12 +14008,12 @@
     <row r="323" ht="20" customHeight="1">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>3001233</t>
+          <t>3001232</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>عباسعلی مهدانیان</t>
+          <t>حسین اکبری ناصر</t>
         </is>
       </c>
       <c r="C323" s="2" t="n"/>
@@ -14042,12 +14050,12 @@
     <row r="324" ht="20" customHeight="1">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>3001234</t>
+          <t>3001233</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>علی اسفندی</t>
+          <t>عباسعلی مهدانیان</t>
         </is>
       </c>
       <c r="C324" s="2" t="n"/>
@@ -14084,12 +14092,12 @@
     <row r="325" ht="20" customHeight="1">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>3001235</t>
+          <t>3001234</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>علی پورنوری</t>
+          <t>علی اسفندی</t>
         </is>
       </c>
       <c r="C325" s="2" t="n"/>
@@ -14126,12 +14134,12 @@
     <row r="326" ht="20" customHeight="1">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>3001236</t>
+          <t>3001235</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>امیرحسین مقدم</t>
+          <t>علی پورنوری</t>
         </is>
       </c>
       <c r="C326" s="2" t="n"/>
@@ -14168,12 +14176,12 @@
     <row r="327" ht="20" customHeight="1">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>3001237</t>
+          <t>3001236</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>سید ساعد حسینی</t>
+          <t>امیرحسین مقدم</t>
         </is>
       </c>
       <c r="C327" s="2" t="n"/>
@@ -14210,12 +14218,12 @@
     <row r="328" ht="20" customHeight="1">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>3001238</t>
+          <t>3001237</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>مسعود اجمالی</t>
+          <t>سید ساعد حسینی</t>
         </is>
       </c>
       <c r="C328" s="2" t="n"/>
@@ -14252,12 +14260,12 @@
     <row r="329" ht="20" customHeight="1">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>3001239</t>
+          <t>3001238</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>رضا صالحی ابیانه</t>
+          <t>مسعود اجمالی</t>
         </is>
       </c>
       <c r="C329" s="2" t="n"/>
@@ -14294,12 +14302,12 @@
     <row r="330" ht="20" customHeight="1">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>3001240</t>
+          <t>3001239</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>علی موسوی ورجایی</t>
+          <t>رضا صالحی ابیانه</t>
         </is>
       </c>
       <c r="C330" s="2" t="n"/>
@@ -14341,7 +14349,7 @@
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>عباس خسروی</t>
+          <t>علی موسوی ورجایی</t>
         </is>
       </c>
       <c r="C331" s="2" t="n"/>
@@ -14378,12 +14386,12 @@
     <row r="332" ht="20" customHeight="1">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>3001241</t>
+          <t>3001240</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>سپهر سلطان شاهی</t>
+          <t>عباس خسروی</t>
         </is>
       </c>
       <c r="C332" s="2" t="n"/>
@@ -14425,7 +14433,7 @@
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>محمد تحریری</t>
+          <t>سپهر سلطان شاهی</t>
         </is>
       </c>
       <c r="C333" s="2" t="n"/>
@@ -14462,12 +14470,12 @@
     <row r="334" ht="20" customHeight="1">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>3001242</t>
+          <t>3001241</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>سعید محبی کردسفلی</t>
+          <t>محمد تحریری</t>
         </is>
       </c>
       <c r="C334" s="2" t="n"/>
@@ -14509,7 +14517,7 @@
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>پرویز رشوند</t>
+          <t>سعید محبی کردسفلی</t>
         </is>
       </c>
       <c r="C335" s="2" t="n"/>
@@ -14546,12 +14554,12 @@
     <row r="336" ht="20" customHeight="1">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>3001243</t>
+          <t>3001242</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>علی مشکانی</t>
+          <t>پرویز رشوند</t>
         </is>
       </c>
       <c r="C336" s="2" t="n"/>
@@ -14593,7 +14601,7 @@
       </c>
       <c r="B337" s="2" t="inlineStr">
         <is>
-          <t>شایان ناجی</t>
+          <t>علی مشکانی</t>
         </is>
       </c>
       <c r="C337" s="2" t="n"/>
@@ -14630,12 +14638,12 @@
     <row r="338" ht="20" customHeight="1">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>3001244</t>
+          <t>3001243</t>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>سهیل دورکی سلیمانی</t>
+          <t>شایان ناجی</t>
         </is>
       </c>
       <c r="C338" s="2" t="n"/>
@@ -14677,7 +14685,7 @@
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>محسن بهشتی</t>
+          <t>سهیل دورکی سلیمانی</t>
         </is>
       </c>
       <c r="C339" s="2" t="n"/>
@@ -14714,12 +14722,12 @@
     <row r="340" ht="20" customHeight="1">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>3001245</t>
+          <t>3001244</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>سینا دورکی سلمانی</t>
+          <t>محسن بهشتی</t>
         </is>
       </c>
       <c r="C340" s="2" t="n"/>
@@ -14761,7 +14769,7 @@
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>محمد مجدپزشکی</t>
+          <t>سینا دورکی سلمانی</t>
         </is>
       </c>
       <c r="C341" s="2" t="n"/>
@@ -14798,12 +14806,12 @@
     <row r="342" ht="20" customHeight="1">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>3001246</t>
+          <t>3001245</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>سحر کریم خانی</t>
+          <t>محمد مجدپزشکی</t>
         </is>
       </c>
       <c r="C342" s="2" t="n"/>
@@ -14845,7 +14853,7 @@
       </c>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t>داود آقامعلی زاده</t>
+          <t>سحر کریم خانی</t>
         </is>
       </c>
       <c r="C343" s="2" t="n"/>
@@ -14882,12 +14890,12 @@
     <row r="344" ht="20" customHeight="1">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>3001247</t>
+          <t>3001246</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>سعید عبدوس</t>
+          <t>داود آقامعلی زاده</t>
         </is>
       </c>
       <c r="C344" s="2" t="n"/>
@@ -14929,7 +14937,7 @@
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>سید محمدحسین کطائیان</t>
+          <t>سعید عبدوس</t>
         </is>
       </c>
       <c r="C345" s="2" t="n"/>
@@ -14966,12 +14974,12 @@
     <row r="346" ht="20" customHeight="1">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>3001248</t>
+          <t>3001247</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>سعید کیانی نژاد</t>
+          <t>سید محمدحسین کطائیان</t>
         </is>
       </c>
       <c r="C346" s="2" t="n"/>
@@ -15013,7 +15021,7 @@
       </c>
       <c r="B347" s="2" t="inlineStr">
         <is>
-          <t>صبا صادقی</t>
+          <t>سعید کیانی نژاد</t>
         </is>
       </c>
       <c r="C347" s="2" t="n"/>
@@ -15050,12 +15058,12 @@
     <row r="348" ht="20" customHeight="1">
       <c r="A348" s="2" t="inlineStr">
         <is>
-          <t>3001249</t>
+          <t>3001248</t>
         </is>
       </c>
       <c r="B348" s="2" t="inlineStr">
         <is>
-          <t>محمدحسین حاجی زاده</t>
+          <t>صبا صادقی</t>
         </is>
       </c>
       <c r="C348" s="2" t="n"/>
@@ -15097,7 +15105,7 @@
       </c>
       <c r="B349" s="2" t="inlineStr">
         <is>
-          <t>یوسف صفرپور</t>
+          <t>محمدحسین حاجی زاده</t>
         </is>
       </c>
       <c r="C349" s="2" t="n"/>
@@ -15134,12 +15142,12 @@
     <row r="350" ht="20" customHeight="1">
       <c r="A350" s="2" t="inlineStr">
         <is>
-          <t>3001250</t>
+          <t>3001249</t>
         </is>
       </c>
       <c r="B350" s="2" t="inlineStr">
         <is>
-          <t>کامبیز زندیه</t>
+          <t>یوسف صفرپور</t>
         </is>
       </c>
       <c r="C350" s="2" t="n"/>
@@ -15176,12 +15184,12 @@
     <row r="351" ht="20" customHeight="1">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>3001251</t>
+          <t>3001250</t>
         </is>
       </c>
       <c r="B351" s="2" t="inlineStr">
         <is>
-          <t>ملیکا عسکری</t>
+          <t>کامبیز زندیه</t>
         </is>
       </c>
       <c r="C351" s="2" t="n"/>
@@ -15218,12 +15226,12 @@
     <row r="352" ht="20" customHeight="1">
       <c r="A352" s="2" t="inlineStr">
         <is>
-          <t>3001252</t>
+          <t>3001251</t>
         </is>
       </c>
       <c r="B352" s="2" t="inlineStr">
         <is>
-          <t>مهدی قرایی</t>
+          <t>ملیکا عسکری</t>
         </is>
       </c>
       <c r="C352" s="2" t="n"/>
@@ -15260,12 +15268,12 @@
     <row r="353" ht="20" customHeight="1">
       <c r="A353" s="2" t="inlineStr">
         <is>
-          <t>3001253</t>
+          <t>3001252</t>
         </is>
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>محمدمعین رشیدی نژاد</t>
+          <t>مهدی قرایی</t>
         </is>
       </c>
       <c r="C353" s="2" t="n"/>
@@ -15302,12 +15310,12 @@
     <row r="354" ht="20" customHeight="1">
       <c r="A354" s="2" t="inlineStr">
         <is>
-          <t>3001254</t>
+          <t>3001253</t>
         </is>
       </c>
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t>علیرضا اکبری طامه</t>
+          <t>محمدمعین رشیدی نژاد</t>
         </is>
       </c>
       <c r="C354" s="2" t="n"/>
@@ -15344,12 +15352,12 @@
     <row r="355" ht="20" customHeight="1">
       <c r="A355" s="2" t="inlineStr">
         <is>
-          <t>3001255</t>
+          <t>3001254</t>
         </is>
       </c>
       <c r="B355" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا عارف زاده</t>
+          <t>علیرضا اکبری طامه</t>
         </is>
       </c>
       <c r="C355" s="2" t="n"/>
@@ -15386,12 +15394,12 @@
     <row r="356" ht="20" customHeight="1">
       <c r="A356" s="2" t="inlineStr">
         <is>
-          <t>3001256</t>
+          <t>3001255</t>
         </is>
       </c>
       <c r="B356" s="2" t="inlineStr">
         <is>
-          <t>محمدحسن نقدعلی</t>
+          <t>محمدرضا عارف زاده</t>
         </is>
       </c>
       <c r="C356" s="2" t="n"/>
@@ -15428,12 +15436,12 @@
     <row r="357" ht="20" customHeight="1">
       <c r="A357" s="2" t="inlineStr">
         <is>
-          <t>3001257</t>
+          <t>3001256</t>
         </is>
       </c>
       <c r="B357" s="2" t="inlineStr">
         <is>
-          <t>محمدجواد شادمجره</t>
+          <t>محمدحسن نقدعلی</t>
         </is>
       </c>
       <c r="C357" s="2" t="n"/>
@@ -15470,12 +15478,12 @@
     <row r="358" ht="20" customHeight="1">
       <c r="A358" s="2" t="inlineStr">
         <is>
-          <t>3001258</t>
+          <t>3001257</t>
         </is>
       </c>
       <c r="B358" s="2" t="inlineStr">
         <is>
-          <t>صابر زنده دل</t>
+          <t>محمدجواد شادمجره</t>
         </is>
       </c>
       <c r="C358" s="2" t="n"/>
@@ -15512,12 +15520,12 @@
     <row r="359" ht="20" customHeight="1">
       <c r="A359" s="2" t="inlineStr">
         <is>
-          <t>3001259</t>
+          <t>3001258</t>
         </is>
       </c>
       <c r="B359" s="2" t="inlineStr">
         <is>
-          <t>معصومه مظلوم کرکان</t>
+          <t>صابر زنده دل</t>
         </is>
       </c>
       <c r="C359" s="2" t="n"/>
@@ -15554,12 +15562,12 @@
     <row r="360" ht="20" customHeight="1">
       <c r="A360" s="2" t="inlineStr">
         <is>
-          <t>3001260</t>
+          <t>3001259</t>
         </is>
       </c>
       <c r="B360" s="2" t="inlineStr">
         <is>
-          <t>مهدی شهبازنیا</t>
+          <t>معصومه مظلوم کرکان</t>
         </is>
       </c>
       <c r="C360" s="2" t="n"/>
@@ -15596,12 +15604,12 @@
     <row r="361" ht="20" customHeight="1">
       <c r="A361" s="2" t="inlineStr">
         <is>
-          <t>3001261</t>
+          <t>3001260</t>
         </is>
       </c>
       <c r="B361" s="2" t="inlineStr">
         <is>
-          <t>مصطفی مقتدائی پور</t>
+          <t>مهدی شهبازنیا</t>
         </is>
       </c>
       <c r="C361" s="2" t="n"/>
@@ -15638,12 +15646,12 @@
     <row r="362" ht="20" customHeight="1">
       <c r="A362" s="2" t="inlineStr">
         <is>
-          <t>3001262</t>
+          <t>3001261</t>
         </is>
       </c>
       <c r="B362" s="2" t="inlineStr">
         <is>
-          <t>حسین بختیار</t>
+          <t>مصطفی مقتدائی پور</t>
         </is>
       </c>
       <c r="C362" s="2" t="n"/>
@@ -15680,12 +15688,12 @@
     <row r="363" ht="20" customHeight="1">
       <c r="A363" s="2" t="inlineStr">
         <is>
-          <t>3001263</t>
+          <t>3001262</t>
         </is>
       </c>
       <c r="B363" s="2" t="inlineStr">
         <is>
-          <t>علیرضا نصیری</t>
+          <t>حسین بختیار</t>
         </is>
       </c>
       <c r="C363" s="2" t="n"/>
@@ -15722,12 +15730,12 @@
     <row r="364" ht="20" customHeight="1">
       <c r="A364" s="2" t="inlineStr">
         <is>
-          <t>3001264</t>
+          <t>3001263</t>
         </is>
       </c>
       <c r="B364" s="2" t="inlineStr">
         <is>
-          <t>سحر احسنی</t>
+          <t>علیرضا نصیری</t>
         </is>
       </c>
       <c r="C364" s="2" t="n"/>
@@ -15764,12 +15772,12 @@
     <row r="365" ht="20" customHeight="1">
       <c r="A365" s="2" t="inlineStr">
         <is>
-          <t>3001265</t>
+          <t>3001264</t>
         </is>
       </c>
       <c r="B365" s="2" t="inlineStr">
         <is>
-          <t>مه سیما معصمی</t>
+          <t>سحر احسنی</t>
         </is>
       </c>
       <c r="C365" s="2" t="n"/>
@@ -15806,12 +15814,12 @@
     <row r="366" ht="20" customHeight="1">
       <c r="A366" s="2" t="inlineStr">
         <is>
-          <t>3001266</t>
+          <t>3001265</t>
         </is>
       </c>
       <c r="B366" s="2" t="inlineStr">
         <is>
-          <t>پریسا بدلی سرچشمه</t>
+          <t>مه سیما معصمی</t>
         </is>
       </c>
       <c r="C366" s="2" t="n"/>
@@ -15848,12 +15856,12 @@
     <row r="367" ht="20" customHeight="1">
       <c r="A367" s="2" t="inlineStr">
         <is>
-          <t>3001267</t>
+          <t>3001266</t>
         </is>
       </c>
       <c r="B367" s="2" t="inlineStr">
         <is>
-          <t>مهدی یزدی نسب</t>
+          <t>پریسا بدلی سرچشمه</t>
         </is>
       </c>
       <c r="C367" s="2" t="n"/>
@@ -15890,12 +15898,12 @@
     <row r="368" ht="20" customHeight="1">
       <c r="A368" s="2" t="inlineStr">
         <is>
-          <t>3001268</t>
+          <t>3001267</t>
         </is>
       </c>
       <c r="B368" s="2" t="inlineStr">
         <is>
-          <t>زهرا ایمانی کلوری</t>
+          <t>مهدی یزدی نسب</t>
         </is>
       </c>
       <c r="C368" s="2" t="n"/>
@@ -15932,12 +15940,12 @@
     <row r="369" ht="20" customHeight="1">
       <c r="A369" s="2" t="inlineStr">
         <is>
-          <t>3001269</t>
+          <t>3001268</t>
         </is>
       </c>
       <c r="B369" s="2" t="inlineStr">
         <is>
-          <t>مرجان سیدی</t>
+          <t>زهرا ایمانی کلوری</t>
         </is>
       </c>
       <c r="C369" s="2" t="n"/>
@@ -15974,12 +15982,12 @@
     <row r="370" ht="20" customHeight="1">
       <c r="A370" s="2" t="inlineStr">
         <is>
-          <t>3001270</t>
+          <t>3001269</t>
         </is>
       </c>
       <c r="B370" s="2" t="inlineStr">
         <is>
-          <t>میترا فرهنگ</t>
+          <t>مرجان سیدی</t>
         </is>
       </c>
       <c r="C370" s="2" t="n"/>
@@ -16016,12 +16024,12 @@
     <row r="371" ht="20" customHeight="1">
       <c r="A371" s="2" t="inlineStr">
         <is>
-          <t>3001274</t>
+          <t>3001270</t>
         </is>
       </c>
       <c r="B371" s="2" t="inlineStr">
         <is>
-          <t>سعید حسنی</t>
+          <t>میترا فرهنگ</t>
         </is>
       </c>
       <c r="C371" s="2" t="n"/>
@@ -16058,12 +16066,12 @@
     <row r="372" ht="20" customHeight="1">
       <c r="A372" s="2" t="inlineStr">
         <is>
-          <t>3001275</t>
+          <t>3001274</t>
         </is>
       </c>
       <c r="B372" s="2" t="inlineStr">
         <is>
-          <t>هدی پیراکند</t>
+          <t>سعید حسنی</t>
         </is>
       </c>
       <c r="C372" s="2" t="n"/>
@@ -16100,12 +16108,12 @@
     <row r="373" ht="20" customHeight="1">
       <c r="A373" s="2" t="inlineStr">
         <is>
-          <t>3001276</t>
+          <t>3001275</t>
         </is>
       </c>
       <c r="B373" s="2" t="inlineStr">
         <is>
-          <t>سجاد امجد یزدان دوست</t>
+          <t>هدی پیراکند</t>
         </is>
       </c>
       <c r="C373" s="2" t="n"/>
@@ -16142,12 +16150,12 @@
     <row r="374" ht="20" customHeight="1">
       <c r="A374" s="2" t="inlineStr">
         <is>
-          <t>3001277</t>
+          <t>3001276</t>
         </is>
       </c>
       <c r="B374" s="2" t="inlineStr">
         <is>
-          <t>خدیجه سادات قوامیان</t>
+          <t>سجاد امجد یزدان دوست</t>
         </is>
       </c>
       <c r="C374" s="2" t="n"/>
@@ -16184,12 +16192,12 @@
     <row r="375" ht="20" customHeight="1">
       <c r="A375" s="2" t="inlineStr">
         <is>
-          <t>3001278</t>
+          <t>3001277</t>
         </is>
       </c>
       <c r="B375" s="2" t="inlineStr">
         <is>
-          <t>مریم شاطر</t>
+          <t>خدیجه سادات قوامیان</t>
         </is>
       </c>
       <c r="C375" s="2" t="n"/>
@@ -16226,12 +16234,12 @@
     <row r="376" ht="20" customHeight="1">
       <c r="A376" s="2" t="inlineStr">
         <is>
-          <t>3001279</t>
+          <t>3001278</t>
         </is>
       </c>
       <c r="B376" s="2" t="inlineStr">
         <is>
-          <t>اسماعیل توکلی گلپایگانی</t>
+          <t>مریم شاطر</t>
         </is>
       </c>
       <c r="C376" s="2" t="n"/>
@@ -16268,12 +16276,12 @@
     <row r="377" ht="20" customHeight="1">
       <c r="A377" s="2" t="inlineStr">
         <is>
-          <t>3001280</t>
+          <t>3001279</t>
         </is>
       </c>
       <c r="B377" s="2" t="inlineStr">
         <is>
-          <t>مصطفی عبداله پور</t>
+          <t>اسماعیل توکلی گلپایگانی</t>
         </is>
       </c>
       <c r="C377" s="2" t="n"/>
@@ -16315,7 +16323,7 @@
       </c>
       <c r="B378" s="2" t="inlineStr">
         <is>
-          <t>امیر همتیان</t>
+          <t>مصطفی عبداله پور</t>
         </is>
       </c>
       <c r="C378" s="2" t="n"/>
@@ -16352,12 +16360,12 @@
     <row r="379" ht="20" customHeight="1">
       <c r="A379" s="2" t="inlineStr">
         <is>
-          <t>3001281</t>
+          <t>3001280</t>
         </is>
       </c>
       <c r="B379" s="2" t="inlineStr">
         <is>
-          <t>علی عباسی</t>
+          <t>امیر همتیان</t>
         </is>
       </c>
       <c r="C379" s="2" t="n"/>
@@ -16399,7 +16407,7 @@
       </c>
       <c r="B380" s="2" t="inlineStr">
         <is>
-          <t>فرشاد محمدحسینی</t>
+          <t>علی عباسی</t>
         </is>
       </c>
       <c r="C380" s="2" t="n"/>
@@ -16436,12 +16444,12 @@
     <row r="381" ht="20" customHeight="1">
       <c r="A381" s="2" t="inlineStr">
         <is>
-          <t>3001282</t>
+          <t>3001281</t>
         </is>
       </c>
       <c r="B381" s="2" t="inlineStr">
         <is>
-          <t>رضا جعفری</t>
+          <t>فرشاد محمدحسینی</t>
         </is>
       </c>
       <c r="C381" s="2" t="n"/>
@@ -16483,7 +16491,7 @@
       </c>
       <c r="B382" s="2" t="inlineStr">
         <is>
-          <t>پریسا صفائی</t>
+          <t>رضا جعفری</t>
         </is>
       </c>
       <c r="C382" s="2" t="n"/>
@@ -16520,12 +16528,12 @@
     <row r="383" ht="20" customHeight="1">
       <c r="A383" s="2" t="inlineStr">
         <is>
-          <t>3001283</t>
+          <t>3001282</t>
         </is>
       </c>
       <c r="B383" s="2" t="inlineStr">
         <is>
-          <t>علی حسن پور</t>
+          <t>پریسا صفائی</t>
         </is>
       </c>
       <c r="C383" s="2" t="n"/>
@@ -16562,12 +16570,12 @@
     <row r="384" ht="20" customHeight="1">
       <c r="A384" s="2" t="inlineStr">
         <is>
-          <t>3001284</t>
+          <t>3001283</t>
         </is>
       </c>
       <c r="B384" s="2" t="inlineStr">
         <is>
-          <t>علی اکبر سعیدی</t>
+          <t>علی حسن پور</t>
         </is>
       </c>
       <c r="C384" s="2" t="n"/>
@@ -16604,12 +16612,12 @@
     <row r="385" ht="20" customHeight="1">
       <c r="A385" s="2" t="inlineStr">
         <is>
-          <t>3001285</t>
+          <t>3001284</t>
         </is>
       </c>
       <c r="B385" s="2" t="inlineStr">
         <is>
-          <t>داریوش صیامی</t>
+          <t>علی اکبر سعیدی</t>
         </is>
       </c>
       <c r="C385" s="2" t="n"/>
@@ -16646,12 +16654,12 @@
     <row r="386" ht="20" customHeight="1">
       <c r="A386" s="2" t="inlineStr">
         <is>
-          <t>3001286</t>
+          <t>3001285</t>
         </is>
       </c>
       <c r="B386" s="2" t="inlineStr">
         <is>
-          <t>مهدیه صبوری</t>
+          <t>داریوش صیامی</t>
         </is>
       </c>
       <c r="C386" s="2" t="n"/>
@@ -16693,7 +16701,7 @@
       </c>
       <c r="B387" s="2" t="inlineStr">
         <is>
-          <t>محسن افشارچی</t>
+          <t>مهدیه صبوری</t>
         </is>
       </c>
       <c r="C387" s="2" t="n"/>
@@ -16730,12 +16738,12 @@
     <row r="388" ht="20" customHeight="1">
       <c r="A388" s="2" t="inlineStr">
         <is>
-          <t>3001287</t>
+          <t>3001286</t>
         </is>
       </c>
       <c r="B388" s="2" t="inlineStr">
         <is>
-          <t>حمید باقری</t>
+          <t>محسن افشارچی</t>
         </is>
       </c>
       <c r="C388" s="2" t="n"/>
@@ -16772,12 +16780,12 @@
     <row r="389" ht="20" customHeight="1">
       <c r="A389" s="2" t="inlineStr">
         <is>
-          <t>3001288</t>
+          <t>3001287</t>
         </is>
       </c>
       <c r="B389" s="2" t="inlineStr">
         <is>
-          <t>مینا پورنقی</t>
+          <t>حمید باقری</t>
         </is>
       </c>
       <c r="C389" s="2" t="n"/>
@@ -16814,12 +16822,12 @@
     <row r="390" ht="20" customHeight="1">
       <c r="A390" s="2" t="inlineStr">
         <is>
-          <t>3001289</t>
+          <t>3001288</t>
         </is>
       </c>
       <c r="B390" s="2" t="inlineStr">
         <is>
-          <t>سعید خزائی</t>
+          <t>مینا پورنقی</t>
         </is>
       </c>
       <c r="C390" s="2" t="n"/>
@@ -16856,12 +16864,12 @@
     <row r="391" ht="20" customHeight="1">
       <c r="A391" s="2" t="inlineStr">
         <is>
-          <t>3001290</t>
+          <t>3001289</t>
         </is>
       </c>
       <c r="B391" s="2" t="inlineStr">
         <is>
-          <t>حجت اله هوشمند</t>
+          <t>سعید خزائی</t>
         </is>
       </c>
       <c r="C391" s="2" t="n"/>
@@ -16898,12 +16906,12 @@
     <row r="392" ht="20" customHeight="1">
       <c r="A392" s="2" t="inlineStr">
         <is>
-          <t>3001291</t>
+          <t>3001290</t>
         </is>
       </c>
       <c r="B392" s="2" t="inlineStr">
         <is>
-          <t>مهدی جمشیدی</t>
+          <t>حجت اله هوشمند</t>
         </is>
       </c>
       <c r="C392" s="2" t="n"/>
@@ -16940,12 +16948,12 @@
     <row r="393" ht="20" customHeight="1">
       <c r="A393" s="2" t="inlineStr">
         <is>
-          <t>3001292</t>
+          <t>3001291</t>
         </is>
       </c>
       <c r="B393" s="2" t="inlineStr">
         <is>
-          <t>امیر قلبی</t>
+          <t>مهدی جمشیدی</t>
         </is>
       </c>
       <c r="C393" s="2" t="n"/>
@@ -16982,12 +16990,12 @@
     <row r="394" ht="20" customHeight="1">
       <c r="A394" s="2" t="inlineStr">
         <is>
-          <t>3001293</t>
+          <t>3001292</t>
         </is>
       </c>
       <c r="B394" s="2" t="inlineStr">
         <is>
-          <t>محمد محمدی</t>
+          <t>امیر قلبی</t>
         </is>
       </c>
       <c r="C394" s="2" t="n"/>
@@ -17024,12 +17032,12 @@
     <row r="395" ht="20" customHeight="1">
       <c r="A395" s="2" t="inlineStr">
         <is>
-          <t>3001294</t>
+          <t>3001293</t>
         </is>
       </c>
       <c r="B395" s="2" t="inlineStr">
         <is>
-          <t>رضا عباسقلی زاده</t>
+          <t>محمد محمدی</t>
         </is>
       </c>
       <c r="C395" s="2" t="n"/>
@@ -17066,12 +17074,12 @@
     <row r="396" ht="20" customHeight="1">
       <c r="A396" s="2" t="inlineStr">
         <is>
-          <t>3001295</t>
+          <t>3001294</t>
         </is>
       </c>
       <c r="B396" s="2" t="inlineStr">
         <is>
-          <t>سید مهدی سیدشجاع</t>
+          <t>رضا عباسقلی زاده</t>
         </is>
       </c>
       <c r="C396" s="2" t="n"/>
@@ -17108,15 +17116,15 @@
     <row r="397" ht="20" customHeight="1">
       <c r="A397" s="2" t="inlineStr">
         <is>
-          <t>3001296</t>
+          <t>3001295</t>
         </is>
       </c>
       <c r="B397" s="2" t="inlineStr">
         <is>
-          <t>امیر نصرتی راد</t>
-        </is>
-      </c>
-      <c r="C397" s="2" t="inlineStr"/>
+          <t>سید مهدی سیدشجاع</t>
+        </is>
+      </c>
+      <c r="C397" s="2" t="n"/>
       <c r="D397" s="2" t="n"/>
       <c r="E397" s="2" t="inlineStr">
         <is>
@@ -17150,15 +17158,15 @@
     <row r="398" ht="20" customHeight="1">
       <c r="A398" s="2" t="inlineStr">
         <is>
-          <t>3001297</t>
+          <t>3001296</t>
         </is>
       </c>
       <c r="B398" s="2" t="inlineStr">
         <is>
-          <t>سید جعفر حاج اصغری</t>
-        </is>
-      </c>
-      <c r="C398" s="2" t="n"/>
+          <t>امیر نصرتی راد</t>
+        </is>
+      </c>
+      <c r="C398" s="2" t="inlineStr"/>
       <c r="D398" s="2" t="n"/>
       <c r="E398" s="2" t="inlineStr">
         <is>
@@ -17192,12 +17200,12 @@
     <row r="399" ht="20" customHeight="1">
       <c r="A399" s="2" t="inlineStr">
         <is>
-          <t>3001298</t>
+          <t>3001297</t>
         </is>
       </c>
       <c r="B399" s="2" t="inlineStr">
         <is>
-          <t>رضا موسوی راد</t>
+          <t>سید جعفر حاج اصغری</t>
         </is>
       </c>
       <c r="C399" s="2" t="n"/>
@@ -17234,12 +17242,12 @@
     <row r="400" ht="20" customHeight="1">
       <c r="A400" s="2" t="inlineStr">
         <is>
-          <t>3001299</t>
+          <t>3001298</t>
         </is>
       </c>
       <c r="B400" s="2" t="inlineStr">
         <is>
-          <t>سید امیرحسین موسوی</t>
+          <t>رضا موسوی راد</t>
         </is>
       </c>
       <c r="C400" s="2" t="n"/>
@@ -17276,12 +17284,12 @@
     <row r="401" ht="20" customHeight="1">
       <c r="A401" s="2" t="inlineStr">
         <is>
-          <t>3001301</t>
+          <t>3001299</t>
         </is>
       </c>
       <c r="B401" s="2" t="inlineStr">
         <is>
-          <t>شاهرخ ساوالایام</t>
+          <t>سید امیرحسین موسوی</t>
         </is>
       </c>
       <c r="C401" s="2" t="n"/>
@@ -17318,12 +17326,12 @@
     <row r="402" ht="20" customHeight="1">
       <c r="A402" s="2" t="inlineStr">
         <is>
-          <t>3001303</t>
+          <t>3001301</t>
         </is>
       </c>
       <c r="B402" s="2" t="inlineStr">
         <is>
-          <t>تقی نوروزی پور حافظ کلام</t>
+          <t>شاهرخ ساوالایام</t>
         </is>
       </c>
       <c r="C402" s="2" t="n"/>
@@ -17360,12 +17368,12 @@
     <row r="403" ht="20" customHeight="1">
       <c r="A403" s="2" t="inlineStr">
         <is>
-          <t>3001304</t>
+          <t>3001303</t>
         </is>
       </c>
       <c r="B403" s="2" t="inlineStr">
         <is>
-          <t>علیرضا عباسی</t>
+          <t>تقی نوروزی پور حافظ کلام</t>
         </is>
       </c>
       <c r="C403" s="2" t="n"/>
@@ -17402,12 +17410,12 @@
     <row r="404" ht="20" customHeight="1">
       <c r="A404" s="2" t="inlineStr">
         <is>
-          <t>3001305</t>
+          <t>3001304</t>
         </is>
       </c>
       <c r="B404" s="2" t="inlineStr">
         <is>
-          <t>سئودا اصفهانی</t>
+          <t>علیرضا عباسی</t>
         </is>
       </c>
       <c r="C404" s="2" t="n"/>
@@ -17449,7 +17457,7 @@
       </c>
       <c r="B405" s="2" t="inlineStr">
         <is>
-          <t>محمد کاشان پور</t>
+          <t>سئودا اصفهانی</t>
         </is>
       </c>
       <c r="C405" s="2" t="n"/>
@@ -17486,12 +17494,12 @@
     <row r="406" ht="20" customHeight="1">
       <c r="A406" s="2" t="inlineStr">
         <is>
-          <t>3001306</t>
+          <t>3001305</t>
         </is>
       </c>
       <c r="B406" s="2" t="inlineStr">
         <is>
-          <t>سیده فاطمه حسینی آغوزبنی</t>
+          <t>محمد کاشان پور</t>
         </is>
       </c>
       <c r="C406" s="2" t="n"/>
@@ -17533,7 +17541,7 @@
       </c>
       <c r="B407" s="2" t="inlineStr">
         <is>
-          <t>علی نبی زاده</t>
+          <t>سیده فاطمه حسینی آغوزبنی</t>
         </is>
       </c>
       <c r="C407" s="2" t="n"/>
@@ -17570,12 +17578,12 @@
     <row r="408" ht="20" customHeight="1">
       <c r="A408" s="2" t="inlineStr">
         <is>
-          <t>3001307</t>
+          <t>3001306</t>
         </is>
       </c>
       <c r="B408" s="2" t="inlineStr">
         <is>
-          <t>امیرحسین رستم</t>
+          <t>علی نبی زاده</t>
         </is>
       </c>
       <c r="C408" s="2" t="n"/>
@@ -17612,12 +17620,12 @@
     <row r="409" ht="20" customHeight="1">
       <c r="A409" s="2" t="inlineStr">
         <is>
-          <t>3001308</t>
+          <t>3001307</t>
         </is>
       </c>
       <c r="B409" s="2" t="inlineStr">
         <is>
-          <t>داریوش عباسی</t>
+          <t>امیرحسین رستم</t>
         </is>
       </c>
       <c r="C409" s="2" t="n"/>
@@ -17654,12 +17662,12 @@
     <row r="410" ht="20" customHeight="1">
       <c r="A410" s="2" t="inlineStr">
         <is>
-          <t>3001309</t>
+          <t>3001308</t>
         </is>
       </c>
       <c r="B410" s="2" t="inlineStr">
         <is>
-          <t>محمود شفاعی</t>
+          <t>داریوش عباسی</t>
         </is>
       </c>
       <c r="C410" s="2" t="n"/>
@@ -17696,12 +17704,12 @@
     <row r="411" ht="20" customHeight="1">
       <c r="A411" s="2" t="inlineStr">
         <is>
-          <t>3001310</t>
+          <t>3001309</t>
         </is>
       </c>
       <c r="B411" s="2" t="inlineStr">
         <is>
-          <t>یعقوب موسوی</t>
+          <t>محمود شفاعی</t>
         </is>
       </c>
       <c r="C411" s="2" t="n"/>
@@ -17738,12 +17746,12 @@
     <row r="412" ht="20" customHeight="1">
       <c r="A412" s="2" t="inlineStr">
         <is>
-          <t>3001311</t>
+          <t>3001310</t>
         </is>
       </c>
       <c r="B412" s="2" t="inlineStr">
         <is>
-          <t>حسین درخشنده</t>
+          <t>یعقوب موسوی</t>
         </is>
       </c>
       <c r="C412" s="2" t="n"/>
@@ -17780,12 +17788,12 @@
     <row r="413" ht="20" customHeight="1">
       <c r="A413" s="2" t="inlineStr">
         <is>
-          <t>3001313</t>
+          <t>3001311</t>
         </is>
       </c>
       <c r="B413" s="2" t="inlineStr">
         <is>
-          <t>محبوبه فیضی</t>
+          <t>حسین درخشنده</t>
         </is>
       </c>
       <c r="C413" s="2" t="n"/>
@@ -17822,12 +17830,12 @@
     <row r="414" ht="20" customHeight="1">
       <c r="A414" s="2" t="inlineStr">
         <is>
-          <t>3001314</t>
+          <t>3001313</t>
         </is>
       </c>
       <c r="B414" s="2" t="inlineStr">
         <is>
-          <t>شاهرخ دانشمند اسلامی</t>
+          <t>محبوبه فیضی</t>
         </is>
       </c>
       <c r="C414" s="2" t="n"/>
@@ -17864,12 +17872,12 @@
     <row r="415" ht="20" customHeight="1">
       <c r="A415" s="2" t="inlineStr">
         <is>
-          <t>3001315</t>
+          <t>3001314</t>
         </is>
       </c>
       <c r="B415" s="2" t="inlineStr">
         <is>
-          <t>محمود مومنین</t>
+          <t>شاهرخ دانشمند اسلامی</t>
         </is>
       </c>
       <c r="C415" s="2" t="n"/>
@@ -17906,12 +17914,12 @@
     <row r="416" ht="20" customHeight="1">
       <c r="A416" s="2" t="inlineStr">
         <is>
-          <t>3001316</t>
+          <t>3001315</t>
         </is>
       </c>
       <c r="B416" s="2" t="inlineStr">
         <is>
-          <t>منصور مختاری ملک آبادی</t>
+          <t>محمود مومنین</t>
         </is>
       </c>
       <c r="C416" s="2" t="n"/>
@@ -17948,12 +17956,12 @@
     <row r="417" ht="20" customHeight="1">
       <c r="A417" s="2" t="inlineStr">
         <is>
-          <t>3001318</t>
+          <t>3001316</t>
         </is>
       </c>
       <c r="B417" s="2" t="inlineStr">
         <is>
-          <t>علی علینقی</t>
+          <t>منصور مختاری ملک آبادی</t>
         </is>
       </c>
       <c r="C417" s="2" t="n"/>
@@ -17990,12 +17998,12 @@
     <row r="418" ht="20" customHeight="1">
       <c r="A418" s="2" t="inlineStr">
         <is>
-          <t>3001319</t>
+          <t>3001318</t>
         </is>
       </c>
       <c r="B418" s="2" t="inlineStr">
         <is>
-          <t>دانیال نصیری</t>
+          <t>علی علینقی</t>
         </is>
       </c>
       <c r="C418" s="2" t="n"/>
@@ -18032,12 +18040,12 @@
     <row r="419" ht="20" customHeight="1">
       <c r="A419" s="2" t="inlineStr">
         <is>
-          <t>3001320</t>
+          <t>3001319</t>
         </is>
       </c>
       <c r="B419" s="2" t="inlineStr">
         <is>
-          <t>ندا زندی</t>
+          <t>دانیال نصیری</t>
         </is>
       </c>
       <c r="C419" s="2" t="n"/>
@@ -18074,12 +18082,12 @@
     <row r="420" ht="20" customHeight="1">
       <c r="A420" s="2" t="inlineStr">
         <is>
-          <t>3001322</t>
+          <t>3001320</t>
         </is>
       </c>
       <c r="B420" s="2" t="inlineStr">
         <is>
-          <t>محمدحسین حفیظی</t>
+          <t>ندا زندی</t>
         </is>
       </c>
       <c r="C420" s="2" t="n"/>
@@ -18116,12 +18124,12 @@
     <row r="421" ht="20" customHeight="1">
       <c r="A421" s="2" t="inlineStr">
         <is>
-          <t>3001323</t>
+          <t>3001322</t>
         </is>
       </c>
       <c r="B421" s="2" t="inlineStr">
         <is>
-          <t>محمد آزاد</t>
+          <t>محمدحسین حفیظی</t>
         </is>
       </c>
       <c r="C421" s="2" t="n"/>
@@ -18158,12 +18166,12 @@
     <row r="422" ht="20" customHeight="1">
       <c r="A422" s="2" t="inlineStr">
         <is>
-          <t>3001325</t>
+          <t>3001323</t>
         </is>
       </c>
       <c r="B422" s="2" t="inlineStr">
         <is>
-          <t>حسن طورانی</t>
+          <t>محمد آزاد</t>
         </is>
       </c>
       <c r="C422" s="2" t="n"/>
@@ -18200,12 +18208,12 @@
     <row r="423" ht="20" customHeight="1">
       <c r="A423" s="2" t="inlineStr">
         <is>
-          <t>3001326</t>
+          <t>3001325</t>
         </is>
       </c>
       <c r="B423" s="2" t="inlineStr">
         <is>
-          <t>مهرداد اردبیلی</t>
+          <t>حسن طورانی</t>
         </is>
       </c>
       <c r="C423" s="2" t="n"/>
@@ -18242,12 +18250,12 @@
     <row r="424" ht="20" customHeight="1">
       <c r="A424" s="2" t="inlineStr">
         <is>
-          <t>3001327</t>
+          <t>3001326</t>
         </is>
       </c>
       <c r="B424" s="2" t="inlineStr">
         <is>
-          <t>محمدعلی اکبری</t>
+          <t>مهرداد اردبیلی</t>
         </is>
       </c>
       <c r="C424" s="2" t="n"/>
@@ -18284,12 +18292,12 @@
     <row r="425" ht="20" customHeight="1">
       <c r="A425" s="2" t="inlineStr">
         <is>
-          <t>3001328</t>
+          <t>3001327</t>
         </is>
       </c>
       <c r="B425" s="2" t="inlineStr">
         <is>
-          <t>بنت الهدی حاجی نژاد</t>
+          <t>محمدعلی اکبری</t>
         </is>
       </c>
       <c r="C425" s="2" t="n"/>
@@ -18331,7 +18339,7 @@
       </c>
       <c r="B426" s="2" t="inlineStr">
         <is>
-          <t>مهدی میرویسی زاده</t>
+          <t>بنت الهدی حاجی نژاد</t>
         </is>
       </c>
       <c r="C426" s="2" t="n"/>
@@ -18368,12 +18376,12 @@
     <row r="427" ht="20" customHeight="1">
       <c r="A427" s="2" t="inlineStr">
         <is>
-          <t>3001329</t>
+          <t>3001328</t>
         </is>
       </c>
       <c r="B427" s="2" t="inlineStr">
         <is>
-          <t>وحید جلیلی</t>
+          <t>مهدی میرویسی زاده</t>
         </is>
       </c>
       <c r="C427" s="2" t="n"/>
@@ -18410,12 +18418,12 @@
     <row r="428" ht="20" customHeight="1">
       <c r="A428" s="2" t="inlineStr">
         <is>
-          <t>3001330</t>
+          <t>3001329</t>
         </is>
       </c>
       <c r="B428" s="2" t="inlineStr">
         <is>
-          <t>علی مجیدی</t>
+          <t>وحید جلیلی</t>
         </is>
       </c>
       <c r="C428" s="2" t="n"/>
@@ -18452,12 +18460,12 @@
     <row r="429" ht="20" customHeight="1">
       <c r="A429" s="2" t="inlineStr">
         <is>
-          <t>3001338</t>
+          <t>3001330</t>
         </is>
       </c>
       <c r="B429" s="2" t="inlineStr">
         <is>
-          <t>شیخ الاسلام</t>
+          <t>علی مجیدی</t>
         </is>
       </c>
       <c r="C429" s="2" t="n"/>
@@ -18494,12 +18502,12 @@
     <row r="430" ht="20" customHeight="1">
       <c r="A430" s="2" t="inlineStr">
         <is>
-          <t>3001339</t>
+          <t>3001338</t>
         </is>
       </c>
       <c r="B430" s="2" t="inlineStr">
         <is>
-          <t>سید ابوالقاسم صادقی</t>
+          <t>شیخ الاسلام</t>
         </is>
       </c>
       <c r="C430" s="2" t="n"/>
@@ -18536,12 +18544,12 @@
     <row r="431" ht="20" customHeight="1">
       <c r="A431" s="2" t="inlineStr">
         <is>
-          <t>3001340</t>
+          <t>3001339</t>
         </is>
       </c>
       <c r="B431" s="2" t="inlineStr">
         <is>
-          <t>امید اله یاری</t>
+          <t>سید ابوالقاسم صادقی</t>
         </is>
       </c>
       <c r="C431" s="2" t="n"/>
@@ -18578,12 +18586,12 @@
     <row r="432" ht="20" customHeight="1">
       <c r="A432" s="2" t="inlineStr">
         <is>
-          <t>3001341</t>
+          <t>3001340</t>
         </is>
       </c>
       <c r="B432" s="2" t="inlineStr">
         <is>
-          <t>مهدی مولاپناه</t>
+          <t>امید اله یاری</t>
         </is>
       </c>
       <c r="C432" s="2" t="n"/>
@@ -18620,12 +18628,12 @@
     <row r="433" ht="20" customHeight="1">
       <c r="A433" s="2" t="inlineStr">
         <is>
-          <t>3001344</t>
+          <t>3001341</t>
         </is>
       </c>
       <c r="B433" s="2" t="inlineStr">
         <is>
-          <t>الناز خسروی</t>
+          <t>مهدی مولاپناه</t>
         </is>
       </c>
       <c r="C433" s="2" t="n"/>
@@ -18662,12 +18670,12 @@
     <row r="434" ht="20" customHeight="1">
       <c r="A434" s="2" t="inlineStr">
         <is>
-          <t>3001345</t>
+          <t>3001344</t>
         </is>
       </c>
       <c r="B434" s="2" t="inlineStr">
         <is>
-          <t>عین اله محمدی</t>
+          <t>الناز خسروی</t>
         </is>
       </c>
       <c r="C434" s="2" t="n"/>
@@ -18704,12 +18712,12 @@
     <row r="435" ht="20" customHeight="1">
       <c r="A435" s="2" t="inlineStr">
         <is>
-          <t>3001348</t>
+          <t>3001345</t>
         </is>
       </c>
       <c r="B435" s="2" t="inlineStr">
         <is>
-          <t>فرزانه جهانمردی</t>
+          <t>عین اله محمدی</t>
         </is>
       </c>
       <c r="C435" s="2" t="n"/>
@@ -18746,12 +18754,12 @@
     <row r="436" ht="20" customHeight="1">
       <c r="A436" s="2" t="inlineStr">
         <is>
-          <t>3001349</t>
+          <t>3001348</t>
         </is>
       </c>
       <c r="B436" s="2" t="inlineStr">
         <is>
-          <t>طالب کرمی شاملو</t>
+          <t>فرزانه جهانمردی</t>
         </is>
       </c>
       <c r="C436" s="2" t="n"/>
@@ -18788,12 +18796,12 @@
     <row r="437" ht="20" customHeight="1">
       <c r="A437" s="2" t="inlineStr">
         <is>
-          <t>3001350</t>
+          <t>3001349</t>
         </is>
       </c>
       <c r="B437" s="2" t="inlineStr">
         <is>
-          <t>محمد اسدی کنی</t>
+          <t>طالب کرمی شاملو</t>
         </is>
       </c>
       <c r="C437" s="2" t="n"/>
@@ -18830,12 +18838,12 @@
     <row r="438" ht="20" customHeight="1">
       <c r="A438" s="2" t="inlineStr">
         <is>
-          <t>3001351</t>
+          <t>3001350</t>
         </is>
       </c>
       <c r="B438" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا خزائی</t>
+          <t>محمد اسدی کنی</t>
         </is>
       </c>
       <c r="C438" s="2" t="n"/>
@@ -18872,12 +18880,12 @@
     <row r="439" ht="20" customHeight="1">
       <c r="A439" s="2" t="inlineStr">
         <is>
-          <t>3001353</t>
+          <t>3001351</t>
         </is>
       </c>
       <c r="B439" s="2" t="inlineStr">
         <is>
-          <t>حجر یوسفی قصبه</t>
+          <t>محمدرضا خزائی</t>
         </is>
       </c>
       <c r="C439" s="2" t="n"/>
@@ -18914,12 +18922,12 @@
     <row r="440" ht="20" customHeight="1">
       <c r="A440" s="2" t="inlineStr">
         <is>
-          <t>3001355</t>
+          <t>3001353</t>
         </is>
       </c>
       <c r="B440" s="2" t="inlineStr">
         <is>
-          <t>حمید یاری شیرمرد</t>
+          <t>حجر یوسفی قصبه</t>
         </is>
       </c>
       <c r="C440" s="2" t="n"/>
@@ -18956,12 +18964,12 @@
     <row r="441" ht="20" customHeight="1">
       <c r="A441" s="2" t="inlineStr">
         <is>
-          <t>3001356</t>
+          <t>3001355</t>
         </is>
       </c>
       <c r="B441" s="2" t="inlineStr">
         <is>
-          <t>محمد بیرامی</t>
+          <t>حمید یاری شیرمرد</t>
         </is>
       </c>
       <c r="C441" s="2" t="n"/>
@@ -18998,12 +19006,12 @@
     <row r="442" ht="20" customHeight="1">
       <c r="A442" s="2" t="inlineStr">
         <is>
-          <t>3001357</t>
+          <t>3001356</t>
         </is>
       </c>
       <c r="B442" s="2" t="inlineStr">
         <is>
-          <t>سید یوسف عظیمی</t>
+          <t>محمد بیرامی</t>
         </is>
       </c>
       <c r="C442" s="2" t="n"/>
@@ -19040,12 +19048,12 @@
     <row r="443" ht="20" customHeight="1">
       <c r="A443" s="2" t="inlineStr">
         <is>
-          <t>3001358</t>
+          <t>3001357</t>
         </is>
       </c>
       <c r="B443" s="2" t="inlineStr">
         <is>
-          <t>محسن هاشم پور</t>
+          <t>سید یوسف عظیمی</t>
         </is>
       </c>
       <c r="C443" s="2" t="n"/>
@@ -19082,12 +19090,12 @@
     <row r="444" ht="20" customHeight="1">
       <c r="A444" s="2" t="inlineStr">
         <is>
-          <t>3001359</t>
+          <t>3001358</t>
         </is>
       </c>
       <c r="B444" s="2" t="inlineStr">
         <is>
-          <t>حامد نعمتی</t>
+          <t>محسن هاشم پور</t>
         </is>
       </c>
       <c r="C444" s="2" t="n"/>
@@ -19124,12 +19132,12 @@
     <row r="445" ht="20" customHeight="1">
       <c r="A445" s="2" t="inlineStr">
         <is>
-          <t>3001360</t>
+          <t>3001359</t>
         </is>
       </c>
       <c r="B445" s="2" t="inlineStr">
         <is>
-          <t>سید محمدحسین میررضوی</t>
+          <t>حامد نعمتی</t>
         </is>
       </c>
       <c r="C445" s="2" t="n"/>
@@ -19166,12 +19174,12 @@
     <row r="446" ht="20" customHeight="1">
       <c r="A446" s="2" t="inlineStr">
         <is>
-          <t>3001361</t>
+          <t>3001360</t>
         </is>
       </c>
       <c r="B446" s="2" t="inlineStr">
         <is>
-          <t>ایرج قره داغی</t>
+          <t>سید محمدحسین میررضوی</t>
         </is>
       </c>
       <c r="C446" s="2" t="n"/>
@@ -19208,12 +19216,12 @@
     <row r="447" ht="20" customHeight="1">
       <c r="A447" s="2" t="inlineStr">
         <is>
-          <t>3001362</t>
+          <t>3001361</t>
         </is>
       </c>
       <c r="B447" s="2" t="inlineStr">
         <is>
-          <t>مرتضی آقاعلیان</t>
+          <t>ایرج قره داغی</t>
         </is>
       </c>
       <c r="C447" s="2" t="n"/>
@@ -19250,12 +19258,12 @@
     <row r="448" ht="20" customHeight="1">
       <c r="A448" s="2" t="inlineStr">
         <is>
-          <t>3001363</t>
+          <t>3001362</t>
         </is>
       </c>
       <c r="B448" s="2" t="inlineStr">
         <is>
-          <t>حسنعلی اختریان</t>
+          <t>مرتضی آقاعلیان</t>
         </is>
       </c>
       <c r="C448" s="2" t="n"/>
@@ -19297,7 +19305,7 @@
       </c>
       <c r="B449" s="2" t="inlineStr">
         <is>
-          <t>حسینعلی اختریان</t>
+          <t>حسنعلی اختریان</t>
         </is>
       </c>
       <c r="C449" s="2" t="n"/>
@@ -19334,12 +19342,12 @@
     <row r="450" ht="20" customHeight="1">
       <c r="A450" s="2" t="inlineStr">
         <is>
-          <t>3001364</t>
+          <t>3001363</t>
         </is>
       </c>
       <c r="B450" s="2" t="inlineStr">
         <is>
-          <t>مهرداد معصومی</t>
+          <t>حسینعلی اختریان</t>
         </is>
       </c>
       <c r="C450" s="2" t="n"/>
@@ -19376,12 +19384,12 @@
     <row r="451" ht="20" customHeight="1">
       <c r="A451" s="2" t="inlineStr">
         <is>
-          <t>3001365</t>
+          <t>3001364</t>
         </is>
       </c>
       <c r="B451" s="2" t="inlineStr">
         <is>
-          <t>محمد یزدان دوست</t>
+          <t>مهرداد معصومی</t>
         </is>
       </c>
       <c r="C451" s="2" t="n"/>
@@ -19418,12 +19426,12 @@
     <row r="452" ht="20" customHeight="1">
       <c r="A452" s="2" t="inlineStr">
         <is>
-          <t>3001366</t>
+          <t>3001365</t>
         </is>
       </c>
       <c r="B452" s="2" t="inlineStr">
         <is>
-          <t>ناصر بایرامی قوزلو</t>
+          <t>محمد یزدان دوست</t>
         </is>
       </c>
       <c r="C452" s="2" t="n"/>
@@ -19460,12 +19468,12 @@
     <row r="453" ht="20" customHeight="1">
       <c r="A453" s="2" t="inlineStr">
         <is>
-          <t>3001367</t>
+          <t>3001366</t>
         </is>
       </c>
       <c r="B453" s="2" t="inlineStr">
         <is>
-          <t>مجید عبدالهی</t>
+          <t>ناصر بایرامی قوزلو</t>
         </is>
       </c>
       <c r="C453" s="2" t="n"/>
@@ -19507,7 +19515,7 @@
       </c>
       <c r="B454" s="2" t="inlineStr">
         <is>
-          <t>مهدی خواری</t>
+          <t>مجید عبدالهی</t>
         </is>
       </c>
       <c r="C454" s="2" t="n"/>
@@ -19544,12 +19552,12 @@
     <row r="455" ht="20" customHeight="1">
       <c r="A455" s="2" t="inlineStr">
         <is>
-          <t>3001368</t>
+          <t>3001367</t>
         </is>
       </c>
       <c r="B455" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا رضایی</t>
+          <t>مهدی خواری</t>
         </is>
       </c>
       <c r="C455" s="2" t="n"/>
@@ -19591,7 +19599,7 @@
       </c>
       <c r="B456" s="2" t="inlineStr">
         <is>
-          <t>مهدی ایپکچی</t>
+          <t>محمدرضا رضایی</t>
         </is>
       </c>
       <c r="C456" s="2" t="n"/>
@@ -19628,12 +19636,12 @@
     <row r="457" ht="20" customHeight="1">
       <c r="A457" s="2" t="inlineStr">
         <is>
-          <t>3001369</t>
+          <t>3001368</t>
         </is>
       </c>
       <c r="B457" s="2" t="inlineStr">
         <is>
-          <t>پرستو قدیانی</t>
+          <t>مهدی ایپکچی</t>
         </is>
       </c>
       <c r="C457" s="2" t="n"/>
@@ -19675,7 +19683,7 @@
       </c>
       <c r="B458" s="2" t="inlineStr">
         <is>
-          <t>میلاد سید اسماعیلی</t>
+          <t>پرستو قدیانی</t>
         </is>
       </c>
       <c r="C458" s="2" t="n"/>
@@ -19712,12 +19720,12 @@
     <row r="459" ht="20" customHeight="1">
       <c r="A459" s="2" t="inlineStr">
         <is>
-          <t>3001370</t>
+          <t>3001369</t>
         </is>
       </c>
       <c r="B459" s="2" t="inlineStr">
         <is>
-          <t>حمید طالبی</t>
+          <t>میلاد سید اسماعیلی</t>
         </is>
       </c>
       <c r="C459" s="2" t="n"/>
@@ -19759,7 +19767,7 @@
       </c>
       <c r="B460" s="2" t="inlineStr">
         <is>
-          <t>علی معماری</t>
+          <t>حمید طالبی</t>
         </is>
       </c>
       <c r="C460" s="2" t="n"/>
@@ -19801,7 +19809,7 @@
       </c>
       <c r="B461" s="2" t="inlineStr">
         <is>
-          <t>فرشته آقاخانی</t>
+          <t>علی معماری</t>
         </is>
       </c>
       <c r="C461" s="2" t="n"/>
@@ -19838,12 +19846,12 @@
     <row r="462" ht="20" customHeight="1">
       <c r="A462" s="2" t="inlineStr">
         <is>
-          <t>3001371</t>
+          <t>3001370</t>
         </is>
       </c>
       <c r="B462" s="2" t="inlineStr">
         <is>
-          <t>احسان نیک فر</t>
+          <t>فرشته آقاخانی</t>
         </is>
       </c>
       <c r="C462" s="2" t="n"/>
@@ -19885,7 +19893,7 @@
       </c>
       <c r="B463" s="2" t="inlineStr">
         <is>
-          <t>محمدمهدی حاجی بابا پور</t>
+          <t>احسان نیک فر</t>
         </is>
       </c>
       <c r="C463" s="2" t="n"/>
@@ -19922,12 +19930,12 @@
     <row r="464" ht="20" customHeight="1">
       <c r="A464" s="2" t="inlineStr">
         <is>
-          <t>3001372</t>
+          <t>3001371</t>
         </is>
       </c>
       <c r="B464" s="2" t="inlineStr">
         <is>
-          <t>اردشیر خدائی</t>
+          <t>محمدمهدی حاجی بابا پور</t>
         </is>
       </c>
       <c r="C464" s="2" t="n"/>
@@ -19969,7 +19977,7 @@
       </c>
       <c r="B465" s="2" t="inlineStr">
         <is>
-          <t>محمدیوسف بداغی</t>
+          <t>اردشیر خدائی</t>
         </is>
       </c>
       <c r="C465" s="2" t="n"/>
@@ -20006,12 +20014,12 @@
     <row r="466" ht="20" customHeight="1">
       <c r="A466" s="2" t="inlineStr">
         <is>
-          <t>3001373</t>
+          <t>3001372</t>
         </is>
       </c>
       <c r="B466" s="2" t="inlineStr">
         <is>
-          <t>آریا امین علی</t>
+          <t>محمدیوسف بداغی</t>
         </is>
       </c>
       <c r="C466" s="2" t="n"/>
@@ -20053,7 +20061,7 @@
       </c>
       <c r="B467" s="2" t="inlineStr">
         <is>
-          <t>فرید مهدوی</t>
+          <t>آریا امین علی</t>
         </is>
       </c>
       <c r="C467" s="2" t="n"/>
@@ -20090,12 +20098,12 @@
     <row r="468" ht="20" customHeight="1">
       <c r="A468" s="2" t="inlineStr">
         <is>
-          <t>3001374</t>
+          <t>3001373</t>
         </is>
       </c>
       <c r="B468" s="2" t="inlineStr">
         <is>
-          <t>اشکان شهرآیینی</t>
+          <t>فرید مهدوی</t>
         </is>
       </c>
       <c r="C468" s="2" t="n"/>
@@ -20132,12 +20140,12 @@
     <row r="469" ht="20" customHeight="1">
       <c r="A469" s="2" t="inlineStr">
         <is>
-          <t>3001375</t>
+          <t>3001374</t>
         </is>
       </c>
       <c r="B469" s="2" t="inlineStr">
         <is>
-          <t>اشکان نجفلو</t>
+          <t>اشکان شهرآیینی</t>
         </is>
       </c>
       <c r="C469" s="2" t="n"/>
@@ -20179,7 +20187,7 @@
       </c>
       <c r="B470" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا صیادی</t>
+          <t>اشکان نجفلو</t>
         </is>
       </c>
       <c r="C470" s="2" t="n"/>
@@ -20216,12 +20224,12 @@
     <row r="471" ht="20" customHeight="1">
       <c r="A471" s="2" t="inlineStr">
         <is>
-          <t>3001376</t>
+          <t>3001375</t>
         </is>
       </c>
       <c r="B471" s="2" t="inlineStr">
         <is>
-          <t>ابوالفضل باباخانی</t>
+          <t>محمدرضا صیادی</t>
         </is>
       </c>
       <c r="C471" s="2" t="n"/>
@@ -20263,7 +20271,7 @@
       </c>
       <c r="B472" s="2" t="inlineStr">
         <is>
-          <t>امید ابراهیمی تجدد</t>
+          <t>ابوالفضل باباخانی</t>
         </is>
       </c>
       <c r="C472" s="2" t="n"/>
@@ -20300,12 +20308,12 @@
     <row r="473" ht="20" customHeight="1">
       <c r="A473" s="2" t="inlineStr">
         <is>
-          <t>3001377</t>
+          <t>3001376</t>
         </is>
       </c>
       <c r="B473" s="2" t="inlineStr">
         <is>
-          <t>امید قاسمی</t>
+          <t>امید ابراهیمی تجدد</t>
         </is>
       </c>
       <c r="C473" s="2" t="n"/>
@@ -20347,7 +20355,7 @@
       </c>
       <c r="B474" s="2" t="inlineStr">
         <is>
-          <t>سید محمد ترابی</t>
+          <t>امید قاسمی</t>
         </is>
       </c>
       <c r="C474" s="2" t="n"/>
@@ -20384,12 +20392,12 @@
     <row r="475" ht="20" customHeight="1">
       <c r="A475" s="2" t="inlineStr">
         <is>
-          <t>3001378</t>
+          <t>3001377</t>
         </is>
       </c>
       <c r="B475" s="2" t="inlineStr">
         <is>
-          <t>مصطفی رحیمی نژاد</t>
+          <t>سید محمد ترابی</t>
         </is>
       </c>
       <c r="C475" s="2" t="n"/>
@@ -20426,12 +20434,12 @@
     <row r="476" ht="20" customHeight="1">
       <c r="A476" s="2" t="inlineStr">
         <is>
-          <t>3001380</t>
+          <t>3001378</t>
         </is>
       </c>
       <c r="B476" s="2" t="inlineStr">
         <is>
-          <t>احسان نیک فر</t>
+          <t>مصطفی رحیمی نژاد</t>
         </is>
       </c>
       <c r="C476" s="2" t="n"/>
@@ -20468,12 +20476,12 @@
     <row r="477" ht="20" customHeight="1">
       <c r="A477" s="2" t="inlineStr">
         <is>
-          <t>3001381</t>
+          <t>3001380</t>
         </is>
       </c>
       <c r="B477" s="2" t="inlineStr">
         <is>
-          <t>اردشیر خدائی</t>
+          <t>احسان نیک فر</t>
         </is>
       </c>
       <c r="C477" s="2" t="n"/>
@@ -20510,12 +20518,12 @@
     <row r="478" ht="20" customHeight="1">
       <c r="A478" s="2" t="inlineStr">
         <is>
-          <t>3001382</t>
+          <t>3001381</t>
         </is>
       </c>
       <c r="B478" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا رضایی</t>
+          <t>اردشیر خدائی</t>
         </is>
       </c>
       <c r="C478" s="2" t="n"/>
@@ -20552,12 +20560,12 @@
     <row r="479" ht="20" customHeight="1">
       <c r="A479" s="2" t="inlineStr">
         <is>
-          <t>3001383</t>
+          <t>3001382</t>
         </is>
       </c>
       <c r="B479" s="2" t="inlineStr">
         <is>
-          <t>محمدیوسف بداغی</t>
+          <t>محمدرضا رضایی</t>
         </is>
       </c>
       <c r="C479" s="2" t="n"/>
@@ -20594,12 +20602,12 @@
     <row r="480" ht="20" customHeight="1">
       <c r="A480" s="2" t="inlineStr">
         <is>
-          <t>3001384</t>
+          <t>3001383</t>
         </is>
       </c>
       <c r="B480" s="2" t="inlineStr">
         <is>
-          <t>اشکان شهرآیینی</t>
+          <t>محمدیوسف بداغی</t>
         </is>
       </c>
       <c r="C480" s="2" t="n"/>
@@ -20636,12 +20644,12 @@
     <row r="481" ht="20" customHeight="1">
       <c r="A481" s="2" t="inlineStr">
         <is>
-          <t>3001385</t>
+          <t>3001384</t>
         </is>
       </c>
       <c r="B481" s="2" t="inlineStr">
         <is>
-          <t>اشکان نجفلو</t>
+          <t>اشکان شهرآیینی</t>
         </is>
       </c>
       <c r="C481" s="2" t="n"/>
@@ -20678,12 +20686,12 @@
     <row r="482" ht="20" customHeight="1">
       <c r="A482" s="2" t="inlineStr">
         <is>
-          <t>3001386</t>
+          <t>3001385</t>
         </is>
       </c>
       <c r="B482" s="2" t="inlineStr">
         <is>
-          <t>مریم نوروزی</t>
+          <t>اشکان نجفلو</t>
         </is>
       </c>
       <c r="C482" s="2" t="n"/>
@@ -20720,12 +20728,12 @@
     <row r="483" ht="20" customHeight="1">
       <c r="A483" s="2" t="inlineStr">
         <is>
-          <t>3001387</t>
+          <t>3001386</t>
         </is>
       </c>
       <c r="B483" s="2" t="inlineStr">
         <is>
-          <t>علی قاضی</t>
+          <t>مریم نوروزی</t>
         </is>
       </c>
       <c r="C483" s="2" t="n"/>
@@ -20762,12 +20770,12 @@
     <row r="484" ht="20" customHeight="1">
       <c r="A484" s="2" t="inlineStr">
         <is>
-          <t>3001388</t>
+          <t>3001387</t>
         </is>
       </c>
       <c r="B484" s="2" t="inlineStr">
         <is>
-          <t>سید بهرام سیدمیرزایی</t>
+          <t>علی قاضی</t>
         </is>
       </c>
       <c r="C484" s="2" t="n"/>
@@ -20804,12 +20812,12 @@
     <row r="485" ht="20" customHeight="1">
       <c r="A485" s="2" t="inlineStr">
         <is>
-          <t>3001389</t>
+          <t>3001388</t>
         </is>
       </c>
       <c r="B485" s="2" t="inlineStr">
         <is>
-          <t>مجید صالحی</t>
+          <t>سید بهرام سیدمیرزایی</t>
         </is>
       </c>
       <c r="C485" s="2" t="n"/>
@@ -20846,12 +20854,12 @@
     <row r="486" ht="20" customHeight="1">
       <c r="A486" s="2" t="inlineStr">
         <is>
-          <t>3001390</t>
+          <t>3001389</t>
         </is>
       </c>
       <c r="B486" s="2" t="inlineStr">
         <is>
-          <t>فریبرز برگ ریز فرش</t>
+          <t>مجید صالحی</t>
         </is>
       </c>
       <c r="C486" s="2" t="n"/>
@@ -20888,12 +20896,12 @@
     <row r="487" ht="20" customHeight="1">
       <c r="A487" s="2" t="inlineStr">
         <is>
-          <t>3001401</t>
+          <t>3001390</t>
         </is>
       </c>
       <c r="B487" s="2" t="inlineStr">
         <is>
-          <t>امیر مبینی</t>
+          <t>فریبرز برگ ریز فرش</t>
         </is>
       </c>
       <c r="C487" s="2" t="n"/>
@@ -20930,12 +20938,12 @@
     <row r="488" ht="20" customHeight="1">
       <c r="A488" s="2" t="inlineStr">
         <is>
-          <t>3001402</t>
+          <t>3001401</t>
         </is>
       </c>
       <c r="B488" s="2" t="inlineStr">
         <is>
-          <t>کاوه صالح پور</t>
+          <t>امیر مبینی</t>
         </is>
       </c>
       <c r="C488" s="2" t="n"/>
@@ -20972,12 +20980,12 @@
     <row r="489" ht="20" customHeight="1">
       <c r="A489" s="2" t="inlineStr">
         <is>
-          <t>3001500</t>
+          <t>3001402</t>
         </is>
       </c>
       <c r="B489" s="2" t="inlineStr">
         <is>
-          <t>ایمان طوسی</t>
+          <t>کاوه صالح پور</t>
         </is>
       </c>
       <c r="C489" s="2" t="n"/>
@@ -21014,12 +21022,12 @@
     <row r="490" ht="20" customHeight="1">
       <c r="A490" s="2" t="inlineStr">
         <is>
-          <t>3001501</t>
+          <t>3001500</t>
         </is>
       </c>
       <c r="B490" s="2" t="inlineStr">
         <is>
-          <t>مهدی شکورزاده</t>
+          <t>ایمان طوسی</t>
         </is>
       </c>
       <c r="C490" s="2" t="n"/>
@@ -21056,12 +21064,12 @@
     <row r="491" ht="20" customHeight="1">
       <c r="A491" s="2" t="inlineStr">
         <is>
-          <t>3001502</t>
+          <t>3001501</t>
         </is>
       </c>
       <c r="B491" s="2" t="inlineStr">
         <is>
-          <t>میلاد کامور</t>
+          <t>مهدی شکورزاده</t>
         </is>
       </c>
       <c r="C491" s="2" t="n"/>
@@ -21098,12 +21106,12 @@
     <row r="492" ht="20" customHeight="1">
       <c r="A492" s="2" t="inlineStr">
         <is>
-          <t>3001503</t>
+          <t>3001502</t>
         </is>
       </c>
       <c r="B492" s="2" t="inlineStr">
         <is>
-          <t>مهدی صوفی</t>
+          <t>میلاد کامور</t>
         </is>
       </c>
       <c r="C492" s="2" t="n"/>
@@ -21140,12 +21148,12 @@
     <row r="493" ht="20" customHeight="1">
       <c r="A493" s="2" t="inlineStr">
         <is>
-          <t>3001504</t>
+          <t>3001503</t>
         </is>
       </c>
       <c r="B493" s="2" t="inlineStr">
         <is>
-          <t>ارسطو علیزاد قدیمی</t>
+          <t>مهدی صوفی</t>
         </is>
       </c>
       <c r="C493" s="2" t="n"/>
@@ -21182,12 +21190,12 @@
     <row r="494" ht="20" customHeight="1">
       <c r="A494" s="2" t="inlineStr">
         <is>
-          <t>3001505</t>
+          <t>3001504</t>
         </is>
       </c>
       <c r="B494" s="2" t="inlineStr">
         <is>
-          <t>سید علی سراجی</t>
+          <t>ارسطو علیزاد قدیمی</t>
         </is>
       </c>
       <c r="C494" s="2" t="n"/>
@@ -21224,12 +21232,12 @@
     <row r="495" ht="20" customHeight="1">
       <c r="A495" s="2" t="inlineStr">
         <is>
-          <t>3001506</t>
+          <t>3001505</t>
         </is>
       </c>
       <c r="B495" s="2" t="inlineStr">
         <is>
-          <t>مرضیه شمشیری</t>
+          <t>سید علی سراجی</t>
         </is>
       </c>
       <c r="C495" s="2" t="n"/>
@@ -21266,12 +21274,12 @@
     <row r="496" ht="20" customHeight="1">
       <c r="A496" s="2" t="inlineStr">
         <is>
-          <t>3001507</t>
+          <t>3001506</t>
         </is>
       </c>
       <c r="B496" s="2" t="inlineStr">
         <is>
-          <t>سهیل پورحسینی</t>
+          <t>مرضیه شمشیری</t>
         </is>
       </c>
       <c r="C496" s="2" t="n"/>
@@ -21308,12 +21316,12 @@
     <row r="497" ht="20" customHeight="1">
       <c r="A497" s="2" t="inlineStr">
         <is>
-          <t>3001508</t>
+          <t>3001507</t>
         </is>
       </c>
       <c r="B497" s="2" t="inlineStr">
         <is>
-          <t>فائزه حیات بخش</t>
+          <t>سهیل پورحسینی</t>
         </is>
       </c>
       <c r="C497" s="2" t="n"/>
@@ -21350,12 +21358,12 @@
     <row r="498" ht="20" customHeight="1">
       <c r="A498" s="2" t="inlineStr">
         <is>
-          <t>3001509</t>
+          <t>3001508</t>
         </is>
       </c>
       <c r="B498" s="2" t="inlineStr">
         <is>
-          <t>محمدعلی ناظری</t>
+          <t>فائزه حیات بخش</t>
         </is>
       </c>
       <c r="C498" s="2" t="n"/>
@@ -21392,12 +21400,12 @@
     <row r="499" ht="20" customHeight="1">
       <c r="A499" s="2" t="inlineStr">
         <is>
-          <t>3001510</t>
+          <t>3001509</t>
         </is>
       </c>
       <c r="B499" s="2" t="inlineStr">
         <is>
-          <t>وحید اسکندرزاده</t>
+          <t>محمدعلی ناظری</t>
         </is>
       </c>
       <c r="C499" s="2" t="n"/>
@@ -21434,12 +21442,12 @@
     <row r="500" ht="20" customHeight="1">
       <c r="A500" s="2" t="inlineStr">
         <is>
-          <t>3001511</t>
+          <t>3001510</t>
         </is>
       </c>
       <c r="B500" s="2" t="inlineStr">
         <is>
-          <t>علی دخیلی</t>
+          <t>وحید اسکندرزاده</t>
         </is>
       </c>
       <c r="C500" s="2" t="n"/>
@@ -21476,12 +21484,12 @@
     <row r="501" ht="20" customHeight="1">
       <c r="A501" s="2" t="inlineStr">
         <is>
-          <t>3001512</t>
+          <t>3001511</t>
         </is>
       </c>
       <c r="B501" s="2" t="inlineStr">
         <is>
-          <t>محمود گلی</t>
+          <t>علی دخیلی</t>
         </is>
       </c>
       <c r="C501" s="2" t="n"/>
@@ -21518,12 +21526,12 @@
     <row r="502" ht="20" customHeight="1">
       <c r="A502" s="2" t="inlineStr">
         <is>
-          <t>3001513</t>
+          <t>3001512</t>
         </is>
       </c>
       <c r="B502" s="2" t="inlineStr">
         <is>
-          <t>فرید ظفر</t>
+          <t>محمود گلی</t>
         </is>
       </c>
       <c r="C502" s="2" t="n"/>
@@ -21560,12 +21568,12 @@
     <row r="503" ht="20" customHeight="1">
       <c r="A503" s="2" t="inlineStr">
         <is>
-          <t>3001514</t>
+          <t>3001513</t>
         </is>
       </c>
       <c r="B503" s="2" t="inlineStr">
         <is>
-          <t>سهیل علمیه</t>
+          <t>فرید ظفر</t>
         </is>
       </c>
       <c r="C503" s="2" t="n"/>
@@ -21602,12 +21610,12 @@
     <row r="504" ht="20" customHeight="1">
       <c r="A504" s="2" t="inlineStr">
         <is>
-          <t>3001515</t>
+          <t>3001514</t>
         </is>
       </c>
       <c r="B504" s="2" t="inlineStr">
         <is>
-          <t>امید قاسمی</t>
+          <t>سهیل علمیه</t>
         </is>
       </c>
       <c r="C504" s="2" t="n"/>
@@ -21644,12 +21652,12 @@
     <row r="505" ht="20" customHeight="1">
       <c r="A505" s="2" t="inlineStr">
         <is>
-          <t>3001516</t>
+          <t>3001515</t>
         </is>
       </c>
       <c r="B505" s="2" t="inlineStr">
         <is>
-          <t>محسن هاشمی</t>
+          <t>امید قاسمی</t>
         </is>
       </c>
       <c r="C505" s="2" t="n"/>
@@ -21686,12 +21694,12 @@
     <row r="506" ht="20" customHeight="1">
       <c r="A506" s="2" t="inlineStr">
         <is>
-          <t>3001517</t>
+          <t>3001516</t>
         </is>
       </c>
       <c r="B506" s="2" t="inlineStr">
         <is>
-          <t>سید مجتبی موسوی اوریمی</t>
+          <t>محسن هاشمی</t>
         </is>
       </c>
       <c r="C506" s="2" t="n"/>
@@ -21728,12 +21736,12 @@
     <row r="507" ht="20" customHeight="1">
       <c r="A507" s="2" t="inlineStr">
         <is>
-          <t>3001518</t>
+          <t>3001517</t>
         </is>
       </c>
       <c r="B507" s="2" t="inlineStr">
         <is>
-          <t>سارا حاجی علی فنی</t>
+          <t>سید مجتبی موسوی اوریمی</t>
         </is>
       </c>
       <c r="C507" s="2" t="n"/>
@@ -21770,12 +21778,12 @@
     <row r="508" ht="20" customHeight="1">
       <c r="A508" s="2" t="inlineStr">
         <is>
-          <t>3001519</t>
+          <t>3001518</t>
         </is>
       </c>
       <c r="B508" s="2" t="inlineStr">
         <is>
-          <t>سید حمید حسینی</t>
+          <t>سارا حاجی علی فنی</t>
         </is>
       </c>
       <c r="C508" s="2" t="n"/>
@@ -21812,12 +21820,12 @@
     <row r="509" ht="20" customHeight="1">
       <c r="A509" s="2" t="inlineStr">
         <is>
-          <t>3001520</t>
+          <t>3001519</t>
         </is>
       </c>
       <c r="B509" s="2" t="inlineStr">
         <is>
-          <t>محمدشریف شریفی</t>
+          <t>سید حمید حسینی</t>
         </is>
       </c>
       <c r="C509" s="2" t="n"/>
@@ -21854,12 +21862,12 @@
     <row r="510" ht="20" customHeight="1">
       <c r="A510" s="2" t="inlineStr">
         <is>
-          <t>3001521</t>
+          <t>3001520</t>
         </is>
       </c>
       <c r="B510" s="2" t="inlineStr">
         <is>
-          <t>مسعود دهقانی</t>
+          <t>محمدشریف شریفی</t>
         </is>
       </c>
       <c r="C510" s="2" t="n"/>
@@ -21896,12 +21904,12 @@
     <row r="511" ht="20" customHeight="1">
       <c r="A511" s="2" t="inlineStr">
         <is>
-          <t>3001522</t>
+          <t>3001521</t>
         </is>
       </c>
       <c r="B511" s="2" t="inlineStr">
         <is>
-          <t>بهرام میرزایی فاتح</t>
+          <t>مسعود دهقانی</t>
         </is>
       </c>
       <c r="C511" s="2" t="n"/>
@@ -21938,12 +21946,12 @@
     <row r="512" ht="20" customHeight="1">
       <c r="A512" s="2" t="inlineStr">
         <is>
-          <t>3001523</t>
+          <t>3001522</t>
         </is>
       </c>
       <c r="B512" s="2" t="inlineStr">
         <is>
-          <t>محمدمهدی حری</t>
+          <t>بهرام میرزایی فاتح</t>
         </is>
       </c>
       <c r="C512" s="2" t="n"/>
@@ -21980,12 +21988,12 @@
     <row r="513" ht="20" customHeight="1">
       <c r="A513" s="2" t="inlineStr">
         <is>
-          <t>3001524</t>
+          <t>3001523</t>
         </is>
       </c>
       <c r="B513" s="2" t="inlineStr">
         <is>
-          <t>مهدی امینی</t>
+          <t>محمدمهدی حری</t>
         </is>
       </c>
       <c r="C513" s="2" t="n"/>
@@ -22022,12 +22030,12 @@
     <row r="514" ht="20" customHeight="1">
       <c r="A514" s="2" t="inlineStr">
         <is>
-          <t>3001525</t>
+          <t>3001524</t>
         </is>
       </c>
       <c r="B514" s="2" t="inlineStr">
         <is>
-          <t>حامد بابایی</t>
+          <t>مهدی امینی</t>
         </is>
       </c>
       <c r="C514" s="2" t="n"/>
@@ -22064,12 +22072,12 @@
     <row r="515" ht="20" customHeight="1">
       <c r="A515" s="2" t="inlineStr">
         <is>
-          <t>3001526</t>
+          <t>3001525</t>
         </is>
       </c>
       <c r="B515" s="2" t="inlineStr">
         <is>
-          <t>مجید محتشم صفا</t>
+          <t>حامد بابایی</t>
         </is>
       </c>
       <c r="C515" s="2" t="n"/>
@@ -22106,12 +22114,12 @@
     <row r="516" ht="20" customHeight="1">
       <c r="A516" s="2" t="inlineStr">
         <is>
-          <t>3001527</t>
+          <t>3001526</t>
         </is>
       </c>
       <c r="B516" s="2" t="inlineStr">
         <is>
-          <t>سید وحید شاه مرتضایی</t>
+          <t>مجید محتشم صفا</t>
         </is>
       </c>
       <c r="C516" s="2" t="n"/>
@@ -22148,12 +22156,12 @@
     <row r="517" ht="20" customHeight="1">
       <c r="A517" s="2" t="inlineStr">
         <is>
-          <t>3001528</t>
+          <t>3001527</t>
         </is>
       </c>
       <c r="B517" s="2" t="inlineStr">
         <is>
-          <t>پوریا یونسی</t>
+          <t>سید وحید شاه مرتضایی</t>
         </is>
       </c>
       <c r="C517" s="2" t="n"/>
@@ -22190,12 +22198,12 @@
     <row r="518" ht="20" customHeight="1">
       <c r="A518" s="2" t="inlineStr">
         <is>
-          <t>3001529</t>
+          <t>3001528</t>
         </is>
       </c>
       <c r="B518" s="2" t="inlineStr">
         <is>
-          <t>امیر شهرام</t>
+          <t>پوریا یونسی</t>
         </is>
       </c>
       <c r="C518" s="2" t="n"/>
@@ -22232,12 +22240,12 @@
     <row r="519" ht="20" customHeight="1">
       <c r="A519" s="2" t="inlineStr">
         <is>
-          <t>3001530</t>
+          <t>3001529</t>
         </is>
       </c>
       <c r="B519" s="2" t="inlineStr">
         <is>
-          <t>مرتضی یگانه</t>
+          <t>امیر شهرام</t>
         </is>
       </c>
       <c r="C519" s="2" t="n"/>
@@ -22274,12 +22282,12 @@
     <row r="520" ht="20" customHeight="1">
       <c r="A520" s="2" t="inlineStr">
         <is>
-          <t>3001531</t>
+          <t>3001530</t>
         </is>
       </c>
       <c r="B520" s="2" t="inlineStr">
         <is>
-          <t>حمیدرضا جعفری دولابی</t>
+          <t>مرتضی یگانه</t>
         </is>
       </c>
       <c r="C520" s="2" t="n"/>
@@ -22316,12 +22324,12 @@
     <row r="521" ht="20" customHeight="1">
       <c r="A521" s="2" t="inlineStr">
         <is>
-          <t>3001532</t>
+          <t>3001531</t>
         </is>
       </c>
       <c r="B521" s="2" t="inlineStr">
         <is>
-          <t>حسین محمدی</t>
+          <t>حمیدرضا جعفری دولابی</t>
         </is>
       </c>
       <c r="C521" s="2" t="n"/>
@@ -22358,12 +22366,12 @@
     <row r="522" ht="20" customHeight="1">
       <c r="A522" s="2" t="inlineStr">
         <is>
-          <t>3001533</t>
+          <t>3001532</t>
         </is>
       </c>
       <c r="B522" s="2" t="inlineStr">
         <is>
-          <t>زهرا فراهانی</t>
+          <t>حسین محمدی</t>
         </is>
       </c>
       <c r="C522" s="2" t="n"/>
@@ -22400,12 +22408,12 @@
     <row r="523" ht="20" customHeight="1">
       <c r="A523" s="2" t="inlineStr">
         <is>
-          <t>3001534</t>
+          <t>3001533</t>
         </is>
       </c>
       <c r="B523" s="2" t="inlineStr">
         <is>
-          <t>فاطمه جزو وزیری</t>
+          <t>زهرا فراهانی</t>
         </is>
       </c>
       <c r="C523" s="2" t="n"/>
@@ -22442,12 +22450,12 @@
     <row r="524" ht="20" customHeight="1">
       <c r="A524" s="2" t="inlineStr">
         <is>
-          <t>3001535</t>
+          <t>3001534</t>
         </is>
       </c>
       <c r="B524" s="2" t="inlineStr">
         <is>
-          <t>صابر ایمانی مقدم</t>
+          <t>فاطمه جزو وزیری</t>
         </is>
       </c>
       <c r="C524" s="2" t="n"/>
@@ -22484,12 +22492,12 @@
     <row r="525" ht="20" customHeight="1">
       <c r="A525" s="2" t="inlineStr">
         <is>
-          <t>3001536</t>
+          <t>3001535</t>
         </is>
       </c>
       <c r="B525" s="2" t="inlineStr">
         <is>
-          <t>امین فولادوند</t>
+          <t>صابر ایمانی مقدم</t>
         </is>
       </c>
       <c r="C525" s="2" t="n"/>
@@ -22526,12 +22534,12 @@
     <row r="526" ht="20" customHeight="1">
       <c r="A526" s="2" t="inlineStr">
         <is>
-          <t>3001537</t>
+          <t>3001536</t>
         </is>
       </c>
       <c r="B526" s="2" t="inlineStr">
         <is>
-          <t>سید فاخر موسوی</t>
+          <t>امین فولادوند</t>
         </is>
       </c>
       <c r="C526" s="2" t="n"/>
@@ -22568,12 +22576,12 @@
     <row r="527" ht="20" customHeight="1">
       <c r="A527" s="2" t="inlineStr">
         <is>
-          <t>3001538</t>
+          <t>3001537</t>
         </is>
       </c>
       <c r="B527" s="2" t="inlineStr">
         <is>
-          <t>محمد شمس</t>
+          <t>سید فاخر موسوی</t>
         </is>
       </c>
       <c r="C527" s="2" t="n"/>
@@ -22610,12 +22618,12 @@
     <row r="528" ht="20" customHeight="1">
       <c r="A528" s="2" t="inlineStr">
         <is>
-          <t>3001539</t>
+          <t>3001538</t>
         </is>
       </c>
       <c r="B528" s="2" t="inlineStr">
         <is>
-          <t>آریا امین علی</t>
+          <t>محمد شمس</t>
         </is>
       </c>
       <c r="C528" s="2" t="n"/>
@@ -22652,12 +22660,12 @@
     <row r="529" ht="20" customHeight="1">
       <c r="A529" s="2" t="inlineStr">
         <is>
-          <t>3001540</t>
+          <t>3001539</t>
         </is>
       </c>
       <c r="B529" s="2" t="inlineStr">
         <is>
-          <t>محمود ولی زاد ارشد</t>
+          <t>آریا امین علی</t>
         </is>
       </c>
       <c r="C529" s="2" t="n"/>
@@ -22694,12 +22702,12 @@
     <row r="530" ht="20" customHeight="1">
       <c r="A530" s="2" t="inlineStr">
         <is>
-          <t>3001541</t>
+          <t>3001540</t>
         </is>
       </c>
       <c r="B530" s="2" t="inlineStr">
         <is>
-          <t>امیرحسین سرشتی</t>
+          <t>محمود ولی زاد ارشد</t>
         </is>
       </c>
       <c r="C530" s="2" t="n"/>
@@ -22736,12 +22744,12 @@
     <row r="531" ht="20" customHeight="1">
       <c r="A531" s="2" t="inlineStr">
         <is>
-          <t>3001545</t>
+          <t>3001541</t>
         </is>
       </c>
       <c r="B531" s="2" t="inlineStr">
         <is>
-          <t>وحید قهرمانی</t>
+          <t>امیرحسین سرشتی</t>
         </is>
       </c>
       <c r="C531" s="2" t="n"/>
@@ -22778,12 +22786,12 @@
     <row r="532" ht="20" customHeight="1">
       <c r="A532" s="2" t="inlineStr">
         <is>
-          <t>3001547</t>
+          <t>3001545</t>
         </is>
       </c>
       <c r="B532" s="2" t="inlineStr">
         <is>
-          <t>معین صادقیان</t>
+          <t>وحید قهرمانی</t>
         </is>
       </c>
       <c r="C532" s="2" t="n"/>
@@ -22820,12 +22828,12 @@
     <row r="533" ht="20" customHeight="1">
       <c r="A533" s="2" t="inlineStr">
         <is>
-          <t>3001548</t>
+          <t>3001547</t>
         </is>
       </c>
       <c r="B533" s="2" t="inlineStr">
         <is>
-          <t>فتح الله لطیفی</t>
+          <t>معین صادقیان</t>
         </is>
       </c>
       <c r="C533" s="2" t="n"/>
@@ -22862,12 +22870,12 @@
     <row r="534" ht="20" customHeight="1">
       <c r="A534" s="2" t="inlineStr">
         <is>
-          <t>3001549</t>
+          <t>3001548</t>
         </is>
       </c>
       <c r="B534" s="2" t="inlineStr">
         <is>
-          <t>علی مقصود</t>
+          <t>فتح الله لطیفی</t>
         </is>
       </c>
       <c r="C534" s="2" t="n"/>
@@ -22904,12 +22912,12 @@
     <row r="535" ht="20" customHeight="1">
       <c r="A535" s="2" t="inlineStr">
         <is>
-          <t>3001637</t>
+          <t>3001549</t>
         </is>
       </c>
       <c r="B535" s="2" t="inlineStr">
         <is>
-          <t>علی اقیان</t>
+          <t>علی مقصود</t>
         </is>
       </c>
       <c r="C535" s="2" t="n"/>
@@ -22946,12 +22954,12 @@
     <row r="536" ht="20" customHeight="1">
       <c r="A536" s="2" t="inlineStr">
         <is>
-          <t>3001638</t>
+          <t>3001637</t>
         </is>
       </c>
       <c r="B536" s="2" t="inlineStr">
         <is>
-          <t>مهدی احسانی</t>
+          <t>علی اقیان</t>
         </is>
       </c>
       <c r="C536" s="2" t="n"/>
@@ -22988,12 +22996,12 @@
     <row r="537" ht="20" customHeight="1">
       <c r="A537" s="2" t="inlineStr">
         <is>
-          <t>3001639</t>
+          <t>3001638</t>
         </is>
       </c>
       <c r="B537" s="2" t="inlineStr">
         <is>
-          <t>میثم ترکمان</t>
+          <t>مهدی احسانی</t>
         </is>
       </c>
       <c r="C537" s="2" t="n"/>
@@ -23030,12 +23038,12 @@
     <row r="538" ht="20" customHeight="1">
       <c r="A538" s="2" t="inlineStr">
         <is>
-          <t>3001650</t>
+          <t>3001639</t>
         </is>
       </c>
       <c r="B538" s="2" t="inlineStr">
         <is>
-          <t>امیرخسرو اردلان</t>
+          <t>میثم ترکمان</t>
         </is>
       </c>
       <c r="C538" s="2" t="n"/>
@@ -23072,12 +23080,12 @@
     <row r="539" ht="20" customHeight="1">
       <c r="A539" s="2" t="inlineStr">
         <is>
-          <t>3001651</t>
+          <t>3001650</t>
         </is>
       </c>
       <c r="B539" s="2" t="inlineStr">
         <is>
-          <t>مجید جمشیدی</t>
+          <t>امیرخسرو اردلان</t>
         </is>
       </c>
       <c r="C539" s="2" t="n"/>
@@ -23114,12 +23122,12 @@
     <row r="540" ht="20" customHeight="1">
       <c r="A540" s="2" t="inlineStr">
         <is>
-          <t>3001652</t>
+          <t>3001651</t>
         </is>
       </c>
       <c r="B540" s="2" t="inlineStr">
         <is>
-          <t>سعید بایگان</t>
+          <t>مجید جمشیدی</t>
         </is>
       </c>
       <c r="C540" s="2" t="n"/>
@@ -23156,12 +23164,12 @@
     <row r="541" ht="20" customHeight="1">
       <c r="A541" s="2" t="inlineStr">
         <is>
-          <t>3001653</t>
+          <t>3001652</t>
         </is>
       </c>
       <c r="B541" s="2" t="inlineStr">
         <is>
-          <t>علیرضا عباسی</t>
+          <t>سعید بایگان</t>
         </is>
       </c>
       <c r="C541" s="2" t="n"/>
@@ -23198,12 +23206,12 @@
     <row r="542" ht="20" customHeight="1">
       <c r="A542" s="2" t="inlineStr">
         <is>
-          <t>3001654</t>
+          <t>3001653</t>
         </is>
       </c>
       <c r="B542" s="2" t="inlineStr">
         <is>
-          <t>حمید یاری شیرمرد</t>
+          <t>علیرضا عباسی</t>
         </is>
       </c>
       <c r="C542" s="2" t="n"/>
@@ -23240,12 +23248,12 @@
     <row r="543" ht="20" customHeight="1">
       <c r="A543" s="2" t="inlineStr">
         <is>
-          <t>3001655</t>
+          <t>3001654</t>
         </is>
       </c>
       <c r="B543" s="2" t="inlineStr">
         <is>
-          <t>حمیدرضا اسماعیلی</t>
+          <t>حمید یاری شیرمرد</t>
         </is>
       </c>
       <c r="C543" s="2" t="n"/>
@@ -23282,12 +23290,12 @@
     <row r="544" ht="20" customHeight="1">
       <c r="A544" s="2" t="inlineStr">
         <is>
-          <t>3001656</t>
+          <t>3001655</t>
         </is>
       </c>
       <c r="B544" s="2" t="inlineStr">
         <is>
-          <t>علی شیرازی</t>
+          <t>حمیدرضا اسماعیلی</t>
         </is>
       </c>
       <c r="C544" s="2" t="n"/>
@@ -23324,12 +23332,12 @@
     <row r="545" ht="20" customHeight="1">
       <c r="A545" s="2" t="inlineStr">
         <is>
-          <t>3001657</t>
+          <t>3001656</t>
         </is>
       </c>
       <c r="B545" s="2" t="inlineStr">
         <is>
-          <t>وحیدرضا شاهینی</t>
+          <t>علی شیرازی</t>
         </is>
       </c>
       <c r="C545" s="2" t="n"/>
@@ -23366,12 +23374,12 @@
     <row r="546" ht="20" customHeight="1">
       <c r="A546" s="2" t="inlineStr">
         <is>
-          <t>3001658</t>
+          <t>3001657</t>
         </is>
       </c>
       <c r="B546" s="2" t="inlineStr">
         <is>
-          <t>محمد اکبری</t>
+          <t>وحیدرضا شاهینی</t>
         </is>
       </c>
       <c r="C546" s="2" t="n"/>
@@ -23408,12 +23416,12 @@
     <row r="547" ht="20" customHeight="1">
       <c r="A547" s="2" t="inlineStr">
         <is>
-          <t>3001659</t>
+          <t>3001658</t>
         </is>
       </c>
       <c r="B547" s="2" t="inlineStr">
         <is>
-          <t>کیان پرسا</t>
+          <t>محمد اکبری</t>
         </is>
       </c>
       <c r="C547" s="2" t="n"/>
@@ -23450,12 +23458,12 @@
     <row r="548" ht="20" customHeight="1">
       <c r="A548" s="2" t="inlineStr">
         <is>
-          <t>3001660</t>
+          <t>3001659</t>
         </is>
       </c>
       <c r="B548" s="2" t="inlineStr">
         <is>
-          <t>حسین سواری</t>
+          <t>کیان پرسا</t>
         </is>
       </c>
       <c r="C548" s="2" t="n"/>
@@ -23492,12 +23500,12 @@
     <row r="549" ht="20" customHeight="1">
       <c r="A549" s="2" t="inlineStr">
         <is>
-          <t>3001661</t>
+          <t>3001660</t>
         </is>
       </c>
       <c r="B549" s="2" t="inlineStr">
         <is>
-          <t>فرشته مهر خاوران</t>
+          <t>حسین سواری</t>
         </is>
       </c>
       <c r="C549" s="2" t="n"/>
@@ -23534,12 +23542,12 @@
     <row r="550" ht="20" customHeight="1">
       <c r="A550" s="2" t="inlineStr">
         <is>
-          <t>3001662</t>
+          <t>3001661</t>
         </is>
       </c>
       <c r="B550" s="2" t="inlineStr">
         <is>
-          <t>داوود جواهری طاهری</t>
+          <t>فرشته مهر خاوران</t>
         </is>
       </c>
       <c r="C550" s="2" t="n"/>
@@ -23576,12 +23584,12 @@
     <row r="551" ht="20" customHeight="1">
       <c r="A551" s="2" t="inlineStr">
         <is>
-          <t>3001663</t>
+          <t>3001662</t>
         </is>
       </c>
       <c r="B551" s="2" t="inlineStr">
         <is>
-          <t>داوود برهانی</t>
+          <t>داوود جواهری طاهری</t>
         </is>
       </c>
       <c r="C551" s="2" t="n"/>
@@ -23618,12 +23626,12 @@
     <row r="552" ht="20" customHeight="1">
       <c r="A552" s="2" t="inlineStr">
         <is>
-          <t>3001664</t>
+          <t>3001663</t>
         </is>
       </c>
       <c r="B552" s="2" t="inlineStr">
         <is>
-          <t>نیما متولی</t>
+          <t>داوود برهانی</t>
         </is>
       </c>
       <c r="C552" s="2" t="n"/>
@@ -23660,12 +23668,12 @@
     <row r="553" ht="20" customHeight="1">
       <c r="A553" s="2" t="inlineStr">
         <is>
-          <t>3001665</t>
+          <t>3001664</t>
         </is>
       </c>
       <c r="B553" s="2" t="inlineStr">
         <is>
-          <t>سعید ابوالفتحی</t>
+          <t>نیما متولی</t>
         </is>
       </c>
       <c r="C553" s="2" t="n"/>
@@ -23702,12 +23710,12 @@
     <row r="554" ht="20" customHeight="1">
       <c r="A554" s="2" t="inlineStr">
         <is>
-          <t>3001666</t>
+          <t>3001665</t>
         </is>
       </c>
       <c r="B554" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا نیک پور</t>
+          <t>سعید ابوالفتحی</t>
         </is>
       </c>
       <c r="C554" s="2" t="n"/>
@@ -23744,12 +23752,12 @@
     <row r="555" ht="20" customHeight="1">
       <c r="A555" s="2" t="inlineStr">
         <is>
-          <t>3001667</t>
+          <t>3001666</t>
         </is>
       </c>
       <c r="B555" s="2" t="inlineStr">
         <is>
-          <t>ناصر افلاطونیان</t>
+          <t>محمدرضا نیک پور</t>
         </is>
       </c>
       <c r="C555" s="2" t="n"/>
@@ -23786,12 +23794,12 @@
     <row r="556" ht="20" customHeight="1">
       <c r="A556" s="2" t="inlineStr">
         <is>
-          <t>3001668</t>
+          <t>3001667</t>
         </is>
       </c>
       <c r="B556" s="2" t="inlineStr">
         <is>
-          <t>سعید دشوارگر</t>
+          <t>ناصر افلاطونیان</t>
         </is>
       </c>
       <c r="C556" s="2" t="n"/>
@@ -23828,12 +23836,12 @@
     <row r="557" ht="20" customHeight="1">
       <c r="A557" s="2" t="inlineStr">
         <is>
-          <t>3001669</t>
+          <t>3001668</t>
         </is>
       </c>
       <c r="B557" s="2" t="inlineStr">
         <is>
-          <t>فرشته آقاخانی</t>
+          <t>سعید دشوارگر</t>
         </is>
       </c>
       <c r="C557" s="2" t="n"/>
@@ -23870,12 +23878,12 @@
     <row r="558" ht="20" customHeight="1">
       <c r="A558" s="2" t="inlineStr">
         <is>
-          <t>3001670</t>
+          <t>3001669</t>
         </is>
       </c>
       <c r="B558" s="2" t="inlineStr">
         <is>
-          <t>پرستو قدیانی</t>
+          <t>فرشته آقاخانی</t>
         </is>
       </c>
       <c r="C558" s="2" t="n"/>
@@ -23912,12 +23920,12 @@
     <row r="559" ht="20" customHeight="1">
       <c r="A559" s="2" t="inlineStr">
         <is>
-          <t>3001671</t>
+          <t>3001670</t>
         </is>
       </c>
       <c r="B559" s="2" t="inlineStr">
         <is>
-          <t>حمید عصازاده ماهانی</t>
+          <t>پرستو قدیانی</t>
         </is>
       </c>
       <c r="C559" s="2" t="n"/>
@@ -23954,12 +23962,12 @@
     <row r="560" ht="20" customHeight="1">
       <c r="A560" s="2" t="inlineStr">
         <is>
-          <t>3001672</t>
+          <t>3001671</t>
         </is>
       </c>
       <c r="B560" s="2" t="inlineStr">
         <is>
-          <t>بهروز صفا</t>
+          <t>حمید عصازاده ماهانی</t>
         </is>
       </c>
       <c r="C560" s="2" t="n"/>
@@ -23996,12 +24004,12 @@
     <row r="561" ht="20" customHeight="1">
       <c r="A561" s="2" t="inlineStr">
         <is>
-          <t>3001673</t>
+          <t>3001672</t>
         </is>
       </c>
       <c r="B561" s="2" t="inlineStr">
         <is>
-          <t>مینا پورنقی</t>
+          <t>بهروز صفا</t>
         </is>
       </c>
       <c r="C561" s="2" t="n"/>
@@ -24038,12 +24046,12 @@
     <row r="562" ht="20" customHeight="1">
       <c r="A562" s="2" t="inlineStr">
         <is>
-          <t>3001674</t>
+          <t>3001673</t>
         </is>
       </c>
       <c r="B562" s="2" t="inlineStr">
         <is>
-          <t>کریم احمدی</t>
+          <t>مینا پورنقی</t>
         </is>
       </c>
       <c r="C562" s="2" t="n"/>
@@ -24080,12 +24088,12 @@
     <row r="563" ht="20" customHeight="1">
       <c r="A563" s="2" t="inlineStr">
         <is>
-          <t>3001675</t>
+          <t>3001674</t>
         </is>
       </c>
       <c r="B563" s="2" t="inlineStr">
         <is>
-          <t>نیما مردانه مستی بیگلو</t>
+          <t>کریم احمدی</t>
         </is>
       </c>
       <c r="C563" s="2" t="n"/>
@@ -24122,12 +24130,12 @@
     <row r="564" ht="20" customHeight="1">
       <c r="A564" s="2" t="inlineStr">
         <is>
-          <t>3001676</t>
+          <t>3001675</t>
         </is>
       </c>
       <c r="B564" s="2" t="inlineStr">
         <is>
-          <t>محمد غفوری</t>
+          <t>نیما مردانه مستی بیگلو</t>
         </is>
       </c>
       <c r="C564" s="2" t="n"/>
@@ -24164,12 +24172,12 @@
     <row r="565" ht="20" customHeight="1">
       <c r="A565" s="2" t="inlineStr">
         <is>
-          <t>3001677</t>
+          <t>3001676</t>
         </is>
       </c>
       <c r="B565" s="2" t="inlineStr">
         <is>
-          <t>امیر احمدی</t>
+          <t>محمد غفوری</t>
         </is>
       </c>
       <c r="C565" s="2" t="n"/>
@@ -24206,12 +24214,12 @@
     <row r="566" ht="20" customHeight="1">
       <c r="A566" s="2" t="inlineStr">
         <is>
-          <t>3001678</t>
+          <t>3001677</t>
         </is>
       </c>
       <c r="B566" s="2" t="inlineStr">
         <is>
-          <t>مهدی اسلامی دیزآبادی</t>
+          <t>امیر احمدی</t>
         </is>
       </c>
       <c r="C566" s="2" t="n"/>
@@ -24248,12 +24256,12 @@
     <row r="567" ht="20" customHeight="1">
       <c r="A567" s="2" t="inlineStr">
         <is>
-          <t>3001679</t>
+          <t>3001678</t>
         </is>
       </c>
       <c r="B567" s="2" t="inlineStr">
         <is>
-          <t>سید مهدی نصرتی</t>
+          <t>مهدی اسلامی دیزآبادی</t>
         </is>
       </c>
       <c r="C567" s="2" t="n"/>
@@ -24290,12 +24298,12 @@
     <row r="568" ht="20" customHeight="1">
       <c r="A568" s="2" t="inlineStr">
         <is>
-          <t>3001681</t>
+          <t>3001679</t>
         </is>
       </c>
       <c r="B568" s="2" t="inlineStr">
         <is>
-          <t>فرشاد فرحمندی</t>
+          <t>سید مهدی نصرتی</t>
         </is>
       </c>
       <c r="C568" s="2" t="n"/>
@@ -24332,12 +24340,12 @@
     <row r="569" ht="20" customHeight="1">
       <c r="A569" s="2" t="inlineStr">
         <is>
-          <t>3001682</t>
+          <t>3001681</t>
         </is>
       </c>
       <c r="B569" s="2" t="inlineStr">
         <is>
-          <t>سامره هشترودی</t>
+          <t>فرشاد فرحمندی</t>
         </is>
       </c>
       <c r="C569" s="2" t="n"/>
@@ -24374,12 +24382,12 @@
     <row r="570" ht="20" customHeight="1">
       <c r="A570" s="2" t="inlineStr">
         <is>
-          <t>3001684</t>
+          <t>3001682</t>
         </is>
       </c>
       <c r="B570" s="2" t="inlineStr">
         <is>
-          <t>فرهاد قره بیگلو</t>
+          <t>سامره هشترودی</t>
         </is>
       </c>
       <c r="C570" s="2" t="n"/>
@@ -24416,12 +24424,12 @@
     <row r="571" ht="20" customHeight="1">
       <c r="A571" s="2" t="inlineStr">
         <is>
-          <t>3001685</t>
+          <t>3001684</t>
         </is>
       </c>
       <c r="B571" s="2" t="inlineStr">
         <is>
-          <t>سید فرشید اعظمی هزاوه</t>
+          <t>فرهاد قره بیگلو</t>
         </is>
       </c>
       <c r="C571" s="2" t="n"/>
@@ -24458,12 +24466,12 @@
     <row r="572" ht="20" customHeight="1">
       <c r="A572" s="2" t="inlineStr">
         <is>
-          <t>3001686</t>
+          <t>3001685</t>
         </is>
       </c>
       <c r="B572" s="2" t="inlineStr">
         <is>
-          <t>یاسمن معمارزاده کیانی</t>
+          <t>سید فرشید اعظمی هزاوه</t>
         </is>
       </c>
       <c r="C572" s="2" t="n"/>
@@ -24500,12 +24508,12 @@
     <row r="573" ht="20" customHeight="1">
       <c r="A573" s="2" t="inlineStr">
         <is>
-          <t>3001687</t>
+          <t>3001686</t>
         </is>
       </c>
       <c r="B573" s="2" t="inlineStr">
         <is>
-          <t>مهران رحیم پور خردمند</t>
+          <t>یاسمن معمارزاده کیانی</t>
         </is>
       </c>
       <c r="C573" s="2" t="n"/>
@@ -24542,12 +24550,12 @@
     <row r="574" ht="20" customHeight="1">
       <c r="A574" s="2" t="inlineStr">
         <is>
-          <t>3001691</t>
+          <t>3001687</t>
         </is>
       </c>
       <c r="B574" s="2" t="inlineStr">
         <is>
-          <t>حامد سرلک</t>
+          <t>مهران رحیم پور خردمند</t>
         </is>
       </c>
       <c r="C574" s="2" t="n"/>
@@ -24584,12 +24592,12 @@
     <row r="575" ht="20" customHeight="1">
       <c r="A575" s="2" t="inlineStr">
         <is>
-          <t>3001692</t>
+          <t>3001691</t>
         </is>
       </c>
       <c r="B575" s="2" t="inlineStr">
         <is>
-          <t>ابوالفضل خلجی</t>
+          <t>حامد سرلک</t>
         </is>
       </c>
       <c r="C575" s="2" t="n"/>
@@ -24626,12 +24634,12 @@
     <row r="576" ht="20" customHeight="1">
       <c r="A576" s="2" t="inlineStr">
         <is>
-          <t>3001693</t>
+          <t>3001692</t>
         </is>
       </c>
       <c r="B576" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا اکبری</t>
+          <t>ابوالفضل خلجی</t>
         </is>
       </c>
       <c r="C576" s="2" t="n"/>
@@ -24668,12 +24676,12 @@
     <row r="577" ht="20" customHeight="1">
       <c r="A577" s="2" t="inlineStr">
         <is>
-          <t>3001694</t>
+          <t>3001693</t>
         </is>
       </c>
       <c r="B577" s="2" t="inlineStr">
         <is>
-          <t>حمیدرضا کنعانی</t>
+          <t>محمدرضا اکبری</t>
         </is>
       </c>
       <c r="C577" s="2" t="n"/>
@@ -24710,12 +24718,12 @@
     <row r="578" ht="20" customHeight="1">
       <c r="A578" s="2" t="inlineStr">
         <is>
-          <t>3001695</t>
+          <t>3001694</t>
         </is>
       </c>
       <c r="B578" s="2" t="inlineStr">
         <is>
-          <t>امید عسکری تورزنی</t>
+          <t>حمیدرضا کنعانی</t>
         </is>
       </c>
       <c r="C578" s="2" t="n"/>
@@ -24752,12 +24760,12 @@
     <row r="579" ht="20" customHeight="1">
       <c r="A579" s="2" t="inlineStr">
         <is>
-          <t>3001696</t>
+          <t>3001695</t>
         </is>
       </c>
       <c r="B579" s="2" t="inlineStr">
         <is>
-          <t>مهدی بندلی زاده</t>
+          <t>امید عسکری تورزنی</t>
         </is>
       </c>
       <c r="C579" s="2" t="n"/>
@@ -24794,12 +24802,12 @@
     <row r="580" ht="20" customHeight="1">
       <c r="A580" s="2" t="inlineStr">
         <is>
-          <t>3001697</t>
+          <t>3001696</t>
         </is>
       </c>
       <c r="B580" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا قادری</t>
+          <t>مهدی بندلی زاده</t>
         </is>
       </c>
       <c r="C580" s="2" t="n"/>
@@ -24836,12 +24844,12 @@
     <row r="581" ht="20" customHeight="1">
       <c r="A581" s="2" t="inlineStr">
         <is>
-          <t>3001701</t>
+          <t>3001697</t>
         </is>
       </c>
       <c r="B581" s="2" t="inlineStr">
         <is>
-          <t>الهه شاه محمدی</t>
+          <t>محمدرضا قادری</t>
         </is>
       </c>
       <c r="C581" s="2" t="n"/>
@@ -24883,7 +24891,7 @@
       </c>
       <c r="B582" s="2" t="inlineStr">
         <is>
-          <t>علی اقیان</t>
+          <t>الهه شاه محمدی</t>
         </is>
       </c>
       <c r="C582" s="2" t="n"/>
@@ -24920,12 +24928,12 @@
     <row r="583" ht="20" customHeight="1">
       <c r="A583" s="2" t="inlineStr">
         <is>
-          <t>3001702</t>
+          <t>3001701</t>
         </is>
       </c>
       <c r="B583" s="2" t="inlineStr">
         <is>
-          <t>محمد غفوری</t>
+          <t>علی اقیان</t>
         </is>
       </c>
       <c r="C583" s="2" t="n"/>
@@ -24962,12 +24970,12 @@
     <row r="584" ht="20" customHeight="1">
       <c r="A584" s="2" t="inlineStr">
         <is>
-          <t>3001704</t>
+          <t>3001702</t>
         </is>
       </c>
       <c r="B584" s="2" t="inlineStr">
         <is>
-          <t>میثم گلشنی احسان</t>
+          <t>محمد غفوری</t>
         </is>
       </c>
       <c r="C584" s="2" t="n"/>
@@ -25004,12 +25012,12 @@
     <row r="585" ht="20" customHeight="1">
       <c r="A585" s="2" t="inlineStr">
         <is>
-          <t>3001705</t>
+          <t>3001704</t>
         </is>
       </c>
       <c r="B585" s="2" t="inlineStr">
         <is>
-          <t>علی جعفرپناه</t>
+          <t>میثم گلشنی احسان</t>
         </is>
       </c>
       <c r="C585" s="2" t="n"/>
@@ -25046,12 +25054,12 @@
     <row r="586" ht="20" customHeight="1">
       <c r="A586" s="2" t="inlineStr">
         <is>
-          <t>3001706</t>
+          <t>3001705</t>
         </is>
       </c>
       <c r="B586" s="2" t="inlineStr">
         <is>
-          <t>رامین هادوی راد</t>
+          <t>علی جعفرپناه</t>
         </is>
       </c>
       <c r="C586" s="2" t="n"/>
@@ -25088,12 +25096,12 @@
     <row r="587" ht="20" customHeight="1">
       <c r="A587" s="2" t="inlineStr">
         <is>
-          <t>3001707</t>
+          <t>3001706</t>
         </is>
       </c>
       <c r="B587" s="2" t="inlineStr">
         <is>
-          <t>هما شانه ساز زاده</t>
+          <t>رامین هادوی راد</t>
         </is>
       </c>
       <c r="C587" s="2" t="n"/>
@@ -25130,12 +25138,12 @@
     <row r="588" ht="20" customHeight="1">
       <c r="A588" s="2" t="inlineStr">
         <is>
-          <t>3001708</t>
+          <t>3001707</t>
         </is>
       </c>
       <c r="B588" s="2" t="inlineStr">
         <is>
-          <t>محمد بیات ترک</t>
+          <t>هما شانه ساز زاده</t>
         </is>
       </c>
       <c r="C588" s="2" t="n"/>
@@ -25172,12 +25180,12 @@
     <row r="589" ht="20" customHeight="1">
       <c r="A589" s="2" t="inlineStr">
         <is>
-          <t>3001709</t>
+          <t>3001708</t>
         </is>
       </c>
       <c r="B589" s="2" t="inlineStr">
         <is>
-          <t>مصطفی غلامی سلطانمردانی</t>
+          <t>محمد بیات ترک</t>
         </is>
       </c>
       <c r="C589" s="2" t="n"/>
@@ -25214,12 +25222,12 @@
     <row r="590" ht="20" customHeight="1">
       <c r="A590" s="2" t="inlineStr">
         <is>
-          <t>3001710</t>
+          <t>3001709</t>
         </is>
       </c>
       <c r="B590" s="2" t="inlineStr">
         <is>
-          <t>مهرناز غلامی سلطانمرادی</t>
+          <t>مصطفی غلامی سلطانمردانی</t>
         </is>
       </c>
       <c r="C590" s="2" t="n"/>
@@ -25256,12 +25264,12 @@
     <row r="591" ht="20" customHeight="1">
       <c r="A591" s="2" t="inlineStr">
         <is>
-          <t>3001711</t>
+          <t>3001710</t>
         </is>
       </c>
       <c r="B591" s="2" t="inlineStr">
         <is>
-          <t>فائزه مقیسه</t>
+          <t>مهرناز غلامی سلطانمرادی</t>
         </is>
       </c>
       <c r="C591" s="2" t="n"/>
@@ -25298,12 +25306,12 @@
     <row r="592" ht="20" customHeight="1">
       <c r="A592" s="2" t="inlineStr">
         <is>
-          <t>3001712</t>
+          <t>3001711</t>
         </is>
       </c>
       <c r="B592" s="2" t="inlineStr">
         <is>
-          <t>متین اشرف خراسانی</t>
+          <t>فائزه مقیسه</t>
         </is>
       </c>
       <c r="C592" s="2" t="n"/>
@@ -25340,12 +25348,12 @@
     <row r="593" ht="20" customHeight="1">
       <c r="A593" s="2" t="inlineStr">
         <is>
-          <t>3001713</t>
+          <t>3001712</t>
         </is>
       </c>
       <c r="B593" s="2" t="inlineStr">
         <is>
-          <t>مجتبی ولی بک</t>
+          <t>متین اشرف خراسانی</t>
         </is>
       </c>
       <c r="C593" s="2" t="n"/>
@@ -25382,12 +25390,12 @@
     <row r="594" ht="20" customHeight="1">
       <c r="A594" s="2" t="inlineStr">
         <is>
-          <t>3001714</t>
+          <t>3001713</t>
         </is>
       </c>
       <c r="B594" s="2" t="inlineStr">
         <is>
-          <t>هادی محرابی</t>
+          <t>مجتبی ولی بک</t>
         </is>
       </c>
       <c r="C594" s="2" t="n"/>
@@ -25424,12 +25432,12 @@
     <row r="595" ht="20" customHeight="1">
       <c r="A595" s="2" t="inlineStr">
         <is>
-          <t>3001715</t>
+          <t>3001714</t>
         </is>
       </c>
       <c r="B595" s="2" t="inlineStr">
         <is>
-          <t>مصطفی سعدی آرانی</t>
+          <t>هادی محرابی</t>
         </is>
       </c>
       <c r="C595" s="2" t="n"/>
@@ -25466,12 +25474,12 @@
     <row r="596" ht="20" customHeight="1">
       <c r="A596" s="2" t="inlineStr">
         <is>
-          <t>3001716</t>
+          <t>3001715</t>
         </is>
       </c>
       <c r="B596" s="2" t="inlineStr">
         <is>
-          <t>نادیا نادری</t>
+          <t>مصطفی سعدی آرانی</t>
         </is>
       </c>
       <c r="C596" s="2" t="n"/>
@@ -25508,12 +25516,12 @@
     <row r="597" ht="20" customHeight="1">
       <c r="A597" s="2" t="inlineStr">
         <is>
-          <t>3001717</t>
+          <t>3001716</t>
         </is>
       </c>
       <c r="B597" s="2" t="inlineStr">
         <is>
-          <t>محمد ارسنگ</t>
+          <t>نادیا نادری</t>
         </is>
       </c>
       <c r="C597" s="2" t="n"/>
@@ -25550,12 +25558,12 @@
     <row r="598" ht="20" customHeight="1">
       <c r="A598" s="2" t="inlineStr">
         <is>
-          <t>3001718</t>
+          <t>3001717</t>
         </is>
       </c>
       <c r="B598" s="2" t="inlineStr">
         <is>
-          <t>مجید عبدالهی</t>
+          <t>محمد ارسنگ</t>
         </is>
       </c>
       <c r="C598" s="2" t="n"/>
@@ -25592,12 +25600,12 @@
     <row r="599" ht="20" customHeight="1">
       <c r="A599" s="2" t="inlineStr">
         <is>
-          <t>3001719</t>
+          <t>3001718</t>
         </is>
       </c>
       <c r="B599" s="2" t="inlineStr">
         <is>
-          <t>علیرضا کریملر علی آبادی</t>
+          <t>مجید عبدالهی</t>
         </is>
       </c>
       <c r="C599" s="2" t="n"/>
@@ -25634,12 +25642,12 @@
     <row r="600" ht="20" customHeight="1">
       <c r="A600" s="2" t="inlineStr">
         <is>
-          <t>3001720</t>
+          <t>3001719</t>
         </is>
       </c>
       <c r="B600" s="2" t="inlineStr">
         <is>
-          <t>امیرحسین سلطانی نیا</t>
+          <t>علیرضا کریملر علی آبادی</t>
         </is>
       </c>
       <c r="C600" s="2" t="n"/>
@@ -25676,12 +25684,12 @@
     <row r="601" ht="20" customHeight="1">
       <c r="A601" s="2" t="inlineStr">
         <is>
-          <t>3001721</t>
+          <t>3001720</t>
         </is>
       </c>
       <c r="B601" s="2" t="inlineStr">
         <is>
-          <t>زهرا ایلیاتی</t>
+          <t>امیرحسین سلطانی نیا</t>
         </is>
       </c>
       <c r="C601" s="2" t="n"/>
@@ -25718,12 +25726,12 @@
     <row r="602" ht="20" customHeight="1">
       <c r="A602" s="2" t="inlineStr">
         <is>
-          <t>3001722</t>
+          <t>3001721</t>
         </is>
       </c>
       <c r="B602" s="2" t="inlineStr">
         <is>
-          <t>سمینه یعقوبی</t>
+          <t>زهرا ایلیاتی</t>
         </is>
       </c>
       <c r="C602" s="2" t="n"/>
@@ -25760,12 +25768,12 @@
     <row r="603" ht="20" customHeight="1">
       <c r="A603" s="2" t="inlineStr">
         <is>
-          <t>3001723</t>
+          <t>3001722</t>
         </is>
       </c>
       <c r="B603" s="2" t="inlineStr">
         <is>
-          <t>مجید محسنی نودهی</t>
+          <t>سمینه یعقوبی</t>
         </is>
       </c>
       <c r="C603" s="2" t="n"/>
@@ -25802,12 +25810,12 @@
     <row r="604" ht="20" customHeight="1">
       <c r="A604" s="2" t="inlineStr">
         <is>
-          <t>3001724</t>
+          <t>3001723</t>
         </is>
       </c>
       <c r="B604" s="2" t="inlineStr">
         <is>
-          <t>آرش خلیفه ای</t>
+          <t>مجید محسنی نودهی</t>
         </is>
       </c>
       <c r="C604" s="2" t="n"/>
@@ -25844,12 +25852,12 @@
     <row r="605" ht="20" customHeight="1">
       <c r="A605" s="2" t="inlineStr">
         <is>
-          <t>3001725</t>
+          <t>3001724</t>
         </is>
       </c>
       <c r="B605" s="2" t="inlineStr">
         <is>
-          <t>امیر مبینی</t>
+          <t>آرش خلیفه ای</t>
         </is>
       </c>
       <c r="C605" s="2" t="n"/>
@@ -25886,12 +25894,12 @@
     <row r="606" ht="20" customHeight="1">
       <c r="A606" s="2" t="inlineStr">
         <is>
-          <t>3001726</t>
+          <t>3001725</t>
         </is>
       </c>
       <c r="B606" s="2" t="inlineStr">
         <is>
-          <t>نوشین گلشنی یوسف آباد</t>
+          <t>امیر مبینی</t>
         </is>
       </c>
       <c r="C606" s="2" t="n"/>
@@ -25928,12 +25936,12 @@
     <row r="607" ht="20" customHeight="1">
       <c r="A607" s="2" t="inlineStr">
         <is>
-          <t>3001727</t>
+          <t>3001726</t>
         </is>
       </c>
       <c r="B607" s="2" t="inlineStr">
         <is>
-          <t>بابک نقش نژاد</t>
+          <t>نوشین گلشنی یوسف آباد</t>
         </is>
       </c>
       <c r="C607" s="2" t="n"/>
@@ -25970,12 +25978,12 @@
     <row r="608" ht="20" customHeight="1">
       <c r="A608" s="2" t="inlineStr">
         <is>
-          <t>3001728</t>
+          <t>3001727</t>
         </is>
       </c>
       <c r="B608" s="2" t="inlineStr">
         <is>
-          <t>یاشار رسول زاده وایقان</t>
+          <t>بابک نقش نژاد</t>
         </is>
       </c>
       <c r="C608" s="2" t="n"/>
@@ -26012,12 +26020,12 @@
     <row r="609" ht="20" customHeight="1">
       <c r="A609" s="2" t="inlineStr">
         <is>
-          <t>3001729</t>
+          <t>3001728</t>
         </is>
       </c>
       <c r="B609" s="2" t="inlineStr">
         <is>
-          <t>ابوالقاسم اسماعیل ناد</t>
+          <t>یاشار رسول زاده وایقان</t>
         </is>
       </c>
       <c r="C609" s="2" t="n"/>
@@ -26054,12 +26062,12 @@
     <row r="610" ht="20" customHeight="1">
       <c r="A610" s="2" t="inlineStr">
         <is>
-          <t>3001730</t>
+          <t>3001729</t>
         </is>
       </c>
       <c r="B610" s="2" t="inlineStr">
         <is>
-          <t>مریم هنری</t>
+          <t>ابوالقاسم اسماعیل ناد</t>
         </is>
       </c>
       <c r="C610" s="2" t="n"/>
@@ -26096,12 +26104,12 @@
     <row r="611" ht="20" customHeight="1">
       <c r="A611" s="2" t="inlineStr">
         <is>
-          <t>3001731</t>
+          <t>3001730</t>
         </is>
       </c>
       <c r="B611" s="2" t="inlineStr">
         <is>
-          <t>احسان نیک فر</t>
+          <t>مریم هنری</t>
         </is>
       </c>
       <c r="C611" s="2" t="n"/>
@@ -26138,12 +26146,12 @@
     <row r="612" ht="20" customHeight="1">
       <c r="A612" s="2" t="inlineStr">
         <is>
-          <t>3001732</t>
+          <t>3001731</t>
         </is>
       </c>
       <c r="B612" s="2" t="inlineStr">
         <is>
-          <t>نیما تولیدی</t>
+          <t>احسان نیک فر</t>
         </is>
       </c>
       <c r="C612" s="2" t="n"/>
@@ -26180,12 +26188,12 @@
     <row r="613" ht="20" customHeight="1">
       <c r="A613" s="2" t="inlineStr">
         <is>
-          <t>3001733</t>
+          <t>3001732</t>
         </is>
       </c>
       <c r="B613" s="2" t="inlineStr">
         <is>
-          <t>امیر میرزایی</t>
+          <t>نیما تولیدی</t>
         </is>
       </c>
       <c r="C613" s="2" t="n"/>
@@ -26222,12 +26230,12 @@
     <row r="614" ht="20" customHeight="1">
       <c r="A614" s="2" t="inlineStr">
         <is>
-          <t>3001734</t>
+          <t>3001733</t>
         </is>
       </c>
       <c r="B614" s="2" t="inlineStr">
         <is>
-          <t>محمدرضا سهرابی</t>
+          <t>امیر میرزایی</t>
         </is>
       </c>
       <c r="C614" s="2" t="n"/>
@@ -26264,12 +26272,12 @@
     <row r="615" ht="20" customHeight="1">
       <c r="A615" s="2" t="inlineStr">
         <is>
-          <t>3001735</t>
+          <t>3001734</t>
         </is>
       </c>
       <c r="B615" s="2" t="inlineStr">
         <is>
-          <t>سید هاشم میرقاسمی</t>
+          <t>محمدرضا سهرابی</t>
         </is>
       </c>
       <c r="C615" s="2" t="n"/>
@@ -26306,12 +26314,12 @@
     <row r="616" ht="20" customHeight="1">
       <c r="A616" s="2" t="inlineStr">
         <is>
-          <t>3001760</t>
+          <t>3001735</t>
         </is>
       </c>
       <c r="B616" s="2" t="inlineStr">
         <is>
-          <t>نیکان سیدصالحی</t>
+          <t>سید هاشم میرقاسمی</t>
         </is>
       </c>
       <c r="C616" s="2" t="n"/>
@@ -26348,12 +26356,12 @@
     <row r="617" ht="20" customHeight="1">
       <c r="A617" s="2" t="inlineStr">
         <is>
-          <t>3001800</t>
+          <t>3001760</t>
         </is>
       </c>
       <c r="B617" s="2" t="inlineStr">
         <is>
-          <t>علیرضا کریملر علی آبادی</t>
+          <t>نیکان سیدصالحی</t>
         </is>
       </c>
       <c r="C617" s="2" t="n"/>
@@ -26395,7 +26403,7 @@
       </c>
       <c r="B618" s="2" t="inlineStr">
         <is>
-          <t>وحید قهرمانی</t>
+          <t>علیرضا کریملر علی آبادی</t>
         </is>
       </c>
       <c r="C618" s="2" t="n"/>
@@ -26432,12 +26440,12 @@
     <row r="619" ht="20" customHeight="1">
       <c r="A619" s="2" t="inlineStr">
         <is>
-          <t>3001801</t>
+          <t>3001800</t>
         </is>
       </c>
       <c r="B619" s="2" t="inlineStr">
         <is>
-          <t>سید مهدی نصرتی</t>
+          <t>وحید قهرمانی</t>
         </is>
       </c>
       <c r="C619" s="2" t="n"/>
@@ -26474,12 +26482,12 @@
     <row r="620" ht="20" customHeight="1">
       <c r="A620" s="2" t="inlineStr">
         <is>
-          <t>3001802</t>
+          <t>3001801</t>
         </is>
       </c>
       <c r="B620" s="2" t="inlineStr">
         <is>
-          <t>احسان نصیر</t>
+          <t>سید مهدی نصرتی</t>
         </is>
       </c>
       <c r="C620" s="2" t="n"/>
@@ -26516,12 +26524,12 @@
     <row r="621" ht="20" customHeight="1">
       <c r="A621" s="2" t="inlineStr">
         <is>
-          <t>3001803</t>
+          <t>3001802</t>
         </is>
       </c>
       <c r="B621" s="2" t="inlineStr">
         <is>
-          <t>فرشاد فرهمندی</t>
+          <t>احسان نصیر</t>
         </is>
       </c>
       <c r="C621" s="2" t="n"/>
@@ -26558,12 +26566,12 @@
     <row r="622" ht="20" customHeight="1">
       <c r="A622" s="2" t="inlineStr">
         <is>
-          <t>3001804</t>
+          <t>3001803</t>
         </is>
       </c>
       <c r="B622" s="2" t="inlineStr">
         <is>
-          <t>حمید بخشی</t>
+          <t>فرشاد فرهمندی</t>
         </is>
       </c>
       <c r="C622" s="2" t="n"/>
@@ -26600,12 +26608,12 @@
     <row r="623" ht="20" customHeight="1">
       <c r="A623" s="2" t="inlineStr">
         <is>
-          <t>3001806</t>
+          <t>3001804</t>
         </is>
       </c>
       <c r="B623" s="2" t="inlineStr">
         <is>
-          <t>پیمان پورنوری</t>
+          <t>حمید بخشی</t>
         </is>
       </c>
       <c r="C623" s="2" t="n"/>
@@ -26642,12 +26650,12 @@
     <row r="624" ht="20" customHeight="1">
       <c r="A624" s="2" t="inlineStr">
         <is>
-          <t>3001807</t>
+          <t>3001806</t>
         </is>
       </c>
       <c r="B624" s="2" t="inlineStr">
         <is>
-          <t>مهدی نادر بیگی</t>
+          <t>پیمان پورنوری</t>
         </is>
       </c>
       <c r="C624" s="2" t="n"/>
@@ -26684,12 +26692,12 @@
     <row r="625" ht="20" customHeight="1">
       <c r="A625" s="2" t="inlineStr">
         <is>
-          <t>3001808</t>
+          <t>3001807</t>
         </is>
       </c>
       <c r="B625" s="2" t="inlineStr">
         <is>
-          <t>سینا کلانتری</t>
+          <t>مهدی نادر بیگی</t>
         </is>
       </c>
       <c r="C625" s="2" t="n"/>
@@ -26726,12 +26734,12 @@
     <row r="626" ht="20" customHeight="1">
       <c r="A626" s="2" t="inlineStr">
         <is>
-          <t>3001809</t>
+          <t>3001808</t>
         </is>
       </c>
       <c r="B626" s="2" t="inlineStr">
         <is>
-          <t>امید رضائی قلعه</t>
+          <t>سینا کلانتری</t>
         </is>
       </c>
       <c r="C626" s="2" t="n"/>
@@ -26768,12 +26776,12 @@
     <row r="627" ht="20" customHeight="1">
       <c r="A627" s="2" t="inlineStr">
         <is>
-          <t>3001811</t>
+          <t>3001809</t>
         </is>
       </c>
       <c r="B627" s="2" t="inlineStr">
         <is>
-          <t>احسان نصیر</t>
+          <t>امید رضائی قلعه</t>
         </is>
       </c>
       <c r="C627" s="2" t="n"/>
@@ -26810,12 +26818,12 @@
     <row r="628" ht="20" customHeight="1">
       <c r="A628" s="2" t="inlineStr">
         <is>
-          <t>3001812</t>
+          <t>3001811</t>
         </is>
       </c>
       <c r="B628" s="2" t="inlineStr">
         <is>
-          <t>حمیدرضا روانشادنیا</t>
+          <t>احسان نصیر</t>
         </is>
       </c>
       <c r="C628" s="2" t="n"/>
@@ -26852,12 +26860,12 @@
     <row r="629" ht="20" customHeight="1">
       <c r="A629" s="2" t="inlineStr">
         <is>
-          <t>3001813</t>
+          <t>3001812</t>
         </is>
       </c>
       <c r="B629" s="2" t="inlineStr">
         <is>
-          <t>مهسا کاظمی</t>
+          <t>حمیدرضا روانشادنیا</t>
         </is>
       </c>
       <c r="C629" s="2" t="n"/>
@@ -26894,12 +26902,12 @@
     <row r="630" ht="20" customHeight="1">
       <c r="A630" s="2" t="inlineStr">
         <is>
-          <t>3001815</t>
+          <t>3001813</t>
         </is>
       </c>
       <c r="B630" s="2" t="inlineStr">
         <is>
-          <t>علیرضا ملکی حاج آقا</t>
+          <t>مهسا کاظمی</t>
         </is>
       </c>
       <c r="C630" s="2" t="n"/>
@@ -26936,12 +26944,12 @@
     <row r="631" ht="20" customHeight="1">
       <c r="A631" s="2" t="inlineStr">
         <is>
-          <t>3001817</t>
+          <t>3001815</t>
         </is>
       </c>
       <c r="B631" s="2" t="inlineStr">
         <is>
-          <t>ستایش حیدری کیان</t>
+          <t>علیرضا ملکی حاج آقا</t>
         </is>
       </c>
       <c r="C631" s="2" t="n"/>
@@ -26978,12 +26986,12 @@
     <row r="632" ht="20" customHeight="1">
       <c r="A632" s="2" t="inlineStr">
         <is>
-          <t>3001819</t>
+          <t>3001817</t>
         </is>
       </c>
       <c r="B632" s="2" t="inlineStr">
         <is>
-          <t>بهزاد مختاری</t>
+          <t>ستایش حیدری کیان</t>
         </is>
       </c>
       <c r="C632" s="2" t="n"/>
@@ -27020,12 +27028,12 @@
     <row r="633" ht="20" customHeight="1">
       <c r="A633" s="2" t="inlineStr">
         <is>
-          <t>3001820</t>
+          <t>3001819</t>
         </is>
       </c>
       <c r="B633" s="2" t="inlineStr">
         <is>
-          <t>مریم هنری</t>
+          <t>بهزاد مختاری</t>
         </is>
       </c>
       <c r="C633" s="2" t="n"/>
@@ -27062,12 +27070,12 @@
     <row r="634" ht="20" customHeight="1">
       <c r="A634" s="2" t="inlineStr">
         <is>
-          <t>3001821</t>
+          <t>3001820</t>
         </is>
       </c>
       <c r="B634" s="2" t="inlineStr">
         <is>
-          <t>بهناز خدادیان آشتیانی</t>
+          <t>مریم هنری</t>
         </is>
       </c>
       <c r="C634" s="2" t="n"/>
@@ -27104,12 +27112,12 @@
     <row r="635" ht="20" customHeight="1">
       <c r="A635" s="2" t="inlineStr">
         <is>
-          <t>3001822</t>
+          <t>3001821</t>
         </is>
       </c>
       <c r="B635" s="2" t="inlineStr">
         <is>
-          <t>مهرداد حسین پور</t>
+          <t>بهناز خدادیان آشتیانی</t>
         </is>
       </c>
       <c r="C635" s="2" t="n"/>
@@ -27146,12 +27154,12 @@
     <row r="636" ht="20" customHeight="1">
       <c r="A636" s="2" t="inlineStr">
         <is>
-          <t>3001823</t>
+          <t>3001822</t>
         </is>
       </c>
       <c r="B636" s="2" t="inlineStr">
         <is>
-          <t>مرتضی رحمانی</t>
+          <t>مهرداد حسین پور</t>
         </is>
       </c>
       <c r="C636" s="2" t="n"/>
@@ -27188,12 +27196,12 @@
     <row r="637" ht="20" customHeight="1">
       <c r="A637" s="2" t="inlineStr">
         <is>
-          <t>3001824</t>
+          <t>3001823</t>
         </is>
       </c>
       <c r="B637" s="2" t="inlineStr">
         <is>
-          <t>رضا فدوی اردستانی</t>
+          <t>مرتضی رحمانی</t>
         </is>
       </c>
       <c r="C637" s="2" t="n"/>
@@ -27230,12 +27238,12 @@
     <row r="638" ht="20" customHeight="1">
       <c r="A638" s="2" t="inlineStr">
         <is>
-          <t>3001825</t>
+          <t>3001824</t>
         </is>
       </c>
       <c r="B638" s="2" t="inlineStr">
         <is>
-          <t>داود فدوی اردستانی</t>
+          <t>رضا فدوی اردستانی</t>
         </is>
       </c>
       <c r="C638" s="2" t="n"/>
@@ -27277,7 +27285,7 @@
       </c>
       <c r="B639" s="2" t="inlineStr">
         <is>
-          <t>رضا فدوی اردستانی</t>
+          <t>داود فدوی اردستانی</t>
         </is>
       </c>
       <c r="C639" s="2" t="n"/>
@@ -27314,12 +27322,12 @@
     <row r="640" ht="20" customHeight="1">
       <c r="A640" s="2" t="inlineStr">
         <is>
-          <t>3001826</t>
+          <t>3001825</t>
         </is>
       </c>
       <c r="B640" s="2" t="inlineStr">
         <is>
-          <t>بهداد خاموشیان</t>
+          <t>رضا فدوی اردستانی</t>
         </is>
       </c>
       <c r="C640" s="2" t="n"/>
@@ -27356,12 +27364,12 @@
     <row r="641" ht="20" customHeight="1">
       <c r="A641" s="2" t="inlineStr">
         <is>
-          <t>3001827</t>
+          <t>3001826</t>
         </is>
       </c>
       <c r="B641" s="2" t="inlineStr">
         <is>
-          <t>میرمعین الدین هوشیاری</t>
+          <t>بهداد خاموشیان</t>
         </is>
       </c>
       <c r="C641" s="2" t="n"/>
@@ -27398,12 +27406,12 @@
     <row r="642" ht="20" customHeight="1">
       <c r="A642" s="2" t="inlineStr">
         <is>
-          <t>3001828</t>
+          <t>3001827</t>
         </is>
       </c>
       <c r="B642" s="2" t="inlineStr">
         <is>
-          <t>ابوالفضل باباخانی</t>
+          <t>میرمعین الدین هوشیاری</t>
         </is>
       </c>
       <c r="C642" s="2" t="n"/>
@@ -27440,12 +27448,12 @@
     <row r="643" ht="20" customHeight="1">
       <c r="A643" s="2" t="inlineStr">
         <is>
-          <t>3001829</t>
+          <t>3001828</t>
         </is>
       </c>
       <c r="B643" s="2" t="inlineStr">
         <is>
-          <t>نیوشا خطابخش</t>
+          <t>ابوالفضل باباخانی</t>
         </is>
       </c>
       <c r="C643" s="2" t="n"/>
@@ -27482,12 +27490,12 @@
     <row r="644" ht="20" customHeight="1">
       <c r="A644" s="2" t="inlineStr">
         <is>
-          <t>3001830</t>
+          <t>3001829</t>
         </is>
       </c>
       <c r="B644" s="2" t="inlineStr">
         <is>
-          <t>علی سلمانی</t>
+          <t>نیوشا خطابخش</t>
         </is>
       </c>
       <c r="C644" s="2" t="n"/>
@@ -27524,12 +27532,12 @@
     <row r="645" ht="20" customHeight="1">
       <c r="A645" s="2" t="inlineStr">
         <is>
-          <t>3001831</t>
+          <t>3001830</t>
         </is>
       </c>
       <c r="B645" s="2" t="inlineStr">
         <is>
-          <t>امیر مبینی</t>
+          <t>علی سلمانی</t>
         </is>
       </c>
       <c r="C645" s="2" t="n"/>
@@ -27566,12 +27574,12 @@
     <row r="646" ht="20" customHeight="1">
       <c r="A646" s="2" t="inlineStr">
         <is>
-          <t>3001832</t>
+          <t>3001831</t>
         </is>
       </c>
       <c r="B646" s="2" t="inlineStr">
         <is>
-          <t>نوشین گلشنی یوسف آباد</t>
+          <t>امیر مبینی</t>
         </is>
       </c>
       <c r="C646" s="2" t="n"/>
@@ -27608,12 +27616,12 @@
     <row r="647" ht="20" customHeight="1">
       <c r="A647" s="2" t="inlineStr">
         <is>
-          <t>3001833</t>
+          <t>3001832</t>
         </is>
       </c>
       <c r="B647" s="2" t="inlineStr">
         <is>
-          <t>فائزه فدوی اردستانی</t>
+          <t>نوشین گلشنی یوسف آباد</t>
         </is>
       </c>
       <c r="C647" s="2" t="n"/>
@@ -27650,12 +27658,12 @@
     <row r="648" ht="20" customHeight="1">
       <c r="A648" s="2" t="inlineStr">
         <is>
-          <t>3001901</t>
+          <t>3001833</t>
         </is>
       </c>
       <c r="B648" s="2" t="inlineStr">
         <is>
-          <t>مهران غلامی سلطانمرادی</t>
+          <t>فائزه فدوی اردستانی</t>
         </is>
       </c>
       <c r="C648" s="2" t="n"/>
@@ -27692,12 +27700,12 @@
     <row r="649" ht="20" customHeight="1">
       <c r="A649" s="2" t="inlineStr">
         <is>
-          <t>5001001</t>
+          <t>3001901</t>
         </is>
       </c>
       <c r="B649" s="2" t="inlineStr">
         <is>
-          <t>شراره زندی</t>
+          <t>مهران غلامی سلطانمرادی</t>
         </is>
       </c>
       <c r="C649" s="2" t="n"/>
@@ -27734,12 +27742,12 @@
     <row r="650" ht="20" customHeight="1">
       <c r="A650" s="2" t="inlineStr">
         <is>
-          <t>5001202</t>
+          <t>5001001</t>
         </is>
       </c>
       <c r="B650" s="2" t="inlineStr">
         <is>
-          <t>جواد مرادیان</t>
+          <t>شراره زندی</t>
         </is>
       </c>
       <c r="C650" s="2" t="n"/>
@@ -27776,12 +27784,12 @@
     <row r="651" ht="20" customHeight="1">
       <c r="A651" s="2" t="inlineStr">
         <is>
-          <t>6001001</t>
+          <t>5001202</t>
         </is>
       </c>
       <c r="B651" s="2" t="inlineStr">
         <is>
-          <t>حمیدرضا قله</t>
+          <t>جواد مرادیان</t>
         </is>
       </c>
       <c r="C651" s="2" t="n"/>
@@ -27818,12 +27826,12 @@
     <row r="652" ht="20" customHeight="1">
       <c r="A652" s="2" t="inlineStr">
         <is>
-          <t>6001002</t>
+          <t>6001001</t>
         </is>
       </c>
       <c r="B652" s="2" t="inlineStr">
         <is>
-          <t>محمدامین نظری</t>
+          <t>حمیدرضا قله</t>
         </is>
       </c>
       <c r="C652" s="2" t="n"/>
@@ -27860,12 +27868,12 @@
     <row r="653" ht="20" customHeight="1">
       <c r="A653" s="2" t="inlineStr">
         <is>
-          <t>6001003</t>
+          <t>6001002</t>
         </is>
       </c>
       <c r="B653" s="2" t="inlineStr">
         <is>
-          <t>احمد دستور</t>
+          <t>محمدامین نظری</t>
         </is>
       </c>
       <c r="C653" s="2" t="n"/>
@@ -27902,12 +27910,12 @@
     <row r="654" ht="20" customHeight="1">
       <c r="A654" s="2" t="inlineStr">
         <is>
-          <t>6001010</t>
+          <t>6001003</t>
         </is>
       </c>
       <c r="B654" s="2" t="inlineStr">
         <is>
-          <t>هادی فرج اله لواسانی</t>
+          <t>احمد دستور</t>
         </is>
       </c>
       <c r="C654" s="2" t="n"/>
@@ -27944,24 +27952,16 @@
     <row r="655" ht="20" customHeight="1">
       <c r="A655" s="2" t="inlineStr">
         <is>
-          <t>3001902</t>
+          <t>6001010</t>
         </is>
       </c>
       <c r="B655" s="2" t="inlineStr">
         <is>
-          <t>محمد متین غیاثوند</t>
-        </is>
-      </c>
-      <c r="C655" s="2" t="inlineStr">
-        <is>
-          <t>1744023234</t>
-        </is>
-      </c>
-      <c r="D655" s="2" t="inlineStr">
-        <is>
-          <t>09124354857</t>
-        </is>
-      </c>
+          <t>هادی فرج اله لواسانی</t>
+        </is>
+      </c>
+      <c r="C655" s="2" t="n"/>
+      <c r="D655" s="2" t="n"/>
       <c r="E655" s="2" t="inlineStr">
         <is>
           <t>--</t>
@@ -27969,7 +27969,7 @@
       </c>
       <c r="F655" s="2" t="inlineStr">
         <is>
-          <t>1400/11/10 22:52</t>
+          <t>--</t>
         </is>
       </c>
       <c r="G655" s="2" t="n">
@@ -27977,67 +27977,17 @@
       </c>
       <c r="H655" s="2" t="inlineStr">
         <is>
-          <t>0110211847</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I655" s="2" t="inlineStr">
         <is>
-          <t>عمران</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J655" s="2" t="inlineStr">
         <is>
-          <t>پیوسته</t>
-        </is>
-      </c>
-    </row>
-    <row r="656" ht="20" customHeight="1">
-      <c r="A656" s="2" t="inlineStr">
-        <is>
-          <t>6001011</t>
-        </is>
-      </c>
-      <c r="B656" s="2" t="inlineStr">
-        <is>
-          <t>رضا احدی</t>
-        </is>
-      </c>
-      <c r="C656" s="2" t="inlineStr">
-        <is>
-          <t>1916257540</t>
-        </is>
-      </c>
-      <c r="D656" s="2" t="inlineStr">
-        <is>
-          <t>09123549834</t>
-        </is>
-      </c>
-      <c r="E656" s="2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F656" s="2" t="inlineStr">
-        <is>
-          <t>1400/11/10 22:57</t>
-        </is>
-      </c>
-      <c r="G656" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H656" s="2" t="inlineStr">
-        <is>
-          <t>0110211847</t>
-        </is>
-      </c>
-      <c r="I656" s="2" t="inlineStr">
-        <is>
-          <t>معماری</t>
-        </is>
-      </c>
-      <c r="J656" s="2" t="inlineStr">
-        <is>
-          <t>دانشجویی</t>
+          <t>-</t>
         </is>
       </c>
     </row>
